--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Helmet\HELMET_KEHI_40\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D05EF-A723-41D9-BA0C-9D9637CB9E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB744E5-660E-4C2E-8A39-11F5F8253DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="209">
   <si>
     <t>Nettohyöty</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Yhdistelmä</t>
   </si>
   <si>
-    <t>Tehtävä selvitys yksikköarvojen määrittämiseksi LIVI:n yksikköarvoraportin pohjalta</t>
-  </si>
-  <si>
     <t>Onnettomuudet</t>
   </si>
   <si>
@@ -673,6 +670,36 @@
   </si>
   <si>
     <t>Jakson (6-9, 9-15, 15-18) tuntiosuudet</t>
+  </si>
+  <si>
+    <t>Melutaso dB(A)</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-75</t>
+  </si>
+  <si>
+    <t>Euroa/asukas/vuosi</t>
+  </si>
+  <si>
+    <t>Painotus</t>
+  </si>
+  <si>
+    <t>Meluhaitta (eur/v/as)</t>
+  </si>
+  <si>
+    <t>Meluvyöhykkeellä asuvat</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1775,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2021,9 +2048,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2139,6 +2163,12 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
@@ -2442,7 +2472,7 @@
       <c r="D6" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="211">
+      <c r="E6" s="208">
         <f ca="1">E29-H17</f>
         <v>0</v>
       </c>
@@ -2676,12 +2706,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2696,26 +2726,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.3</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.1</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -2735,7 +2765,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -2751,13 +2781,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -2767,35 +2797,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -2834,10 +2864,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -2850,37 +2880,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -2900,7 +2930,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -2916,13 +2946,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2932,35 +2962,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -2999,10 +3029,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3015,23 +3045,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3045,23 +3075,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -3081,7 +3111,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -3097,13 +3127,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3113,35 +3143,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -3161,7 +3191,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -3177,13 +3207,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3196,23 +3226,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3239,12 +3269,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3259,26 +3289,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.3</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.1</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -3298,7 +3328,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -3314,13 +3344,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -3330,35 +3360,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -3397,10 +3427,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -3413,37 +3443,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -3463,7 +3493,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -3479,13 +3509,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3495,35 +3525,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -3562,10 +3592,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3578,23 +3608,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3608,23 +3638,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -3644,7 +3674,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -3660,13 +3690,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3676,35 +3706,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -3724,7 +3754,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -3740,13 +3770,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3759,23 +3789,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3802,12 +3832,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3822,26 +3852,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.3</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.1</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -3861,7 +3891,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -3877,13 +3907,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -3893,35 +3923,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -3960,10 +3990,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -3976,37 +4006,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -4026,7 +4056,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -4042,13 +4072,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4058,35 +4088,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -4125,10 +4155,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4141,23 +4171,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -4171,23 +4201,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -4207,7 +4237,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -4223,13 +4253,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4239,35 +4269,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -4287,7 +4317,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -4303,13 +4333,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4322,23 +4352,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -5091,13 +5121,13 @@
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
-      <c r="B42" s="264">
+      <c r="B42" s="261">
         <v>0.47799999999999998</v>
       </c>
-      <c r="C42" s="265">
+      <c r="C42" s="262">
         <v>0.109</v>
       </c>
-      <c r="D42" s="265">
+      <c r="D42" s="262">
         <v>0.40500000000000003</v>
       </c>
       <c r="E42" s="50"/>
@@ -5141,13 +5171,13 @@
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
-      <c r="B45" s="264">
+      <c r="B45" s="261">
         <v>0.47799999999999998</v>
       </c>
-      <c r="C45" s="265">
+      <c r="C45" s="262">
         <v>0.109</v>
       </c>
-      <c r="D45" s="265">
+      <c r="D45" s="262">
         <v>0.40500000000000003</v>
       </c>
       <c r="E45" s="50"/>
@@ -5213,20 +5243,20 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" s="156">
         <v>4.3E-3</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G55" s="8">
         <f>300*(Ulkoisvaikutukset!O19+Ulkoisvaikutukset!O20)</f>
         <v>0</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L55" s="90">
         <f>B55*G55</f>
@@ -5234,21 +5264,21 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="259" t="s">
-        <v>193</v>
+      <c r="A56" s="256" t="s">
+        <v>192</v>
       </c>
       <c r="B56" s="156">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="F56" s="259" t="s">
-        <v>193</v>
+      <c r="F56" s="256" t="s">
+        <v>192</v>
       </c>
       <c r="G56" s="8">
         <f>300*(Ulkoisvaikutukset!O15+Ulkoisvaikutukset!O21+Ulkoisvaikutukset!O22)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="261" t="s">
-        <v>193</v>
+      <c r="K56" s="258" t="s">
+        <v>192</v>
       </c>
       <c r="L56" s="118">
         <f>B56*G56</f>
@@ -5350,14 +5380,14 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F63" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G63" s="8">
         <f>300*(Ulkoisvaikutukset!O32+Ulkoisvaikutukset!O33)</f>
         <v>0</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L63" s="90">
         <f>B55*G63</f>
@@ -5365,15 +5395,15 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F64" s="259" t="s">
-        <v>193</v>
+      <c r="F64" s="256" t="s">
+        <v>192</v>
       </c>
       <c r="G64" s="8">
         <f>300*(Ulkoisvaikutukset!O28+Ulkoisvaikutukset!O34+Ulkoisvaikutukset!O35)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="260" t="s">
-        <v>193</v>
+      <c r="K64" s="257" t="s">
+        <v>192</v>
       </c>
       <c r="L64" s="90">
         <f>B56*G64</f>
@@ -5572,10 +5602,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Taul3"/>
-  <dimension ref="B2:P83"/>
+  <dimension ref="B2:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5655,22 +5685,22 @@
         <v>5.7953570000000003E-2</v>
       </c>
       <c r="F4" s="58"/>
-      <c r="G4" s="289">
+      <c r="G4" s="286">
         <v>2.4E-2</v>
       </c>
-      <c r="H4" s="290">
+      <c r="H4" s="287">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I4" s="290">
+      <c r="I4" s="287">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J4" s="290">
+      <c r="J4" s="287">
         <v>0.26</v>
       </c>
-      <c r="K4" s="290">
+      <c r="K4" s="287">
         <v>0.376</v>
       </c>
-      <c r="L4" s="291">
+      <c r="L4" s="288">
         <v>0</v>
       </c>
     </row>
@@ -5687,7 +5717,7 @@
       <c r="F5" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="258">
+      <c r="G5" s="255">
         <v>410600</v>
       </c>
       <c r="H5" s="8"/>
@@ -5745,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="36" t="s">
         <v>56</v>
       </c>
@@ -5757,6 +5787,9 @@
         <f>M51</f>
         <v>1.0337919999999999E-2</v>
       </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
@@ -5770,8 +5803,11 @@
         <f>M59</f>
         <v>1.6811258999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="36" t="s">
         <v>77</v>
       </c>
@@ -5782,6 +5818,10 @@
       <c r="D10" s="164">
         <f>M75</f>
         <v>3.4803214999999998E-2</v>
+      </c>
+      <c r="F10" s="59">
+        <f>E91</f>
+        <v>1336</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5802,9 +5842,6 @@
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
-      <c r="E13" t="s">
-        <v>129</v>
-      </c>
       <c r="H13" s="11">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -5815,37 +5852,37 @@
         <v>6</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>115</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="99" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="J14" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="K14" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="L14" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="M14" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="N14" s="87" t="s">
         <v>137</v>
-      </c>
-      <c r="N14" s="87" t="s">
-        <v>138</v>
       </c>
       <c r="O14" s="99" t="s">
         <v>74</v>
@@ -5868,15 +5905,12 @@
       <c r="H15" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="204"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="205"/>
-      <c r="N15" s="206">
-        <f>SUM(Tuottajahyodyt!S8:S9)</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="289"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
+      <c r="M15" s="290"/>
+      <c r="N15" s="291"/>
       <c r="O15" s="58">
         <f t="shared" ref="O15:O22" si="3">SUM(I15:N15)</f>
         <v>0</v>
@@ -5899,12 +5933,12 @@
       <c r="H16" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="209">
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="206">
         <f>Tuottajahyodyt!S10</f>
         <v>0</v>
       </c>
@@ -5930,12 +5964,12 @@
       <c r="H17" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="210"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="205"/>
+      <c r="M17" s="205"/>
+      <c r="N17" s="207"/>
       <c r="O17" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5958,12 +5992,12 @@
       <c r="H18" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="210"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="207"/>
       <c r="O18" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6093,10 +6127,7 @@
         <f>SUM(D15:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="129">
-        <f>SUM(E15:E22)</f>
-        <v>0</v>
-      </c>
+      <c r="E23" s="129"/>
       <c r="F23" s="130">
         <f>SUM(C23:E23)</f>
         <v>0</v>
@@ -6115,14 +6146,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="88">
-        <f>300*E23</f>
+        <f>F10*I24</f>
         <v>0</v>
       </c>
       <c r="F24" s="91">
         <f>300*F23</f>
         <v>0</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="H24" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="292"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -6169,37 +6203,37 @@
         <v>6</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="56" t="s">
         <v>115</v>
       </c>
       <c r="E27" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="99" t="s">
         <v>74</v>
       </c>
       <c r="H27" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="J27" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="K27" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="L27" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="M27" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="N27" s="87" t="s">
         <v>137</v>
-      </c>
-      <c r="N27" s="87" t="s">
-        <v>138</v>
       </c>
       <c r="O27" s="99" t="s">
         <v>74</v>
@@ -6222,15 +6256,12 @@
       <c r="H28" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="206">
-        <f>SUM(Tuottajahyodyt!S16:S17)</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="289"/>
+      <c r="J28" s="290"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="290"/>
+      <c r="N28" s="291"/>
       <c r="O28" s="58">
         <f t="shared" ref="O28:O35" si="6">SUM(I28:N28)</f>
         <v>0</v>
@@ -6253,12 +6284,12 @@
       <c r="H29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="208"/>
-      <c r="M29" s="208"/>
-      <c r="N29" s="209">
+      <c r="I29" s="204"/>
+      <c r="J29" s="205"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="205"/>
+      <c r="M29" s="205"/>
+      <c r="N29" s="206">
         <f>Tuottajahyodyt!S18</f>
         <v>0</v>
       </c>
@@ -6284,12 +6315,12 @@
       <c r="H30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="208"/>
-      <c r="N30" s="210"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="205"/>
+      <c r="L30" s="205"/>
+      <c r="M30" s="205"/>
+      <c r="N30" s="207"/>
       <c r="O30" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6312,12 +6343,12 @@
       <c r="H31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
-      <c r="M31" s="208"/>
-      <c r="N31" s="210"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="205"/>
+      <c r="M31" s="205"/>
+      <c r="N31" s="207"/>
       <c r="O31" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6447,10 +6478,7 @@
         <f>SUM(D28:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="129">
-        <f>SUM(E28:E35)</f>
-        <v>0</v>
-      </c>
+      <c r="E36" s="129"/>
       <c r="F36" s="130">
         <f>SUM(C36:E36)</f>
         <v>0</v>
@@ -6469,13 +6497,17 @@
         <v>0</v>
       </c>
       <c r="E37" s="88">
-        <f>300*E36</f>
+        <f>F10*I37</f>
         <v>0</v>
       </c>
       <c r="F37" s="91">
         <f>300*F36</f>
         <v>0</v>
       </c>
+      <c r="H37" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" s="293"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C38" s="104"/>
@@ -6527,16 +6559,16 @@
     </row>
     <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
         <v>139</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" t="s">
         <v>140</v>
       </c>
-      <c r="G45" t="s">
+      <c r="L45" t="s">
         <v>141</v>
-      </c>
-      <c r="L45" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
@@ -6564,7 +6596,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="182">
         <v>0.04</v>
@@ -6589,7 +6621,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="182">
         <v>0.44</v>
@@ -6614,7 +6646,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="182">
         <v>1.4999999999999999E-2</v>
@@ -6639,7 +6671,7 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="183">
         <v>202</v>
@@ -6685,16 +6717,16 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
         <v>139</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
         <v>140</v>
       </c>
-      <c r="G53" t="s">
+      <c r="L53" t="s">
         <v>141</v>
-      </c>
-      <c r="L53" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
@@ -6722,7 +6754,7 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="182">
         <v>4.2000000000000003E-2</v>
@@ -6747,7 +6779,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="182">
         <v>1.1000000000000001</v>
@@ -6772,7 +6804,7 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="182">
         <v>0.41</v>
@@ -6797,7 +6829,7 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" s="183">
         <v>276</v>
@@ -6843,21 +6875,21 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
         <v>139</v>
       </c>
-      <c r="C61" t="s">
+      <c r="G61" t="s">
         <v>140</v>
       </c>
-      <c r="G61" t="s">
+      <c r="L61" t="s">
         <v>141</v>
-      </c>
-      <c r="L61" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
         <v>119</v>
@@ -6880,7 +6912,7 @@
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="182">
         <v>0.2</v>
@@ -6905,7 +6937,7 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="182">
         <v>6</v>
@@ -6930,7 +6962,7 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="182">
         <v>0.08</v>
@@ -6955,7 +6987,7 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="183">
         <v>1202</v>
@@ -6993,26 +7025,26 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
         <v>148</v>
-      </c>
-      <c r="D68" t="s">
-        <v>149</v>
       </c>
       <c r="L68" s="185"/>
       <c r="M68" s="185"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
         <v>139</v>
       </c>
-      <c r="C69" t="s">
+      <c r="G69" t="s">
         <v>140</v>
       </c>
-      <c r="G69" t="s">
+      <c r="L69" t="s">
         <v>141</v>
-      </c>
-      <c r="L69" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
@@ -7040,7 +7072,7 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="182">
         <v>9.0999999999999998E-2</v>
@@ -7065,7 +7097,7 @@
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="182">
         <v>1.2</v>
@@ -7090,7 +7122,7 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="182">
         <v>3.5000000000000003E-2</v>
@@ -7115,7 +7147,7 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="183">
         <v>376</v>
@@ -7153,24 +7185,24 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
         <v>150</v>
-      </c>
-      <c r="D76" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="s">
         <v>139</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" t="s">
         <v>140</v>
       </c>
-      <c r="G77" t="s">
+      <c r="L77" t="s">
         <v>141</v>
-      </c>
-      <c r="L77" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
@@ -7198,7 +7230,7 @@
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="182">
         <v>0.31</v>
@@ -7223,7 +7255,7 @@
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="182">
         <v>9.6999999999999993</v>
@@ -7248,7 +7280,7 @@
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="182">
         <v>0.15</v>
@@ -7273,7 +7305,7 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="183">
         <v>1652</v>
@@ -7307,6 +7339,98 @@
       <c r="M83" s="185">
         <f>SUM(M79:M82)</f>
         <v>9.4804100000000002E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="184">
+        <v>130</v>
+      </c>
+      <c r="D86" s="294">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>D86*C86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="184">
+        <v>720</v>
+      </c>
+      <c r="D87" s="294">
+        <v>0.6</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:E90" si="12">D87*C87</f>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="184">
+        <v>1840</v>
+      </c>
+      <c r="D88" s="294">
+        <v>0.3</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="12"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="184">
+        <v>3520</v>
+      </c>
+      <c r="D89" s="294">
+        <v>0.1</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="12"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="184">
+        <v>6030</v>
+      </c>
+      <c r="D90" s="294">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <f>SUM(E86:E90)</f>
+        <v>1336</v>
       </c>
     </row>
   </sheetData>
@@ -7336,12 +7460,12 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7376,19 +7500,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="135">
         <f>Kayttajahyodyt!I75</f>
         <v>0</v>
       </c>
-      <c r="F7" s="262">
+      <c r="F7" s="259">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G7" s="263">
+      <c r="G7" s="260">
         <v>9.4E-2</v>
       </c>
-      <c r="H7" s="263">
+      <c r="H7" s="260">
         <v>0.36899999999999999</v>
       </c>
       <c r="I7" s="44"/>
@@ -7448,19 +7572,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="135">
         <f>Kayttajahyodyt!I82</f>
         <v>0</v>
       </c>
-      <c r="F12" s="262">
+      <c r="F12" s="259">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G12" s="263">
+      <c r="G12" s="260">
         <v>9.4E-2</v>
       </c>
-      <c r="H12" s="263">
+      <c r="H12" s="260">
         <v>0.36899999999999999</v>
       </c>
       <c r="I12" s="44"/>
@@ -7507,7 +7631,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -7595,7 +7719,7 @@
   <sheetData>
     <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -7607,10 +7731,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA6" s="138" t="s">
         <v>157</v>
-      </c>
-      <c r="AA6" s="138" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
@@ -7709,7 +7833,7 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
@@ -7736,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="245"/>
+      <c r="Z9" s="242"/>
       <c r="AA9" s="60">
         <f>Z9*X9/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7744,7 +7868,7 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="65"/>
       <c r="L10" s="76"/>
@@ -7755,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="246"/>
+      <c r="Z10" s="243"/>
       <c r="AA10" s="60">
         <f>Z10*X10/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7763,7 +7887,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="65"/>
       <c r="L11" s="76"/>
@@ -7774,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="246"/>
+      <c r="Z11" s="243"/>
       <c r="AA11" s="60">
         <f>Z11*X11/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7782,7 +7906,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="65"/>
       <c r="L12" s="76"/>
@@ -7793,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="246"/>
+      <c r="Z12" s="243"/>
       <c r="AA12" s="60">
         <f>Z12*X12/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7801,7 +7925,7 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="65"/>
       <c r="L13" s="76"/>
@@ -7812,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="13"/>
-      <c r="Z13" s="246"/>
+      <c r="Z13" s="243"/>
       <c r="AA13" s="60">
         <f>Z13*X13/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7820,7 +7944,7 @@
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="65"/>
       <c r="L14" s="76"/>
@@ -7831,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="247"/>
+      <c r="Z14" s="244"/>
       <c r="AA14" s="13">
         <f>Z14*X14/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7839,7 +7963,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="65"/>
       <c r="L15" s="76"/>
@@ -7850,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="13"/>
-      <c r="Z15" s="247"/>
+      <c r="Z15" s="244"/>
       <c r="AA15" s="13">
         <f>Z15*X15/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7858,7 +7982,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="65"/>
       <c r="L16" s="76"/>
@@ -7869,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="13"/>
-      <c r="Z16" s="247"/>
+      <c r="Z16" s="244"/>
       <c r="AA16" s="13">
         <f>Z16*X16/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7877,7 +8001,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="65"/>
       <c r="L17" s="76"/>
@@ -7888,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="13"/>
-      <c r="Z17" s="247"/>
+      <c r="Z17" s="244"/>
       <c r="AA17" s="13">
         <f>Z17*X17/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7896,7 +8020,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="65"/>
       <c r="L18" s="76"/>
@@ -7907,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="247"/>
+      <c r="Z18" s="244"/>
       <c r="AA18" s="13">
         <f>Z18*X18/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7915,7 +8039,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="65"/>
       <c r="L19" s="76"/>
@@ -7926,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="247"/>
+      <c r="Z19" s="244"/>
       <c r="AA19" s="13">
         <f>Z19*X19/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7934,7 +8058,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="65"/>
       <c r="L20" s="76"/>
@@ -7945,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="247"/>
+      <c r="Z20" s="244"/>
       <c r="AA20" s="13">
         <f>Z20*X20/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7953,7 +8077,7 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="65"/>
       <c r="L21" s="76"/>
@@ -7964,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="13"/>
-      <c r="Z21" s="247"/>
+      <c r="Z21" s="244"/>
       <c r="AA21" s="13">
         <f>Z21*X21/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -7972,7 +8096,7 @@
     </row>
     <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="81"/>
@@ -7999,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="13"/>
-      <c r="Z22" s="248"/>
+      <c r="Z22" s="245"/>
       <c r="AA22" s="13">
         <f>Z22*X22/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8096,12 +8220,12 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="17">
         <f>C9/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8186,7 +8310,7 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="17">
         <f>C10/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8271,7 +8395,7 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="17">
         <f>C11/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8356,7 +8480,7 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="17">
         <f>C12/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8441,7 +8565,7 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="17">
         <f>C13/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8526,7 +8650,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="17">
         <f>C14/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8611,7 +8735,7 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="17">
         <f>C15/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8696,7 +8820,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="17">
         <f>C16/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8781,7 +8905,7 @@
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="17">
         <f>C17/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8866,7 +8990,7 @@
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="17">
         <f>C18/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -8951,7 +9075,7 @@
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="17">
         <f>C19/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -9036,7 +9160,7 @@
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="17">
         <f>C20/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -9121,7 +9245,7 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="17">
         <f>C21/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -9206,7 +9330,7 @@
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="106">
         <f>C22/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)*Diskonttaus!$B$10</f>
@@ -10049,7 +10173,7 @@
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="226">
+      <c r="B8" s="223">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8">
@@ -10154,7 +10278,7 @@
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="226">
+      <c r="B9" s="223">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9">
@@ -10257,7 +10381,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="199">
         <v>1.2</v>
@@ -10362,9 +10486,9 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="238">
+        <v>194</v>
+      </c>
+      <c r="B11" s="235">
         <v>300</v>
       </c>
       <c r="D11">
@@ -14439,95 +14563,95 @@
         <v>55</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="232" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="235" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="235" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="232" t="s">
+      <c r="D2" s="232" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="229" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="233" t="s">
+      <c r="F2" s="230" t="s">
         <v>128</v>
       </c>
       <c r="H2" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>179</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="240">
+        <v>189</v>
+      </c>
+      <c r="B3" s="237">
         <v>7.92</v>
       </c>
-      <c r="C3" s="241">
+      <c r="C3" s="238">
         <v>5.37</v>
       </c>
-      <c r="D3" s="241">
+      <c r="D3" s="238">
         <v>24.6</v>
       </c>
-      <c r="E3" s="242">
+      <c r="E3" s="239">
         <v>35.909999999999997</v>
       </c>
-      <c r="F3" s="243">
+      <c r="F3" s="240">
         <v>40.22</v>
       </c>
-      <c r="H3" s="236">
+      <c r="H3" s="233">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I3" s="237">
+      <c r="I3" s="234">
         <v>1.6</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="239">
+        <v>190</v>
+      </c>
+      <c r="B4" s="236">
         <v>6.28</v>
       </c>
-      <c r="C4" s="230">
+      <c r="C4" s="227">
         <v>4.83</v>
       </c>
-      <c r="D4" s="234">
+      <c r="D4" s="231">
         <v>20.88</v>
       </c>
-      <c r="E4" s="230"/>
-      <c r="F4" s="231"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="228"/>
     </row>
     <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="244">
+        <v>184</v>
+      </c>
+      <c r="B5" s="241">
         <f>(13.67+12.31+11.37+10.95)/4</f>
         <v>12.074999999999999</v>
       </c>
-      <c r="C5" s="228">
+      <c r="C5" s="225">
         <f>B5</f>
         <v>12.074999999999999</v>
       </c>
-      <c r="D5" s="228">
+      <c r="D5" s="225">
         <f>B5</f>
         <v>12.074999999999999</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="229"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="226"/>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
@@ -14536,26 +14660,26 @@
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="216"/>
-      <c r="AG7" s="216"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="213"/>
+      <c r="AA7" s="213"/>
+      <c r="AB7" s="213"/>
+      <c r="AC7" s="213"/>
+      <c r="AD7" s="213"/>
+      <c r="AE7" s="213"/>
+      <c r="AF7" s="213"/>
+      <c r="AG7" s="213"/>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="99">
@@ -14563,22 +14687,22 @@
         <v>2030</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>178</v>
-      </c>
       <c r="E8" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="H8" s="33" t="s">
         <v>183</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>184</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>77</v>
@@ -14592,26 +14716,26 @@
       <c r="M8" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="216"/>
-      <c r="O8" s="216"/>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="217"/>
-      <c r="R8" s="217"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="216"/>
-      <c r="U8" s="216"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="219"/>
-      <c r="Y8" s="216"/>
-      <c r="Z8" s="216"/>
-      <c r="AA8" s="216"/>
-      <c r="AB8" s="219"/>
-      <c r="AC8" s="219"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="216"/>
-      <c r="AF8" s="216"/>
-      <c r="AG8" s="216"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
+      <c r="P8" s="214"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="213"/>
+      <c r="U8" s="213"/>
+      <c r="V8" s="216"/>
+      <c r="W8" s="216"/>
+      <c r="X8" s="216"/>
+      <c r="Y8" s="213"/>
+      <c r="Z8" s="213"/>
+      <c r="AA8" s="213"/>
+      <c r="AB8" s="216"/>
+      <c r="AC8" s="216"/>
+      <c r="AD8" s="216"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="213"/>
+      <c r="AG8" s="213"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" s="58" t="s">
@@ -14653,30 +14777,30 @@
         <f>-pa!F9*D3</f>
         <v>0</v>
       </c>
-      <c r="M9" s="249">
+      <c r="M9" s="246">
         <f>SUM(C9:L9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="216"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="216"/>
-      <c r="V9" s="220"/>
-      <c r="W9" s="220"/>
-      <c r="X9" s="220"/>
-      <c r="Y9" s="220"/>
-      <c r="Z9" s="220"/>
-      <c r="AA9" s="216"/>
-      <c r="AB9" s="220"/>
-      <c r="AC9" s="220"/>
-      <c r="AD9" s="220"/>
-      <c r="AE9" s="220"/>
-      <c r="AF9" s="220"/>
-      <c r="AG9" s="216"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="217"/>
+      <c r="U9" s="213"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="217"/>
+      <c r="Y9" s="217"/>
+      <c r="Z9" s="217"/>
+      <c r="AA9" s="213"/>
+      <c r="AB9" s="217"/>
+      <c r="AC9" s="217"/>
+      <c r="AD9" s="217"/>
+      <c r="AE9" s="217"/>
+      <c r="AF9" s="217"/>
+      <c r="AG9" s="213"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="36" t="s">
@@ -14718,30 +14842,30 @@
         <f>-pa!F10*D3</f>
         <v>0</v>
       </c>
-      <c r="M10" s="250">
+      <c r="M10" s="247">
         <f>SUM(C10:L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="216"/>
-      <c r="O10" s="216"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="218"/>
-      <c r="T10" s="220"/>
-      <c r="U10" s="216"/>
-      <c r="V10" s="220"/>
-      <c r="W10" s="220"/>
-      <c r="X10" s="220"/>
-      <c r="Y10" s="220"/>
-      <c r="Z10" s="220"/>
-      <c r="AA10" s="216"/>
-      <c r="AB10" s="220"/>
-      <c r="AC10" s="220"/>
-      <c r="AD10" s="220"/>
-      <c r="AE10" s="220"/>
-      <c r="AF10" s="220"/>
-      <c r="AG10" s="216"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="213"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="217"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="217"/>
+      <c r="AA10" s="213"/>
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="217"/>
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="217"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="213"/>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="59" t="s">
@@ -14783,52 +14907,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="251">
+      <c r="M11" s="248">
         <f>SUM(C11:L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="216"/>
-      <c r="O11" s="216"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="220"/>
-      <c r="T11" s="220"/>
-      <c r="U11" s="216"/>
-      <c r="V11" s="220"/>
-      <c r="W11" s="220"/>
-      <c r="X11" s="220"/>
-      <c r="Y11" s="220"/>
-      <c r="Z11" s="220"/>
-      <c r="AA11" s="216"/>
-      <c r="AB11" s="220"/>
-      <c r="AC11" s="220"/>
-      <c r="AD11" s="220"/>
-      <c r="AE11" s="220"/>
-      <c r="AF11" s="220"/>
-      <c r="AG11" s="216"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="217"/>
+      <c r="Q11" s="217"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="217"/>
+      <c r="U11" s="213"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="217"/>
+      <c r="X11" s="217"/>
+      <c r="Y11" s="217"/>
+      <c r="Z11" s="217"/>
+      <c r="AA11" s="213"/>
+      <c r="AB11" s="217"/>
+      <c r="AC11" s="217"/>
+      <c r="AD11" s="217"/>
+      <c r="AE11" s="217"/>
+      <c r="AF11" s="217"/>
+      <c r="AG11" s="213"/>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N12" s="216"/>
-      <c r="O12" s="216"/>
-      <c r="P12" s="216"/>
-      <c r="Q12" s="216"/>
-      <c r="R12" s="216"/>
-      <c r="S12" s="216"/>
-      <c r="T12" s="216"/>
-      <c r="U12" s="216"/>
-      <c r="V12" s="216"/>
-      <c r="W12" s="216"/>
-      <c r="X12" s="216"/>
-      <c r="Y12" s="216"/>
-      <c r="Z12" s="216"/>
-      <c r="AA12" s="216"/>
-      <c r="AB12" s="216"/>
-      <c r="AC12" s="216"/>
-      <c r="AD12" s="216"/>
-      <c r="AE12" s="216"/>
-      <c r="AF12" s="216"/>
-      <c r="AG12" s="216"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="213"/>
+      <c r="T12" s="213"/>
+      <c r="U12" s="213"/>
+      <c r="V12" s="213"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="213"/>
+      <c r="Y12" s="213"/>
+      <c r="Z12" s="213"/>
+      <c r="AA12" s="213"/>
+      <c r="AB12" s="213"/>
+      <c r="AC12" s="213"/>
+      <c r="AD12" s="213"/>
+      <c r="AE12" s="213"/>
+      <c r="AF12" s="213"/>
+      <c r="AG12" s="213"/>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="99">
@@ -14836,22 +14960,22 @@
         <v>2050</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>178</v>
-      </c>
       <c r="E13" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="G13" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="H13" s="33" t="s">
         <v>183</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>184</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>77</v>
@@ -14865,26 +14989,26 @@
       <c r="M13" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="216"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="217"/>
-      <c r="Q13" s="217"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="218"/>
-      <c r="T13" s="216"/>
-      <c r="U13" s="216"/>
-      <c r="V13" s="219"/>
-      <c r="W13" s="219"/>
-      <c r="X13" s="219"/>
-      <c r="Y13" s="216"/>
-      <c r="Z13" s="216"/>
-      <c r="AA13" s="216"/>
-      <c r="AB13" s="219"/>
-      <c r="AC13" s="219"/>
-      <c r="AD13" s="219"/>
-      <c r="AE13" s="216"/>
-      <c r="AF13" s="216"/>
-      <c r="AG13" s="216"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="213"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="213"/>
+      <c r="U13" s="213"/>
+      <c r="V13" s="216"/>
+      <c r="W13" s="216"/>
+      <c r="X13" s="216"/>
+      <c r="Y13" s="213"/>
+      <c r="Z13" s="213"/>
+      <c r="AA13" s="213"/>
+      <c r="AB13" s="216"/>
+      <c r="AC13" s="216"/>
+      <c r="AD13" s="216"/>
+      <c r="AE13" s="213"/>
+      <c r="AF13" s="213"/>
+      <c r="AG13" s="213"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="58" t="s">
@@ -14926,30 +15050,30 @@
         <f>-pa!F14*D3</f>
         <v>0</v>
       </c>
-      <c r="M14" s="249">
+      <c r="M14" s="246">
         <f>SUM(C14:L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="216"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="218"/>
-      <c r="S14" s="218"/>
-      <c r="T14" s="220"/>
-      <c r="U14" s="216"/>
-      <c r="V14" s="220"/>
-      <c r="W14" s="220"/>
-      <c r="X14" s="220"/>
-      <c r="Y14" s="220"/>
-      <c r="Z14" s="220"/>
-      <c r="AA14" s="216"/>
-      <c r="AB14" s="220"/>
-      <c r="AC14" s="220"/>
-      <c r="AD14" s="220"/>
-      <c r="AE14" s="220"/>
-      <c r="AF14" s="220"/>
-      <c r="AG14" s="216"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="217"/>
+      <c r="U14" s="213"/>
+      <c r="V14" s="217"/>
+      <c r="W14" s="217"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="213"/>
+      <c r="AB14" s="217"/>
+      <c r="AC14" s="217"/>
+      <c r="AD14" s="217"/>
+      <c r="AE14" s="217"/>
+      <c r="AF14" s="217"/>
+      <c r="AG14" s="213"/>
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="36" t="s">
@@ -14991,30 +15115,30 @@
         <f>-pa!F15*D3</f>
         <v>0</v>
       </c>
-      <c r="M15" s="250">
+      <c r="M15" s="247">
         <f>SUM(C15:L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="216"/>
-      <c r="O15" s="216"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="218"/>
-      <c r="T15" s="220"/>
-      <c r="U15" s="216"/>
-      <c r="V15" s="220"/>
-      <c r="W15" s="220"/>
-      <c r="X15" s="220"/>
-      <c r="Y15" s="220"/>
-      <c r="Z15" s="220"/>
-      <c r="AA15" s="216"/>
-      <c r="AB15" s="220"/>
-      <c r="AC15" s="220"/>
-      <c r="AD15" s="220"/>
-      <c r="AE15" s="220"/>
-      <c r="AF15" s="220"/>
-      <c r="AG15" s="216"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
+      <c r="T15" s="217"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="217"/>
+      <c r="W15" s="217"/>
+      <c r="X15" s="217"/>
+      <c r="Y15" s="217"/>
+      <c r="Z15" s="217"/>
+      <c r="AA15" s="213"/>
+      <c r="AB15" s="217"/>
+      <c r="AC15" s="217"/>
+      <c r="AD15" s="217"/>
+      <c r="AE15" s="217"/>
+      <c r="AF15" s="217"/>
+      <c r="AG15" s="213"/>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="59" t="s">
@@ -15052,56 +15176,56 @@
         <f t="shared" ref="J16" si="3">SUM(J14:J15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="212">
+      <c r="K16" s="209">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="251">
+      <c r="M16" s="248">
         <f>SUM(C16:L16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="216"/>
-      <c r="O16" s="216"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="220"/>
-      <c r="S16" s="220"/>
-      <c r="T16" s="220"/>
-      <c r="U16" s="216"/>
-      <c r="V16" s="220"/>
-      <c r="W16" s="220"/>
-      <c r="X16" s="220"/>
-      <c r="Y16" s="220"/>
-      <c r="Z16" s="220"/>
-      <c r="AA16" s="216"/>
-      <c r="AB16" s="220"/>
-      <c r="AC16" s="220"/>
-      <c r="AD16" s="220"/>
-      <c r="AE16" s="220"/>
-      <c r="AF16" s="220"/>
-      <c r="AG16" s="216"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="213"/>
+      <c r="P16" s="217"/>
+      <c r="Q16" s="217"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="213"/>
+      <c r="V16" s="217"/>
+      <c r="W16" s="217"/>
+      <c r="X16" s="217"/>
+      <c r="Y16" s="217"/>
+      <c r="Z16" s="217"/>
+      <c r="AA16" s="213"/>
+      <c r="AB16" s="217"/>
+      <c r="AC16" s="217"/>
+      <c r="AD16" s="217"/>
+      <c r="AE16" s="217"/>
+      <c r="AF16" s="217"/>
+      <c r="AG16" s="213"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N17" s="216"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="216"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="216"/>
-      <c r="S17" s="216"/>
-      <c r="T17" s="216"/>
-      <c r="U17" s="216"/>
-      <c r="V17" s="216"/>
-      <c r="W17" s="216"/>
-      <c r="X17" s="216"/>
-      <c r="Y17" s="216"/>
-      <c r="Z17" s="216"/>
-      <c r="AA17" s="216"/>
-      <c r="AB17" s="216"/>
-      <c r="AC17" s="216"/>
-      <c r="AD17" s="216"/>
-      <c r="AE17" s="216"/>
-      <c r="AF17" s="216"/>
-      <c r="AG17" s="216"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
+      <c r="P17" s="213"/>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="213"/>
+      <c r="S17" s="213"/>
+      <c r="T17" s="213"/>
+      <c r="U17" s="213"/>
+      <c r="V17" s="213"/>
+      <c r="W17" s="213"/>
+      <c r="X17" s="213"/>
+      <c r="Y17" s="213"/>
+      <c r="Z17" s="213"/>
+      <c r="AA17" s="213"/>
+      <c r="AB17" s="213"/>
+      <c r="AC17" s="213"/>
+      <c r="AD17" s="213"/>
+      <c r="AE17" s="213"/>
+      <c r="AF17" s="213"/>
+      <c r="AG17" s="213"/>
     </row>
     <row r="18" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="147" t="s">
@@ -15115,52 +15239,52 @@
       <c r="I18" s="104"/>
       <c r="J18" s="104"/>
       <c r="K18" s="104"/>
-      <c r="M18" s="252">
+      <c r="M18" s="249">
         <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B19*Kayttajahyodyt!M11+Diskonttaus!B20*Kayttajahyodyt!M16,Diskonttaus!B19*Kayttajahyodyt!M11)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="216"/>
-      <c r="O18" s="216"/>
-      <c r="P18" s="216"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="216"/>
-      <c r="S18" s="216"/>
-      <c r="T18" s="216"/>
-      <c r="U18" s="216"/>
-      <c r="V18" s="216"/>
-      <c r="W18" s="216"/>
-      <c r="X18" s="216"/>
-      <c r="Y18" s="216"/>
-      <c r="Z18" s="216"/>
-      <c r="AA18" s="216"/>
-      <c r="AB18" s="216"/>
-      <c r="AC18" s="216"/>
-      <c r="AD18" s="216"/>
-      <c r="AE18" s="216"/>
-      <c r="AF18" s="216"/>
-      <c r="AG18" s="216"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
+      <c r="P18" s="213"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="213"/>
+      <c r="S18" s="213"/>
+      <c r="T18" s="213"/>
+      <c r="U18" s="213"/>
+      <c r="V18" s="213"/>
+      <c r="W18" s="213"/>
+      <c r="X18" s="213"/>
+      <c r="Y18" s="213"/>
+      <c r="Z18" s="213"/>
+      <c r="AA18" s="213"/>
+      <c r="AB18" s="213"/>
+      <c r="AC18" s="213"/>
+      <c r="AD18" s="213"/>
+      <c r="AE18" s="213"/>
+      <c r="AF18" s="213"/>
+      <c r="AG18" s="213"/>
     </row>
     <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N19" s="216"/>
-      <c r="O19" s="216"/>
-      <c r="P19" s="216"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="216"/>
-      <c r="S19" s="216"/>
-      <c r="T19" s="216"/>
-      <c r="U19" s="216"/>
-      <c r="V19" s="216"/>
-      <c r="W19" s="216"/>
-      <c r="X19" s="216"/>
-      <c r="Y19" s="216"/>
-      <c r="Z19" s="216"/>
-      <c r="AA19" s="216"/>
-      <c r="AB19" s="216"/>
-      <c r="AC19" s="216"/>
-      <c r="AD19" s="216"/>
-      <c r="AE19" s="216"/>
-      <c r="AF19" s="216"/>
-      <c r="AG19" s="216"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="213"/>
+      <c r="S19" s="213"/>
+      <c r="T19" s="213"/>
+      <c r="U19" s="213"/>
+      <c r="V19" s="213"/>
+      <c r="W19" s="213"/>
+      <c r="X19" s="213"/>
+      <c r="Y19" s="213"/>
+      <c r="Z19" s="213"/>
+      <c r="AA19" s="213"/>
+      <c r="AB19" s="213"/>
+      <c r="AC19" s="213"/>
+      <c r="AD19" s="213"/>
+      <c r="AE19" s="213"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="213"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
@@ -15173,26 +15297,26 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="N20" s="216"/>
-      <c r="O20" s="216"/>
-      <c r="P20" s="216"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="216"/>
-      <c r="S20" s="216"/>
-      <c r="T20" s="216"/>
-      <c r="U20" s="216"/>
-      <c r="V20" s="216"/>
-      <c r="W20" s="216"/>
-      <c r="X20" s="216"/>
-      <c r="Y20" s="216"/>
-      <c r="Z20" s="216"/>
-      <c r="AA20" s="216"/>
-      <c r="AB20" s="216"/>
-      <c r="AC20" s="216"/>
-      <c r="AD20" s="216"/>
-      <c r="AE20" s="216"/>
-      <c r="AF20" s="216"/>
-      <c r="AG20" s="216"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="213"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="213"/>
+      <c r="W20" s="213"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="213"/>
+      <c r="AA20" s="213"/>
+      <c r="AB20" s="213"/>
+      <c r="AC20" s="213"/>
+      <c r="AD20" s="213"/>
+      <c r="AE20" s="213"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="213"/>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="99">
@@ -15200,14 +15324,14 @@
         <v>2030</v>
       </c>
       <c r="C21" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
       <c r="I21" s="194" t="s">
         <v>77</v>
       </c>
@@ -15220,26 +15344,26 @@
       <c r="M21" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="216"/>
-      <c r="O21" s="216"/>
-      <c r="P21" s="219"/>
-      <c r="Q21" s="219"/>
-      <c r="R21" s="219"/>
-      <c r="S21" s="216"/>
-      <c r="T21" s="216"/>
-      <c r="U21" s="216"/>
-      <c r="V21" s="219"/>
-      <c r="W21" s="219"/>
-      <c r="X21" s="219"/>
-      <c r="Y21" s="216"/>
-      <c r="Z21" s="216"/>
-      <c r="AA21" s="216"/>
-      <c r="AB21" s="216"/>
-      <c r="AC21" s="216"/>
-      <c r="AD21" s="216"/>
-      <c r="AE21" s="216"/>
-      <c r="AF21" s="216"/>
-      <c r="AG21" s="216"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="216"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="216"/>
+      <c r="S21" s="213"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="216"/>
+      <c r="W21" s="216"/>
+      <c r="X21" s="216"/>
+      <c r="Y21" s="213"/>
+      <c r="Z21" s="213"/>
+      <c r="AA21" s="213"/>
+      <c r="AB21" s="213"/>
+      <c r="AC21" s="213"/>
+      <c r="AD21" s="213"/>
+      <c r="AE21" s="213"/>
+      <c r="AF21" s="213"/>
+      <c r="AG21" s="213"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B22" s="54" t="s">
@@ -15254,10 +15378,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="104"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
-      <c r="I22" s="254">
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="251">
         <f>-E64*ka!F22</f>
         <v>0</v>
       </c>
@@ -15269,30 +15393,30 @@
         <f>-E62*pa!F22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="249">
+      <c r="M22" s="246">
         <f>SUM(C22:L22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="216"/>
-      <c r="O22" s="216"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="220"/>
-      <c r="R22" s="220"/>
-      <c r="S22" s="220"/>
-      <c r="T22" s="220"/>
-      <c r="U22" s="216"/>
-      <c r="V22" s="220"/>
-      <c r="W22" s="220"/>
-      <c r="X22" s="220"/>
-      <c r="Y22" s="220"/>
-      <c r="Z22" s="220"/>
-      <c r="AA22" s="216"/>
-      <c r="AB22" s="216"/>
-      <c r="AC22" s="216"/>
-      <c r="AD22" s="216"/>
-      <c r="AE22" s="216"/>
-      <c r="AF22" s="216"/>
-      <c r="AG22" s="216"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="217"/>
+      <c r="Q22" s="217"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="213"/>
+      <c r="V22" s="217"/>
+      <c r="W22" s="217"/>
+      <c r="X22" s="217"/>
+      <c r="Y22" s="217"/>
+      <c r="Z22" s="217"/>
+      <c r="AA22" s="213"/>
+      <c r="AB22" s="213"/>
+      <c r="AC22" s="213"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="213"/>
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="39" t="s">
@@ -15307,10 +15431,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="104"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="214">
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="211">
         <f>-E64*ka!F23</f>
         <v>0</v>
       </c>
@@ -15322,30 +15446,30 @@
         <f>-E62*pa!F23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="250">
+      <c r="M23" s="247">
         <f>SUM(C23:L23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="216"/>
-      <c r="O23" s="216"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="220"/>
-      <c r="R23" s="220"/>
-      <c r="S23" s="220"/>
-      <c r="T23" s="220"/>
-      <c r="U23" s="216"/>
-      <c r="V23" s="220"/>
-      <c r="W23" s="220"/>
-      <c r="X23" s="220"/>
-      <c r="Y23" s="220"/>
-      <c r="Z23" s="220"/>
-      <c r="AA23" s="216"/>
-      <c r="AB23" s="216"/>
-      <c r="AC23" s="216"/>
-      <c r="AD23" s="216"/>
-      <c r="AE23" s="216"/>
-      <c r="AF23" s="216"/>
-      <c r="AG23" s="216"/>
+      <c r="N23" s="213"/>
+      <c r="O23" s="213"/>
+      <c r="P23" s="217"/>
+      <c r="Q23" s="217"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="217"/>
+      <c r="U23" s="213"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="217"/>
+      <c r="Z23" s="217"/>
+      <c r="AA23" s="213"/>
+      <c r="AB23" s="213"/>
+      <c r="AC23" s="213"/>
+      <c r="AD23" s="213"/>
+      <c r="AE23" s="213"/>
+      <c r="AF23" s="213"/>
+      <c r="AG23" s="213"/>
     </row>
     <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="55" t="s">
@@ -15355,15 +15479,15 @@
         <f>SUM(C22:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="212">
+      <c r="D24" s="209">
         <f>SUM(D22:D23)</f>
         <v>0</v>
       </c>
       <c r="E24" s="104"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="255">
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="252">
         <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
@@ -15371,59 +15495,59 @@
         <f>SUM(J22:J23)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="212">
+      <c r="K24" s="209">
         <f>SUM(K22:K23)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="251">
+      <c r="M24" s="248">
         <f>SUM(C24:L24)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="216"/>
-      <c r="O24" s="216"/>
-      <c r="P24" s="220"/>
-      <c r="Q24" s="220"/>
-      <c r="R24" s="220"/>
-      <c r="S24" s="220"/>
-      <c r="T24" s="220"/>
-      <c r="U24" s="216"/>
-      <c r="V24" s="220"/>
-      <c r="W24" s="220"/>
-      <c r="X24" s="220"/>
-      <c r="Y24" s="220"/>
-      <c r="Z24" s="220"/>
-      <c r="AA24" s="216"/>
-      <c r="AB24" s="216"/>
-      <c r="AC24" s="216"/>
-      <c r="AD24" s="216"/>
-      <c r="AE24" s="216"/>
-      <c r="AF24" s="216"/>
-      <c r="AG24" s="216"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="217"/>
+      <c r="Q24" s="217"/>
+      <c r="R24" s="217"/>
+      <c r="S24" s="217"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="217"/>
+      <c r="Z24" s="217"/>
+      <c r="AA24" s="213"/>
+      <c r="AB24" s="213"/>
+      <c r="AC24" s="213"/>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="213"/>
     </row>
     <row r="25" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="N25" s="216"/>
-      <c r="O25" s="216"/>
-      <c r="P25" s="216"/>
-      <c r="Q25" s="216"/>
-      <c r="R25" s="216"/>
-      <c r="S25" s="216"/>
-      <c r="T25" s="216"/>
-      <c r="U25" s="216"/>
-      <c r="V25" s="216"/>
-      <c r="W25" s="216"/>
-      <c r="X25" s="216"/>
-      <c r="Y25" s="216"/>
-      <c r="Z25" s="216"/>
-      <c r="AA25" s="216"/>
-      <c r="AB25" s="216"/>
-      <c r="AC25" s="216"/>
-      <c r="AD25" s="216"/>
-      <c r="AE25" s="216"/>
-      <c r="AF25" s="216"/>
-      <c r="AG25" s="216"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="213"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="213"/>
+      <c r="S25" s="213"/>
+      <c r="T25" s="213"/>
+      <c r="U25" s="213"/>
+      <c r="V25" s="213"/>
+      <c r="W25" s="213"/>
+      <c r="X25" s="213"/>
+      <c r="Y25" s="213"/>
+      <c r="Z25" s="213"/>
+      <c r="AA25" s="213"/>
+      <c r="AB25" s="213"/>
+      <c r="AC25" s="213"/>
+      <c r="AD25" s="213"/>
+      <c r="AE25" s="213"/>
+      <c r="AF25" s="213"/>
+      <c r="AG25" s="213"/>
     </row>
     <row r="26" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="99">
@@ -15431,14 +15555,14 @@
         <v>2050</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="225"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="225"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="222"/>
       <c r="I26" s="194" t="s">
         <v>77</v>
       </c>
@@ -15451,26 +15575,26 @@
       <c r="M26" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="216"/>
-      <c r="O26" s="216"/>
-      <c r="P26" s="219"/>
-      <c r="Q26" s="219"/>
-      <c r="R26" s="219"/>
-      <c r="S26" s="216"/>
-      <c r="T26" s="216"/>
-      <c r="U26" s="216"/>
-      <c r="V26" s="219"/>
-      <c r="W26" s="219"/>
-      <c r="X26" s="219"/>
-      <c r="Y26" s="216"/>
-      <c r="Z26" s="216"/>
-      <c r="AA26" s="216"/>
-      <c r="AB26" s="216"/>
-      <c r="AC26" s="216"/>
-      <c r="AD26" s="216"/>
-      <c r="AE26" s="216"/>
-      <c r="AF26" s="216"/>
-      <c r="AG26" s="216"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="213"/>
+      <c r="P26" s="216"/>
+      <c r="Q26" s="216"/>
+      <c r="R26" s="216"/>
+      <c r="S26" s="213"/>
+      <c r="T26" s="213"/>
+      <c r="U26" s="213"/>
+      <c r="V26" s="216"/>
+      <c r="W26" s="216"/>
+      <c r="X26" s="216"/>
+      <c r="Y26" s="213"/>
+      <c r="Z26" s="213"/>
+      <c r="AA26" s="213"/>
+      <c r="AB26" s="213"/>
+      <c r="AC26" s="213"/>
+      <c r="AD26" s="213"/>
+      <c r="AE26" s="213"/>
+      <c r="AF26" s="213"/>
+      <c r="AG26" s="213"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B27" s="54" t="s">
@@ -15484,10 +15608,10 @@
         <f>-E61*ha_muu!F27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="224"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="254">
+      <c r="F27" s="221"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="251">
         <f>-E64*ka!F27</f>
         <v>0</v>
       </c>
@@ -15499,30 +15623,30 @@
         <f>-E62*pa!F27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="249">
+      <c r="M27" s="246">
         <f>SUM(C27:L27)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="216"/>
-      <c r="O27" s="216"/>
-      <c r="P27" s="220"/>
-      <c r="Q27" s="220"/>
-      <c r="R27" s="220"/>
-      <c r="S27" s="220"/>
-      <c r="T27" s="220"/>
-      <c r="U27" s="216"/>
-      <c r="V27" s="220"/>
-      <c r="W27" s="220"/>
-      <c r="X27" s="220"/>
-      <c r="Y27" s="220"/>
-      <c r="Z27" s="220"/>
-      <c r="AA27" s="216"/>
-      <c r="AB27" s="216"/>
-      <c r="AC27" s="216"/>
-      <c r="AD27" s="216"/>
-      <c r="AE27" s="216"/>
-      <c r="AF27" s="216"/>
-      <c r="AG27" s="216"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
+      <c r="P27" s="217"/>
+      <c r="Q27" s="217"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="213"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="217"/>
+      <c r="AA27" s="213"/>
+      <c r="AB27" s="213"/>
+      <c r="AC27" s="213"/>
+      <c r="AD27" s="213"/>
+      <c r="AE27" s="213"/>
+      <c r="AF27" s="213"/>
+      <c r="AG27" s="213"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="39" t="s">
@@ -15536,10 +15660,10 @@
         <f>-E61*ha_muu!F28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="224"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="214">
+      <c r="F28" s="221"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="211">
         <f>-E64*ka!F28</f>
         <v>0</v>
       </c>
@@ -15551,30 +15675,30 @@
         <f>-E62*pa!F28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="250">
+      <c r="M28" s="247">
         <f>SUM(C28:L28)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="216"/>
-      <c r="O28" s="216"/>
-      <c r="P28" s="220"/>
-      <c r="Q28" s="220"/>
-      <c r="R28" s="220"/>
-      <c r="S28" s="220"/>
-      <c r="T28" s="220"/>
-      <c r="U28" s="216"/>
-      <c r="V28" s="220"/>
-      <c r="W28" s="220"/>
-      <c r="X28" s="220"/>
-      <c r="Y28" s="220"/>
-      <c r="Z28" s="220"/>
-      <c r="AA28" s="216"/>
-      <c r="AB28" s="216"/>
-      <c r="AC28" s="216"/>
-      <c r="AD28" s="216"/>
-      <c r="AE28" s="216"/>
-      <c r="AF28" s="216"/>
-      <c r="AG28" s="216"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="217"/>
+      <c r="Q28" s="217"/>
+      <c r="R28" s="217"/>
+      <c r="S28" s="217"/>
+      <c r="T28" s="217"/>
+      <c r="U28" s="213"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="213"/>
+      <c r="AB28" s="213"/>
+      <c r="AC28" s="213"/>
+      <c r="AD28" s="213"/>
+      <c r="AE28" s="213"/>
+      <c r="AF28" s="213"/>
+      <c r="AG28" s="213"/>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="55" t="s">
@@ -15584,14 +15708,14 @@
         <f>SUM(C27:C28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="212">
+      <c r="D29" s="209">
         <f>SUM(D27:D28)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="224"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="255">
+      <c r="F29" s="221"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="252">
         <f>SUM(I27:I28)</f>
         <v>0</v>
       </c>
@@ -15599,131 +15723,131 @@
         <f>SUM(J27:J28)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="212">
+      <c r="K29" s="209">
         <f>SUM(K27:K28)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="251">
+      <c r="M29" s="248">
         <f>SUM(C29:L29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="216"/>
-      <c r="O29" s="216"/>
-      <c r="P29" s="220"/>
-      <c r="Q29" s="220"/>
-      <c r="R29" s="220"/>
-      <c r="S29" s="220"/>
-      <c r="T29" s="220"/>
-      <c r="U29" s="216"/>
-      <c r="V29" s="220"/>
-      <c r="W29" s="220"/>
-      <c r="X29" s="220"/>
-      <c r="Y29" s="220"/>
-      <c r="Z29" s="220"/>
-      <c r="AA29" s="216"/>
-      <c r="AB29" s="216"/>
-      <c r="AC29" s="216"/>
-      <c r="AD29" s="216"/>
-      <c r="AE29" s="216"/>
-      <c r="AF29" s="216"/>
-      <c r="AG29" s="216"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="217"/>
+      <c r="Q29" s="217"/>
+      <c r="R29" s="217"/>
+      <c r="S29" s="217"/>
+      <c r="T29" s="217"/>
+      <c r="U29" s="213"/>
+      <c r="V29" s="217"/>
+      <c r="W29" s="217"/>
+      <c r="X29" s="217"/>
+      <c r="Y29" s="217"/>
+      <c r="Z29" s="217"/>
+      <c r="AA29" s="213"/>
+      <c r="AB29" s="213"/>
+      <c r="AC29" s="213"/>
+      <c r="AD29" s="213"/>
+      <c r="AE29" s="213"/>
+      <c r="AF29" s="213"/>
+      <c r="AG29" s="213"/>
     </row>
     <row r="30" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N30" s="216"/>
-      <c r="O30" s="216"/>
-      <c r="P30" s="216"/>
-      <c r="Q30" s="216"/>
-      <c r="R30" s="216"/>
-      <c r="S30" s="216"/>
-      <c r="T30" s="216"/>
-      <c r="U30" s="216"/>
-      <c r="V30" s="216"/>
-      <c r="W30" s="216"/>
-      <c r="X30" s="216"/>
-      <c r="Y30" s="216"/>
-      <c r="Z30" s="216"/>
-      <c r="AA30" s="216"/>
-      <c r="AB30" s="216"/>
-      <c r="AC30" s="216"/>
-      <c r="AD30" s="216"/>
-      <c r="AE30" s="216"/>
-      <c r="AF30" s="216"/>
-      <c r="AG30" s="216"/>
+      <c r="N30" s="213"/>
+      <c r="O30" s="213"/>
+      <c r="P30" s="213"/>
+      <c r="Q30" s="213"/>
+      <c r="R30" s="213"/>
+      <c r="S30" s="213"/>
+      <c r="T30" s="213"/>
+      <c r="U30" s="213"/>
+      <c r="V30" s="213"/>
+      <c r="W30" s="213"/>
+      <c r="X30" s="213"/>
+      <c r="Y30" s="213"/>
+      <c r="Z30" s="213"/>
+      <c r="AA30" s="213"/>
+      <c r="AB30" s="213"/>
+      <c r="AC30" s="213"/>
+      <c r="AD30" s="213"/>
+      <c r="AE30" s="213"/>
+      <c r="AF30" s="213"/>
+      <c r="AG30" s="213"/>
     </row>
     <row r="31" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="253">
+      <c r="M31" s="250">
         <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!M24+Diskonttaus!B27*Kayttajahyodyt!M29,Diskonttaus!B26*Kayttajahyodyt!M24)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="216"/>
-      <c r="O31" s="216"/>
-      <c r="P31" s="216"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="216"/>
-      <c r="S31" s="216"/>
-      <c r="T31" s="216"/>
-      <c r="U31" s="216"/>
-      <c r="V31" s="216"/>
-      <c r="W31" s="216"/>
-      <c r="X31" s="216"/>
-      <c r="Y31" s="216"/>
-      <c r="Z31" s="216"/>
-      <c r="AA31" s="216"/>
-      <c r="AB31" s="216"/>
-      <c r="AC31" s="216"/>
-      <c r="AD31" s="216"/>
-      <c r="AE31" s="216"/>
-      <c r="AF31" s="216"/>
-      <c r="AG31" s="216"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="213"/>
+      <c r="S31" s="213"/>
+      <c r="T31" s="213"/>
+      <c r="U31" s="213"/>
+      <c r="V31" s="213"/>
+      <c r="W31" s="213"/>
+      <c r="X31" s="213"/>
+      <c r="Y31" s="213"/>
+      <c r="Z31" s="213"/>
+      <c r="AA31" s="213"/>
+      <c r="AB31" s="213"/>
+      <c r="AC31" s="213"/>
+      <c r="AD31" s="213"/>
+      <c r="AE31" s="213"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="213"/>
     </row>
     <row r="32" spans="1:33" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="221"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
-      <c r="W32" s="221"/>
-      <c r="X32" s="221"/>
-      <c r="Y32" s="221"/>
-      <c r="Z32" s="221"/>
-      <c r="AA32" s="221"/>
-      <c r="AB32" s="221"/>
-      <c r="AC32" s="221"/>
-      <c r="AD32" s="221"/>
-      <c r="AE32" s="221"/>
-      <c r="AF32" s="221"/>
-      <c r="AG32" s="221"/>
-    </row>
-    <row r="33" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="216"/>
-      <c r="O33" s="216"/>
-      <c r="P33" s="216"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="216"/>
-      <c r="S33" s="216"/>
-      <c r="T33" s="216"/>
-      <c r="U33" s="216"/>
-      <c r="V33" s="216"/>
-      <c r="W33" s="216"/>
-      <c r="X33" s="216"/>
-      <c r="Y33" s="216"/>
-      <c r="Z33" s="216"/>
-      <c r="AA33" s="216"/>
-      <c r="AB33" s="216"/>
-      <c r="AC33" s="216"/>
-      <c r="AD33" s="216"/>
-      <c r="AE33" s="216"/>
-      <c r="AF33" s="216"/>
-      <c r="AG33" s="216"/>
-    </row>
-    <row r="34" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="218"/>
+      <c r="O32" s="218"/>
+      <c r="P32" s="218"/>
+      <c r="Q32" s="218"/>
+      <c r="R32" s="218"/>
+      <c r="S32" s="218"/>
+      <c r="T32" s="218"/>
+      <c r="U32" s="218"/>
+      <c r="V32" s="218"/>
+      <c r="W32" s="218"/>
+      <c r="X32" s="218"/>
+      <c r="Y32" s="218"/>
+      <c r="Z32" s="218"/>
+      <c r="AA32" s="218"/>
+      <c r="AB32" s="218"/>
+      <c r="AC32" s="218"/>
+      <c r="AD32" s="218"/>
+      <c r="AE32" s="218"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="218"/>
+    </row>
+    <row r="33" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="213"/>
+      <c r="O33" s="213"/>
+      <c r="P33" s="213"/>
+      <c r="Q33" s="213"/>
+      <c r="R33" s="213"/>
+      <c r="S33" s="213"/>
+      <c r="T33" s="213"/>
+      <c r="U33" s="213"/>
+      <c r="V33" s="213"/>
+      <c r="W33" s="213"/>
+      <c r="X33" s="213"/>
+      <c r="Y33" s="213"/>
+      <c r="Z33" s="213"/>
+      <c r="AA33" s="213"/>
+      <c r="AB33" s="213"/>
+      <c r="AC33" s="213"/>
+      <c r="AD33" s="213"/>
+      <c r="AE33" s="213"/>
+      <c r="AF33" s="213"/>
+      <c r="AG33" s="213"/>
+    </row>
+    <row r="34" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -15736,28 +15860,28 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="M34"/>
-      <c r="N34" s="216"/>
-      <c r="O34" s="216"/>
-      <c r="P34" s="216"/>
-      <c r="Q34" s="216"/>
-      <c r="R34" s="216"/>
-      <c r="S34" s="216"/>
-      <c r="T34" s="216"/>
-      <c r="U34" s="216"/>
-      <c r="V34" s="216"/>
-      <c r="W34" s="216"/>
-      <c r="X34" s="216"/>
-      <c r="Y34" s="216"/>
-      <c r="Z34" s="216"/>
-      <c r="AA34" s="216"/>
-      <c r="AB34" s="216"/>
-      <c r="AC34" s="216"/>
-      <c r="AD34" s="216"/>
-      <c r="AE34" s="216"/>
-      <c r="AF34" s="216"/>
-      <c r="AG34" s="216"/>
-    </row>
-    <row r="35" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="213"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="213"/>
+      <c r="R34" s="213"/>
+      <c r="S34" s="213"/>
+      <c r="T34" s="213"/>
+      <c r="U34" s="213"/>
+      <c r="V34" s="213"/>
+      <c r="W34" s="213"/>
+      <c r="X34" s="213"/>
+      <c r="Y34" s="213"/>
+      <c r="Z34" s="213"/>
+      <c r="AA34" s="213"/>
+      <c r="AB34" s="213"/>
+      <c r="AC34" s="213"/>
+      <c r="AD34" s="213"/>
+      <c r="AE34" s="213"/>
+      <c r="AF34" s="213"/>
+      <c r="AG34" s="213"/>
+    </row>
+    <row r="35" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>68</v>
       </c>
@@ -15772,47 +15896,47 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="M35"/>
-      <c r="N35" s="216"/>
-      <c r="O35" s="216"/>
-      <c r="P35" s="216"/>
-      <c r="Q35" s="216"/>
-      <c r="R35" s="216"/>
-      <c r="S35" s="216"/>
-      <c r="T35" s="216"/>
-      <c r="U35" s="216"/>
-      <c r="V35" s="216"/>
-      <c r="W35" s="216"/>
-      <c r="X35" s="216"/>
-      <c r="Y35" s="216"/>
-      <c r="Z35" s="216"/>
-      <c r="AA35" s="216"/>
-      <c r="AB35" s="216"/>
-      <c r="AC35" s="216"/>
-      <c r="AD35" s="216"/>
-      <c r="AE35" s="216"/>
-      <c r="AF35" s="216"/>
-      <c r="AG35" s="216"/>
-    </row>
-    <row r="36" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="213"/>
+      <c r="O35" s="213"/>
+      <c r="P35" s="213"/>
+      <c r="Q35" s="213"/>
+      <c r="R35" s="213"/>
+      <c r="S35" s="213"/>
+      <c r="T35" s="213"/>
+      <c r="U35" s="213"/>
+      <c r="V35" s="213"/>
+      <c r="W35" s="213"/>
+      <c r="X35" s="213"/>
+      <c r="Y35" s="213"/>
+      <c r="Z35" s="213"/>
+      <c r="AA35" s="213"/>
+      <c r="AB35" s="213"/>
+      <c r="AC35" s="213"/>
+      <c r="AD35" s="213"/>
+      <c r="AE35" s="213"/>
+      <c r="AF35" s="213"/>
+      <c r="AG35" s="213"/>
+    </row>
+    <row r="36" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36" s="99">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
       <c r="C36" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>178</v>
-      </c>
       <c r="E36" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="F36" s="78" t="s">
-        <v>182</v>
-      </c>
       <c r="G36"/>
-      <c r="H36" s="223"/>
+      <c r="H36" s="220"/>
       <c r="I36" s="194" t="s">
         <v>77</v>
       </c>
@@ -15825,33 +15949,33 @@
       <c r="M36" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="216"/>
-      <c r="O36" s="216"/>
-      <c r="P36" s="219"/>
-      <c r="Q36" s="219"/>
-      <c r="R36" s="219"/>
-      <c r="S36" s="216"/>
-      <c r="T36" s="216"/>
-      <c r="U36" s="216"/>
-      <c r="V36" s="219"/>
-      <c r="W36" s="219"/>
-      <c r="X36" s="219"/>
-      <c r="Y36" s="216"/>
-      <c r="Z36" s="216"/>
-      <c r="AA36" s="216"/>
-      <c r="AB36" s="219"/>
-      <c r="AC36" s="219"/>
-      <c r="AD36" s="219"/>
-      <c r="AE36" s="216"/>
-      <c r="AF36" s="216"/>
-      <c r="AG36" s="216"/>
-    </row>
-    <row r="37" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="213"/>
+      <c r="O36" s="213"/>
+      <c r="P36" s="216"/>
+      <c r="Q36" s="216"/>
+      <c r="R36" s="216"/>
+      <c r="S36" s="213"/>
+      <c r="T36" s="213"/>
+      <c r="U36" s="213"/>
+      <c r="V36" s="216"/>
+      <c r="W36" s="216"/>
+      <c r="X36" s="216"/>
+      <c r="Y36" s="213"/>
+      <c r="Z36" s="213"/>
+      <c r="AA36" s="213"/>
+      <c r="AB36" s="216"/>
+      <c r="AC36" s="216"/>
+      <c r="AD36" s="216"/>
+      <c r="AE36" s="213"/>
+      <c r="AF36" s="213"/>
+      <c r="AG36" s="213"/>
+    </row>
+    <row r="37" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="214">
+      <c r="C37" s="211">
         <f>-ha_tyo!F37</f>
         <v>0</v>
       </c>
@@ -15868,8 +15992,8 @@
         <v>0</v>
       </c>
       <c r="G37"/>
-      <c r="H37" s="224"/>
-      <c r="I37" s="254">
+      <c r="H37" s="221"/>
+      <c r="I37" s="251">
         <f>-ka!F37</f>
         <v>0</v>
       </c>
@@ -15877,41 +16001,41 @@
         <f>-yhd!F37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="222">
+      <c r="K37" s="219">
         <f>-pa!F37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="249">
+      <c r="M37" s="246">
         <f>SUM(C37:L37)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="216"/>
-      <c r="O37" s="216"/>
-      <c r="P37" s="220"/>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="220"/>
-      <c r="S37" s="220"/>
-      <c r="T37" s="220"/>
-      <c r="U37" s="216"/>
-      <c r="V37" s="220"/>
-      <c r="W37" s="220"/>
-      <c r="X37" s="220"/>
-      <c r="Y37" s="220"/>
-      <c r="Z37" s="220"/>
-      <c r="AA37" s="216"/>
-      <c r="AB37" s="220"/>
-      <c r="AC37" s="220"/>
-      <c r="AD37" s="220"/>
-      <c r="AE37" s="220"/>
-      <c r="AF37" s="220"/>
-      <c r="AG37" s="216"/>
-    </row>
-    <row r="38" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="213"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="217"/>
+      <c r="Q37" s="217"/>
+      <c r="R37" s="217"/>
+      <c r="S37" s="217"/>
+      <c r="T37" s="217"/>
+      <c r="U37" s="213"/>
+      <c r="V37" s="217"/>
+      <c r="W37" s="217"/>
+      <c r="X37" s="217"/>
+      <c r="Y37" s="217"/>
+      <c r="Z37" s="217"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="217"/>
+      <c r="AC37" s="217"/>
+      <c r="AD37" s="217"/>
+      <c r="AE37" s="217"/>
+      <c r="AF37" s="217"/>
+      <c r="AG37" s="213"/>
+    </row>
+    <row r="38" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="215">
+      <c r="C38" s="212">
         <f>-ha_tyo!F38</f>
         <v>0</v>
       </c>
@@ -15928,8 +16052,8 @@
         <v>0</v>
       </c>
       <c r="G38"/>
-      <c r="H38" s="224"/>
-      <c r="I38" s="215">
+      <c r="H38" s="221"/>
+      <c r="I38" s="212">
         <f>-ka!F38</f>
         <v>0</v>
       </c>
@@ -15941,37 +16065,37 @@
         <f>-pa!F38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="250">
+      <c r="M38" s="247">
         <f>SUM(C38:L38)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="216"/>
-      <c r="O38" s="216"/>
-      <c r="P38" s="220"/>
-      <c r="Q38" s="220"/>
-      <c r="R38" s="220"/>
-      <c r="S38" s="220"/>
-      <c r="T38" s="220"/>
-      <c r="U38" s="216"/>
-      <c r="V38" s="220"/>
-      <c r="W38" s="220"/>
-      <c r="X38" s="220"/>
-      <c r="Y38" s="220"/>
-      <c r="Z38" s="220"/>
-      <c r="AA38" s="216"/>
-      <c r="AB38" s="220"/>
-      <c r="AC38" s="220"/>
-      <c r="AD38" s="220"/>
-      <c r="AE38" s="220"/>
-      <c r="AF38" s="220"/>
-      <c r="AG38" s="216"/>
-    </row>
-    <row r="39" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="213"/>
+      <c r="O38" s="213"/>
+      <c r="P38" s="217"/>
+      <c r="Q38" s="217"/>
+      <c r="R38" s="217"/>
+      <c r="S38" s="217"/>
+      <c r="T38" s="217"/>
+      <c r="U38" s="213"/>
+      <c r="V38" s="217"/>
+      <c r="W38" s="217"/>
+      <c r="X38" s="217"/>
+      <c r="Y38" s="217"/>
+      <c r="Z38" s="217"/>
+      <c r="AA38" s="213"/>
+      <c r="AB38" s="217"/>
+      <c r="AC38" s="217"/>
+      <c r="AD38" s="217"/>
+      <c r="AE38" s="217"/>
+      <c r="AF38" s="217"/>
+      <c r="AG38" s="213"/>
+    </row>
+    <row r="39" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="255">
+      <c r="C39" s="252">
         <f>SUM(C37:C38)</f>
         <v>0</v>
       </c>
@@ -15988,8 +16112,8 @@
         <v>0</v>
       </c>
       <c r="G39"/>
-      <c r="H39" s="224"/>
-      <c r="I39" s="255">
+      <c r="H39" s="221"/>
+      <c r="I39" s="252">
         <f>SUM(I37:I38)</f>
         <v>0</v>
       </c>
@@ -16001,32 +16125,32 @@
         <f>SUM(K37:K38)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="251">
+      <c r="M39" s="248">
         <f>SUM(C39:L39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="216"/>
-      <c r="O39" s="216"/>
-      <c r="P39" s="220"/>
-      <c r="Q39" s="220"/>
-      <c r="R39" s="220"/>
-      <c r="S39" s="220"/>
-      <c r="T39" s="220"/>
-      <c r="U39" s="216"/>
-      <c r="V39" s="220"/>
-      <c r="W39" s="220"/>
-      <c r="X39" s="220"/>
-      <c r="Y39" s="220"/>
-      <c r="Z39" s="220"/>
-      <c r="AA39" s="216"/>
-      <c r="AB39" s="220"/>
-      <c r="AC39" s="220"/>
-      <c r="AD39" s="220"/>
-      <c r="AE39" s="220"/>
-      <c r="AF39" s="220"/>
-      <c r="AG39" s="216"/>
-    </row>
-    <row r="40" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="213"/>
+      <c r="O39" s="213"/>
+      <c r="P39" s="217"/>
+      <c r="Q39" s="217"/>
+      <c r="R39" s="217"/>
+      <c r="S39" s="217"/>
+      <c r="T39" s="217"/>
+      <c r="U39" s="213"/>
+      <c r="V39" s="217"/>
+      <c r="W39" s="217"/>
+      <c r="X39" s="217"/>
+      <c r="Y39" s="217"/>
+      <c r="Z39" s="217"/>
+      <c r="AA39" s="213"/>
+      <c r="AB39" s="217"/>
+      <c r="AC39" s="217"/>
+      <c r="AD39" s="217"/>
+      <c r="AE39" s="217"/>
+      <c r="AF39" s="217"/>
+      <c r="AG39" s="213"/>
+    </row>
+    <row r="40" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -16034,52 +16158,52 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" s="223"/>
+      <c r="H40" s="220"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="M40"/>
-      <c r="N40" s="216"/>
-      <c r="O40" s="216"/>
-      <c r="P40" s="216"/>
-      <c r="Q40" s="216"/>
-      <c r="R40" s="216"/>
-      <c r="S40" s="216"/>
-      <c r="T40" s="216"/>
-      <c r="U40" s="216"/>
-      <c r="V40" s="216"/>
-      <c r="W40" s="216"/>
-      <c r="X40" s="216"/>
-      <c r="Y40" s="216"/>
-      <c r="Z40" s="216"/>
-      <c r="AA40" s="216"/>
-      <c r="AB40" s="216"/>
-      <c r="AC40" s="216"/>
-      <c r="AD40" s="216"/>
-      <c r="AE40" s="216"/>
-      <c r="AF40" s="216"/>
-      <c r="AG40" s="216"/>
-    </row>
-    <row r="41" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="213"/>
+      <c r="O40" s="213"/>
+      <c r="P40" s="213"/>
+      <c r="Q40" s="213"/>
+      <c r="R40" s="213"/>
+      <c r="S40" s="213"/>
+      <c r="T40" s="213"/>
+      <c r="U40" s="213"/>
+      <c r="V40" s="213"/>
+      <c r="W40" s="213"/>
+      <c r="X40" s="213"/>
+      <c r="Y40" s="213"/>
+      <c r="Z40" s="213"/>
+      <c r="AA40" s="213"/>
+      <c r="AB40" s="213"/>
+      <c r="AC40" s="213"/>
+      <c r="AD40" s="213"/>
+      <c r="AE40" s="213"/>
+      <c r="AF40" s="213"/>
+      <c r="AG40" s="213"/>
+    </row>
+    <row r="41" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41" s="99">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
       <c r="C41" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>178</v>
-      </c>
       <c r="E41" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="78" t="s">
-        <v>182</v>
-      </c>
       <c r="G41"/>
-      <c r="H41" s="223"/>
+      <c r="H41" s="220"/>
       <c r="I41" s="194" t="s">
         <v>77</v>
       </c>
@@ -16092,33 +16216,33 @@
       <c r="M41" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="216"/>
-      <c r="O41" s="216"/>
-      <c r="P41" s="219"/>
-      <c r="Q41" s="219"/>
-      <c r="R41" s="219"/>
-      <c r="S41" s="216"/>
-      <c r="T41" s="216"/>
-      <c r="U41" s="216"/>
-      <c r="V41" s="219"/>
-      <c r="W41" s="219"/>
-      <c r="X41" s="219"/>
-      <c r="Y41" s="216"/>
-      <c r="Z41" s="216"/>
-      <c r="AA41" s="216"/>
-      <c r="AB41" s="219"/>
-      <c r="AC41" s="219"/>
-      <c r="AD41" s="219"/>
-      <c r="AE41" s="216"/>
-      <c r="AF41" s="216"/>
-      <c r="AG41" s="216"/>
-    </row>
-    <row r="42" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="213"/>
+      <c r="O41" s="213"/>
+      <c r="P41" s="216"/>
+      <c r="Q41" s="216"/>
+      <c r="R41" s="216"/>
+      <c r="S41" s="213"/>
+      <c r="T41" s="213"/>
+      <c r="U41" s="213"/>
+      <c r="V41" s="216"/>
+      <c r="W41" s="216"/>
+      <c r="X41" s="216"/>
+      <c r="Y41" s="213"/>
+      <c r="Z41" s="213"/>
+      <c r="AA41" s="213"/>
+      <c r="AB41" s="216"/>
+      <c r="AC41" s="216"/>
+      <c r="AD41" s="216"/>
+      <c r="AE41" s="213"/>
+      <c r="AF41" s="213"/>
+      <c r="AG41" s="213"/>
+    </row>
+    <row r="42" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="214">
+      <c r="C42" s="211">
         <f>-ha_tyo!F42</f>
         <v>0</v>
       </c>
@@ -16135,8 +16259,8 @@
         <v>0</v>
       </c>
       <c r="G42"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="254">
+      <c r="H42" s="221"/>
+      <c r="I42" s="251">
         <f>-ka!F42</f>
         <v>0</v>
       </c>
@@ -16144,41 +16268,41 @@
         <f>-yhd!G42</f>
         <v>0</v>
       </c>
-      <c r="K42" s="222">
+      <c r="K42" s="219">
         <f>-pa!F42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="249">
+      <c r="M42" s="246">
         <f>SUM(C42:L42)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="216"/>
-      <c r="O42" s="216"/>
-      <c r="P42" s="220"/>
-      <c r="Q42" s="220"/>
-      <c r="R42" s="220"/>
-      <c r="S42" s="220"/>
-      <c r="T42" s="220"/>
-      <c r="U42" s="216"/>
-      <c r="V42" s="220"/>
-      <c r="W42" s="220"/>
-      <c r="X42" s="220"/>
-      <c r="Y42" s="220"/>
-      <c r="Z42" s="220"/>
-      <c r="AA42" s="216"/>
-      <c r="AB42" s="220"/>
-      <c r="AC42" s="220"/>
-      <c r="AD42" s="220"/>
-      <c r="AE42" s="220"/>
-      <c r="AF42" s="220"/>
-      <c r="AG42" s="216"/>
-    </row>
-    <row r="43" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="213"/>
+      <c r="O42" s="213"/>
+      <c r="P42" s="217"/>
+      <c r="Q42" s="217"/>
+      <c r="R42" s="217"/>
+      <c r="S42" s="217"/>
+      <c r="T42" s="217"/>
+      <c r="U42" s="213"/>
+      <c r="V42" s="217"/>
+      <c r="W42" s="217"/>
+      <c r="X42" s="217"/>
+      <c r="Y42" s="217"/>
+      <c r="Z42" s="217"/>
+      <c r="AA42" s="213"/>
+      <c r="AB42" s="217"/>
+      <c r="AC42" s="217"/>
+      <c r="AD42" s="217"/>
+      <c r="AE42" s="217"/>
+      <c r="AF42" s="217"/>
+      <c r="AG42" s="213"/>
+    </row>
+    <row r="43" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="215">
+      <c r="C43" s="212">
         <f>-ha_tyo!F43</f>
         <v>0</v>
       </c>
@@ -16195,8 +16319,8 @@
         <v>0</v>
       </c>
       <c r="G43"/>
-      <c r="H43" s="224"/>
-      <c r="I43" s="214">
+      <c r="H43" s="221"/>
+      <c r="I43" s="211">
         <f>-ka!F43</f>
         <v>0</v>
       </c>
@@ -16208,32 +16332,32 @@
         <f>-pa!F43</f>
         <v>0</v>
       </c>
-      <c r="M43" s="250">
+      <c r="M43" s="247">
         <f>SUM(C43:L43)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="216"/>
-      <c r="O43" s="216"/>
-      <c r="P43" s="220"/>
-      <c r="Q43" s="220"/>
-      <c r="R43" s="220"/>
-      <c r="S43" s="220"/>
-      <c r="T43" s="220"/>
-      <c r="U43" s="216"/>
-      <c r="V43" s="220"/>
-      <c r="W43" s="220"/>
-      <c r="X43" s="220"/>
-      <c r="Y43" s="220"/>
-      <c r="Z43" s="220"/>
-      <c r="AA43" s="216"/>
-      <c r="AB43" s="220"/>
-      <c r="AC43" s="220"/>
-      <c r="AD43" s="220"/>
-      <c r="AE43" s="220"/>
-      <c r="AF43" s="220"/>
-      <c r="AG43" s="216"/>
-    </row>
-    <row r="44" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N43" s="213"/>
+      <c r="O43" s="213"/>
+      <c r="P43" s="217"/>
+      <c r="Q43" s="217"/>
+      <c r="R43" s="217"/>
+      <c r="S43" s="217"/>
+      <c r="T43" s="217"/>
+      <c r="U43" s="213"/>
+      <c r="V43" s="217"/>
+      <c r="W43" s="217"/>
+      <c r="X43" s="217"/>
+      <c r="Y43" s="217"/>
+      <c r="Z43" s="217"/>
+      <c r="AA43" s="213"/>
+      <c r="AB43" s="217"/>
+      <c r="AC43" s="217"/>
+      <c r="AD43" s="217"/>
+      <c r="AE43" s="217"/>
+      <c r="AF43" s="217"/>
+      <c r="AG43" s="213"/>
+    </row>
+    <row r="44" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44" s="59" t="s">
         <v>11</v>
@@ -16255,8 +16379,8 @@
         <v>0</v>
       </c>
       <c r="G44"/>
-      <c r="H44" s="223"/>
-      <c r="I44" s="255">
+      <c r="H44" s="220"/>
+      <c r="I44" s="252">
         <f>SUM(I42:I43)</f>
         <v>0</v>
       </c>
@@ -16268,32 +16392,32 @@
         <f>SUM(K42:K43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="251">
+      <c r="M44" s="248">
         <f>SUM(C44:L44)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="216"/>
-      <c r="O44" s="216"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="220"/>
-      <c r="R44" s="220"/>
-      <c r="S44" s="220"/>
-      <c r="T44" s="220"/>
-      <c r="U44" s="216"/>
-      <c r="V44" s="220"/>
-      <c r="W44" s="220"/>
-      <c r="X44" s="220"/>
-      <c r="Y44" s="220"/>
-      <c r="Z44" s="220"/>
-      <c r="AA44" s="216"/>
-      <c r="AB44" s="220"/>
-      <c r="AC44" s="220"/>
-      <c r="AD44" s="220"/>
-      <c r="AE44" s="220"/>
-      <c r="AF44" s="220"/>
-      <c r="AG44" s="216"/>
-    </row>
-    <row r="45" spans="1:34" s="213" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="213"/>
+      <c r="O44" s="213"/>
+      <c r="P44" s="217"/>
+      <c r="Q44" s="217"/>
+      <c r="R44" s="217"/>
+      <c r="S44" s="217"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="213"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="217"/>
+      <c r="X44" s="217"/>
+      <c r="Y44" s="217"/>
+      <c r="Z44" s="217"/>
+      <c r="AA44" s="213"/>
+      <c r="AB44" s="217"/>
+      <c r="AC44" s="217"/>
+      <c r="AD44" s="217"/>
+      <c r="AE44" s="217"/>
+      <c r="AF44" s="217"/>
+      <c r="AG44" s="213"/>
+    </row>
+    <row r="45" spans="1:34" s="210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -16301,72 +16425,72 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" s="223"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="223"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
       <c r="K45"/>
       <c r="M45"/>
-      <c r="N45" s="216"/>
-      <c r="O45" s="216"/>
-      <c r="P45" s="216"/>
-      <c r="Q45" s="216"/>
-      <c r="R45" s="216"/>
-      <c r="S45" s="216"/>
-      <c r="T45" s="216"/>
-      <c r="U45" s="216"/>
-      <c r="V45" s="216"/>
-      <c r="W45" s="216"/>
-      <c r="X45" s="216"/>
-      <c r="Y45" s="216"/>
-      <c r="Z45" s="216"/>
-      <c r="AA45" s="216"/>
-      <c r="AB45" s="216"/>
-      <c r="AC45" s="216"/>
-      <c r="AD45" s="216"/>
-      <c r="AE45" s="216"/>
-      <c r="AF45" s="216"/>
-      <c r="AG45" s="216"/>
-    </row>
-    <row r="46" spans="1:34" s="213" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N45" s="213"/>
+      <c r="O45" s="213"/>
+      <c r="P45" s="213"/>
+      <c r="Q45" s="213"/>
+      <c r="R45" s="213"/>
+      <c r="S45" s="213"/>
+      <c r="T45" s="213"/>
+      <c r="U45" s="213"/>
+      <c r="V45" s="213"/>
+      <c r="W45" s="213"/>
+      <c r="X45" s="213"/>
+      <c r="Y45" s="213"/>
+      <c r="Z45" s="213"/>
+      <c r="AA45" s="213"/>
+      <c r="AB45" s="213"/>
+      <c r="AC45" s="213"/>
+      <c r="AD45" s="213"/>
+      <c r="AE45" s="213"/>
+      <c r="AF45" s="213"/>
+      <c r="AG45" s="213"/>
+    </row>
+    <row r="46" spans="1:34" s="210" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46"/>
       <c r="B46" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="223"/>
-      <c r="D46" s="223"/>
-      <c r="E46" s="223"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="223"/>
-      <c r="I46" s="223"/>
-      <c r="J46" s="223"/>
-      <c r="K46" s="223"/>
-      <c r="M46" s="253">
+      <c r="C46" s="220"/>
+      <c r="D46" s="220"/>
+      <c r="E46" s="220"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="220"/>
+      <c r="M46" s="250">
         <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!M39+Diskonttaus!B27*Kayttajahyodyt!M44,Diskonttaus!B26*Kayttajahyodyt!M39)</f>
         <v>0</v>
       </c>
-      <c r="N46" s="216"/>
-      <c r="O46" s="216"/>
-      <c r="P46" s="216"/>
-      <c r="Q46" s="216"/>
-      <c r="R46" s="216"/>
-      <c r="S46" s="216"/>
-      <c r="T46" s="216"/>
-      <c r="U46" s="216"/>
-      <c r="V46" s="216"/>
-      <c r="W46" s="216"/>
-      <c r="X46" s="216"/>
-      <c r="Y46" s="216"/>
-      <c r="Z46" s="216"/>
-      <c r="AA46" s="216"/>
-      <c r="AB46" s="216"/>
-      <c r="AC46" s="216"/>
-      <c r="AD46" s="216"/>
-      <c r="AE46" s="216"/>
-      <c r="AF46" s="216"/>
-      <c r="AG46" s="216"/>
-    </row>
-    <row r="47" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="213"/>
+      <c r="O46" s="213"/>
+      <c r="P46" s="213"/>
+      <c r="Q46" s="213"/>
+      <c r="R46" s="213"/>
+      <c r="S46" s="213"/>
+      <c r="T46" s="213"/>
+      <c r="U46" s="213"/>
+      <c r="V46" s="213"/>
+      <c r="W46" s="213"/>
+      <c r="X46" s="213"/>
+      <c r="Y46" s="213"/>
+      <c r="Z46" s="213"/>
+      <c r="AA46" s="213"/>
+      <c r="AB46" s="213"/>
+      <c r="AC46" s="213"/>
+      <c r="AD46" s="213"/>
+      <c r="AE46" s="213"/>
+      <c r="AF46" s="213"/>
+      <c r="AG46" s="213"/>
+    </row>
+    <row r="47" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -16379,28 +16503,28 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="M47"/>
-      <c r="N47" s="216"/>
-      <c r="O47" s="216"/>
-      <c r="P47" s="216"/>
-      <c r="Q47" s="216"/>
-      <c r="R47" s="216"/>
-      <c r="S47" s="216"/>
-      <c r="T47" s="216"/>
-      <c r="U47" s="216"/>
-      <c r="V47" s="216"/>
-      <c r="W47" s="216"/>
-      <c r="X47" s="216"/>
-      <c r="Y47" s="216"/>
-      <c r="Z47" s="216"/>
-      <c r="AA47" s="216"/>
-      <c r="AB47" s="216"/>
-      <c r="AC47" s="216"/>
-      <c r="AD47" s="216"/>
-      <c r="AE47" s="216"/>
-      <c r="AF47" s="216"/>
-      <c r="AG47" s="216"/>
-    </row>
-    <row r="48" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="213"/>
+      <c r="O47" s="213"/>
+      <c r="P47" s="213"/>
+      <c r="Q47" s="213"/>
+      <c r="R47" s="213"/>
+      <c r="S47" s="213"/>
+      <c r="T47" s="213"/>
+      <c r="U47" s="213"/>
+      <c r="V47" s="213"/>
+      <c r="W47" s="213"/>
+      <c r="X47" s="213"/>
+      <c r="Y47" s="213"/>
+      <c r="Z47" s="213"/>
+      <c r="AA47" s="213"/>
+      <c r="AB47" s="213"/>
+      <c r="AC47" s="213"/>
+      <c r="AD47" s="213"/>
+      <c r="AE47" s="213"/>
+      <c r="AF47" s="213"/>
+      <c r="AG47" s="213"/>
+    </row>
+    <row r="48" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -16413,28 +16537,28 @@
       <c r="J48"/>
       <c r="K48"/>
       <c r="N48"/>
-      <c r="O48" s="216"/>
-      <c r="P48" s="216"/>
-      <c r="Q48" s="216"/>
-      <c r="R48" s="216"/>
-      <c r="S48" s="216"/>
-      <c r="T48" s="216"/>
-      <c r="U48" s="216"/>
-      <c r="V48" s="216"/>
-      <c r="W48" s="216"/>
-      <c r="X48" s="216"/>
-      <c r="Y48" s="216"/>
-      <c r="Z48" s="216"/>
-      <c r="AA48" s="216"/>
-      <c r="AB48" s="216"/>
-      <c r="AC48" s="216"/>
-      <c r="AD48" s="216"/>
-      <c r="AE48" s="216"/>
-      <c r="AF48" s="216"/>
-      <c r="AG48" s="216"/>
-      <c r="AH48" s="216"/>
-    </row>
-    <row r="49" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="213"/>
+      <c r="P48" s="213"/>
+      <c r="Q48" s="213"/>
+      <c r="R48" s="213"/>
+      <c r="S48" s="213"/>
+      <c r="T48" s="213"/>
+      <c r="U48" s="213"/>
+      <c r="V48" s="213"/>
+      <c r="W48" s="213"/>
+      <c r="X48" s="213"/>
+      <c r="Y48" s="213"/>
+      <c r="Z48" s="213"/>
+      <c r="AA48" s="213"/>
+      <c r="AB48" s="213"/>
+      <c r="AC48" s="213"/>
+      <c r="AD48" s="213"/>
+      <c r="AE48" s="213"/>
+      <c r="AF48" s="213"/>
+      <c r="AG48" s="213"/>
+      <c r="AH48" s="213"/>
+    </row>
+    <row r="49" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -16447,48 +16571,48 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="N49"/>
-      <c r="O49" s="216"/>
-      <c r="P49" s="216"/>
-      <c r="Q49" s="216"/>
-      <c r="R49" s="216"/>
-      <c r="S49" s="216"/>
-      <c r="T49" s="216"/>
-      <c r="U49" s="216"/>
-      <c r="V49" s="216"/>
-      <c r="W49" s="216"/>
-      <c r="X49" s="216"/>
-      <c r="Y49" s="216"/>
-      <c r="Z49" s="216"/>
-      <c r="AA49" s="216"/>
-      <c r="AB49" s="216"/>
-      <c r="AC49" s="216"/>
-      <c r="AD49" s="216"/>
-      <c r="AE49" s="216"/>
-      <c r="AF49" s="216"/>
-      <c r="AG49" s="216"/>
-      <c r="AH49" s="216"/>
-    </row>
-    <row r="50" spans="1:34" s="213" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O50" s="216"/>
-      <c r="P50" s="216"/>
-      <c r="Q50" s="216"/>
-      <c r="R50" s="216"/>
-      <c r="S50" s="216"/>
-      <c r="T50" s="216"/>
-      <c r="U50" s="216"/>
-      <c r="V50" s="216"/>
-      <c r="W50" s="216"/>
-      <c r="X50" s="216"/>
-      <c r="Y50" s="216"/>
-      <c r="Z50" s="216"/>
-      <c r="AA50" s="216"/>
-      <c r="AB50" s="216"/>
-      <c r="AC50" s="216"/>
-      <c r="AD50" s="216"/>
-      <c r="AE50" s="216"/>
-      <c r="AF50" s="216"/>
-      <c r="AG50" s="216"/>
-      <c r="AH50" s="216"/>
+      <c r="O49" s="213"/>
+      <c r="P49" s="213"/>
+      <c r="Q49" s="213"/>
+      <c r="R49" s="213"/>
+      <c r="S49" s="213"/>
+      <c r="T49" s="213"/>
+      <c r="U49" s="213"/>
+      <c r="V49" s="213"/>
+      <c r="W49" s="213"/>
+      <c r="X49" s="213"/>
+      <c r="Y49" s="213"/>
+      <c r="Z49" s="213"/>
+      <c r="AA49" s="213"/>
+      <c r="AB49" s="213"/>
+      <c r="AC49" s="213"/>
+      <c r="AD49" s="213"/>
+      <c r="AE49" s="213"/>
+      <c r="AF49" s="213"/>
+      <c r="AG49" s="213"/>
+      <c r="AH49" s="213"/>
+    </row>
+    <row r="50" spans="1:34" s="210" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="213"/>
+      <c r="P50" s="213"/>
+      <c r="Q50" s="213"/>
+      <c r="R50" s="213"/>
+      <c r="S50" s="213"/>
+      <c r="T50" s="213"/>
+      <c r="U50" s="213"/>
+      <c r="V50" s="213"/>
+      <c r="W50" s="213"/>
+      <c r="X50" s="213"/>
+      <c r="Y50" s="213"/>
+      <c r="Z50" s="213"/>
+      <c r="AA50" s="213"/>
+      <c r="AB50" s="213"/>
+      <c r="AC50" s="213"/>
+      <c r="AD50" s="213"/>
+      <c r="AE50" s="213"/>
+      <c r="AF50" s="213"/>
+      <c r="AG50" s="213"/>
+      <c r="AH50" s="213"/>
     </row>
     <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="134" t="s">
@@ -16543,7 +16667,7 @@
         <f>0.01*8.11</f>
         <v>8.1099999999999992E-2</v>
       </c>
-      <c r="E62" s="256">
+      <c r="E62" s="253">
         <f>C62+D62</f>
         <v>0.188</v>
       </c>
@@ -16560,7 +16684,7 @@
         <f>0.01*13.25</f>
         <v>0.13250000000000001</v>
       </c>
-      <c r="E63" s="256">
+      <c r="E63" s="253">
         <f t="shared" ref="E63:E65" si="4">C63+D63</f>
         <v>0.4415</v>
       </c>
@@ -16577,7 +16701,7 @@
         <f>0.01*9.55</f>
         <v>9.5500000000000015E-2</v>
       </c>
-      <c r="E64" s="256">
+      <c r="E64" s="253">
         <f t="shared" si="4"/>
         <v>0.31890000000000002</v>
       </c>
@@ -16594,7 +16718,7 @@
         <f>0.01*24.74</f>
         <v>0.24739999999999998</v>
       </c>
-      <c r="E65" s="257">
+      <c r="E65" s="254">
         <f t="shared" si="4"/>
         <v>0.64739999999999998</v>
       </c>
@@ -17039,12 +17163,12 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17059,26 +17183,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.45600000000000002</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.433</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -17098,7 +17222,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -17114,13 +17238,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -17130,35 +17254,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -17197,10 +17321,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -17213,37 +17337,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -17263,7 +17387,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -17279,13 +17403,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17295,35 +17419,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -17362,10 +17486,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17378,23 +17502,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -17408,23 +17532,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -17444,7 +17568,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -17460,13 +17584,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -17476,35 +17600,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -17524,7 +17648,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -17540,13 +17664,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17559,23 +17683,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -17605,12 +17729,12 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17625,26 +17749,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.48799999999999999</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -17664,7 +17788,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -17680,13 +17804,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -17696,35 +17820,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -17763,10 +17887,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -17779,37 +17903,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -17829,7 +17953,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -17845,13 +17969,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -17861,35 +17985,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -17928,10 +18052,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17944,23 +18068,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -17974,23 +18098,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -18010,7 +18134,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -18026,13 +18150,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -18042,35 +18166,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -18090,7 +18214,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -18106,13 +18230,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18125,23 +18249,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18171,12 +18295,12 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18191,26 +18315,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.44500000000000001</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.10299999999999999</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -18230,7 +18354,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -18246,13 +18370,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -18262,35 +18386,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -18329,10 +18453,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -18345,37 +18469,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -18395,7 +18519,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -18411,13 +18535,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18427,35 +18551,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -18494,10 +18618,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18510,23 +18634,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18540,23 +18664,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -18576,7 +18700,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -18592,13 +18716,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -18608,35 +18732,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -18656,7 +18780,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -18672,13 +18796,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18691,23 +18815,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18737,12 +18861,12 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18757,26 +18881,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.57099999999999995</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.11700000000000001</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.373</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -18796,7 +18920,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -18812,13 +18936,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -18828,35 +18952,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -18895,10 +19019,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -18911,37 +19035,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -18961,7 +19085,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -18977,13 +19101,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18993,35 +19117,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -19060,10 +19184,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19076,23 +19200,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19106,23 +19230,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -19142,7 +19266,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -19158,13 +19282,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -19174,35 +19298,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -19222,7 +19346,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -19238,13 +19362,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19257,23 +19381,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19300,15 +19424,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19323,26 +19447,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.54200000000000004</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.109</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -19362,7 +19486,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -19378,13 +19502,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -19394,35 +19518,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -19461,10 +19585,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -19477,37 +19601,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -19527,7 +19651,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -19543,13 +19667,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -19559,35 +19683,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -19626,10 +19750,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19642,23 +19766,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19672,23 +19796,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -19708,7 +19832,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -19724,13 +19848,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -19740,35 +19864,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -19788,7 +19912,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -19804,13 +19928,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19823,23 +19947,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19866,15 +19990,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19889,26 +20013,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="286">
+      <c r="B4" s="283">
         <v>0.72499999999999998</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>0.10299999999999999</v>
       </c>
-      <c r="D4" s="288">
+      <c r="D4" s="285">
         <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
+      <c r="A7" s="220"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="273">
+      <c r="A8" s="270">
         <v>2030</v>
       </c>
       <c r="B8" s="194" t="s">
@@ -19928,7 +20052,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="148"/>
@@ -19944,13 +20068,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268">
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -19960,35 +20084,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="269">
+      <c r="B11" s="266">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="270">
+      <c r="C11" s="267">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="270">
+      <c r="D11" s="267">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="268">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="272">
+      <c r="F11" s="269">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="277"/>
+      <c r="A12" s="274"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="273">
+      <c r="A13" s="270">
         <v>2050</v>
       </c>
       <c r="B13" s="194" t="s">
@@ -20027,10 +20151,10 @@
       <c r="A15" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="268">
+      <c r="B15" s="263"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -20043,37 +20167,37 @@
       <c r="A16" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="269">
+      <c r="B16" s="266">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="270">
+      <c r="C16" s="267">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="270">
+      <c r="D16" s="267">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="271">
+      <c r="E16" s="268">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="272">
+      <c r="F16" s="269">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="216"/>
+      <c r="A20" s="213"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="273">
+      <c r="A21" s="270">
         <v>2030</v>
       </c>
       <c r="B21" s="194" t="s">
@@ -20093,7 +20217,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="271" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="150"/>
@@ -20109,13 +20233,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="278"/>
-      <c r="C23" s="279"/>
-      <c r="D23" s="279"/>
-      <c r="E23" s="268">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20125,35 +20249,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="276" t="s">
+      <c r="A24" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="269">
+      <c r="B24" s="266">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="270">
+      <c r="C24" s="267">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="270">
+      <c r="D24" s="267">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="271">
+      <c r="E24" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="272">
+      <c r="F24" s="269">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="281"/>
+      <c r="A25" s="278"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="273">
+      <c r="A26" s="270">
         <v>2050</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -20192,10 +20316,10 @@
       <c r="A28" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="268">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="265">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20208,23 +20332,23 @@
       <c r="A29" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="269">
+      <c r="B29" s="266">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="270">
+      <c r="C29" s="267">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="270">
+      <c r="D29" s="267">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="271">
+      <c r="E29" s="268">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="269">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -20238,23 +20362,23 @@
       <c r="F32" s="100"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="282">
+      <c r="A36" s="279">
         <v>2030</v>
       </c>
       <c r="B36" s="66" t="s">
@@ -20274,7 +20398,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="283" t="s">
+      <c r="A37" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="150"/>
@@ -20290,13 +20414,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284" t="s">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="268">
+      <c r="B38" s="275"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="265">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20306,35 +20430,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="266">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="267">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="270">
+      <c r="D39" s="267">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="271">
+      <c r="E39" s="268">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="272">
+      <c r="F39" s="269">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="281"/>
+      <c r="A40" s="278"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="282">
+      <c r="A41" s="279">
         <v>2050</v>
       </c>
       <c r="B41" s="66" t="s">
@@ -20354,7 +20478,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="150"/>
@@ -20370,13 +20494,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284" t="s">
+      <c r="A43" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="278"/>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="268">
+      <c r="B43" s="275"/>
+      <c r="C43" s="276"/>
+      <c r="D43" s="276"/>
+      <c r="E43" s="265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20389,23 +20513,23 @@
       <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="269">
+      <c r="B44" s="266">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="270">
+      <c r="C44" s="267">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="270">
+      <c r="D44" s="267">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272">
+      <c r="F44" s="269">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -20416,41 +20540,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
-    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
-        </TermInfo>
-      </Terms>
-    </c7e7d47415304583b97cbceafb48fc9c>
-    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
-    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gbd2c824d606482d8ac0e417e142bc2f>
-    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lf2a24d45b2949218b95d66f1d0b33a8>
-    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
-      <Value>2</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Työryhmän dokumentti" ma:contentTypeID="0x0101005AF0DAC6D8B8D046AA97775D0EA0A52C00597B3796DB9FF548BDFCB0DE8988F274" ma:contentTypeVersion="18" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="52111fa3d5fab8e48da38903eaacec4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xmlns:ns3="8dde8a50-f86d-46ca-ae54-a219d58ab0f1" xmlns:ns4="4468c9de-2a81-4c06-bf49-e269715ababb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb907d030b2bbafc68088718dbf26d11" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
@@ -20685,10 +20774,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
+    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
+        </TermInfo>
+      </Terms>
+    </c7e7d47415304583b97cbceafb48fc9c>
+    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
+    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gbd2c824d606482d8ac0e417e142bc2f>
+    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lf2a24d45b2949218b95d66f1d0b33a8>
+    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
+      <Value>2</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
+    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
+    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20712,21 +20848,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
-    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
-    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Helmet\HELMET_KEHI_40\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F744FF1-FAA4-44E9-AD66-FED76B5C16D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BC8A1-BE69-4910-AA44-2959D6CC4A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -4392,7 +4392,7 @@
   <sheetPr codeName="Taul2"/>
   <dimension ref="A5:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -5569,7 +5569,7 @@
         <v>205</v>
       </c>
       <c r="L73" s="292">
-        <f>B73*G73</f>
+        <f t="shared" ref="L73:L78" si="6">B73*G73</f>
         <v>0</v>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
         <v>204</v>
       </c>
       <c r="L74" s="240">
-        <f>B74*G74</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
         <v>206</v>
       </c>
       <c r="L75" s="240">
-        <f>B75*G75</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
         <v>207</v>
       </c>
       <c r="L76" s="240">
-        <f>B76*G76</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>208</v>
       </c>
       <c r="B77" s="288">
-        <f t="shared" ref="B77:B78" si="6">22000+5000</f>
+        <f t="shared" ref="B77:B78" si="7">22000+5000</f>
         <v>27000</v>
       </c>
       <c r="F77" s="249" t="s">
@@ -5647,7 +5647,7 @@
         <v>208</v>
       </c>
       <c r="L77" s="293">
-        <f>B77*G77</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
         <v>209</v>
       </c>
       <c r="B78" s="288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27000</v>
       </c>
       <c r="F78" s="249" t="s">
@@ -5667,7 +5667,7 @@
         <v>209</v>
       </c>
       <c r="L78" s="294">
-        <f>B78*G78</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
         <v>206</v>
       </c>
       <c r="L84" s="240">
-        <f t="shared" ref="L84:L86" si="7">B75*G84</f>
+        <f t="shared" ref="L84:L86" si="8">B75*G84</f>
         <v>0</v>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
         <v>207</v>
       </c>
       <c r="L85" s="240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
         <v>208</v>
       </c>
       <c r="L86" s="240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5866,8 +5866,8 @@
   <sheetPr codeName="Taul3"/>
   <dimension ref="B2:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="C9" s="165">
         <f>L59</f>
-        <v>8.0303386000000004E-2</v>
+        <v>3.0743385999999998E-2</v>
       </c>
       <c r="D9" s="161">
         <f>M59</f>
@@ -7063,7 +7063,7 @@
         <v>136</v>
       </c>
       <c r="C57" s="179">
-        <v>0.41</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D57" s="179">
         <v>6.7000000000000004E-2</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="L57" s="182">
         <f t="shared" si="8"/>
-        <v>5.74E-2</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="M57" s="182">
         <f t="shared" si="8"/>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="L59" s="182">
         <f>SUM(L55:L58)</f>
-        <v>8.0303386000000004E-2</v>
+        <v>3.0743385999999998E-2</v>
       </c>
       <c r="M59" s="182">
         <f>SUM(M55:M58)</f>
@@ -20796,6 +20796,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
+    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
+        </TermInfo>
+      </Terms>
+    </c7e7d47415304583b97cbceafb48fc9c>
+    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
+    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gbd2c824d606482d8ac0e417e142bc2f>
+    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lf2a24d45b2949218b95d66f1d0b33a8>
+    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
+      <Value>2</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Työryhmän dokumentti" ma:contentTypeID="0x0101005AF0DAC6D8B8D046AA97775D0EA0A52C00597B3796DB9FF548BDFCB0DE8988F274" ma:contentTypeVersion="18" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="52111fa3d5fab8e48da38903eaacec4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xmlns:ns3="8dde8a50-f86d-46ca-ae54-a219d58ab0f1" xmlns:ns4="4468c9de-2a81-4c06-bf49-e269715ababb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb907d030b2bbafc68088718dbf26d11" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
@@ -21030,57 +21065,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
-    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
-        </TermInfo>
-      </Terms>
-    </c7e7d47415304583b97cbceafb48fc9c>
-    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
-    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gbd2c824d606482d8ac0e417e142bc2f>
-    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lf2a24d45b2949218b95d66f1d0b33a8>
-    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
-      <Value>2</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
-    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
-    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21104,9 +21092,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
+    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
+    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="TämäTyökirja"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Helmet\HELMET_KEHI_40\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\helmet-model-system\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BC8A1-BE69-4910-AA44-2959D6CC4A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64294E90-41D4-423A-96EB-FA133C6D25EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -2462,22 +2462,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="4:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D6" s="92" t="s">
         <v>0</v>
       </c>
@@ -2486,12 +2486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:13" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="9" spans="4:13" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D9" s="92" t="s">
         <v>2</v>
       </c>
@@ -2500,12 +2500,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:13" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="12" spans="4:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D12" s="92" t="s">
         <v>4</v>
       </c>
@@ -2514,11 +2514,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="42"/>
     </row>
-    <row r="14" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="31" t="s">
         <v>5</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="56" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="35" t="s">
         <v>10</v>
       </c>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="35" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="68"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="35" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="35" t="s">
         <v>14</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="35" t="s">
         <v>15</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="35" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="35" t="s">
         <v>17</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="35" t="s">
         <v>18</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="35" t="s">
         <v>19</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="35" t="s">
         <v>20</v>
       </c>
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="68"/>
     </row>
-    <row r="28" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="57" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="69" t="s">
         <v>11</v>
       </c>
@@ -2706,24 +2706,24 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.3</v>
       </c>
@@ -2745,15 +2745,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -2830,10 +2830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -2910,15 +2910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -3083,7 +3083,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -3091,15 +3091,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -3176,10 +3176,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -3269,24 +3269,24 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.3</v>
       </c>
@@ -3308,15 +3308,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -3473,15 +3473,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -3558,10 +3558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -3646,7 +3646,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -3654,15 +3654,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -3739,10 +3739,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -3832,24 +3832,24 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.3</v>
       </c>
@@ -3871,15 +3871,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -3956,10 +3956,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -4036,15 +4036,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -4209,7 +4209,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -4217,15 +4217,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -4392,41 +4392,41 @@
   <sheetPr codeName="Taul2"/>
   <dimension ref="A5:U105"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>85</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="T8" s="152"/>
       <c r="U8" s="249"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>94</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="T9" s="152"/>
       <c r="U9" s="249"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="T10" s="152"/>
       <c r="U10" s="249"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="T11" s="152"/>
       <c r="U11" s="171"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>97</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="T12" s="152"/>
       <c r="U12" s="171"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K13" s="77" t="s">
         <v>11</v>
       </c>
@@ -4771,14 +4771,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="101"/>
       <c r="M14" s="101"/>
       <c r="N14" s="101"/>
       <c r="O14" s="101"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="8" t="s">
         <v>85</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="s">
         <v>93</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="T16" s="148"/>
       <c r="U16" s="249"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
         <v>94</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="T17" s="148"/>
       <c r="U17" s="249"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F18" s="8" t="s">
         <v>95</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="T18" s="148"/>
       <c r="U18" s="249"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F19" s="8" t="s">
         <v>96</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="T19" s="148"/>
       <c r="U19" s="171"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
         <v>97</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="T20" s="148"/>
       <c r="U20" s="171"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K21" s="77" t="s">
         <v>11</v>
       </c>
@@ -5052,14 +5052,14 @@
       </c>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L22" s="101"/>
       <c r="M22" s="101"/>
       <c r="N22" s="101"/>
       <c r="O22" s="101"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="17"/>
       <c r="K23" s="135" t="s">
@@ -5074,22 +5074,22 @@
       </c>
       <c r="T23" s="13"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T24" s="13"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="118" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" s="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>98</v>
       </c>
@@ -5099,13 +5099,13 @@
       </c>
       <c r="C30" s="80"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="132"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="57" t="s">
         <v>11</v>
       </c>
@@ -5114,21 +5114,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
       <c r="C34" s="80"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="68"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="57" t="s">
         <v>11</v>
       </c>
@@ -5137,8 +5137,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="137" t="s">
         <v>66</v>
       </c>
@@ -5147,13 +5147,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="64" t="s">
         <v>59</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -5187,7 +5187,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="64" t="s">
         <v>59</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -5237,7 +5237,7 @@
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -5253,8 +5253,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="138" t="s">
         <v>66</v>
       </c>
@@ -5263,18 +5263,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="118" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K53" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>104</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>185</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="249" t="s">
         <v>184</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>95</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>96</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>97</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K60" s="31" t="s">
         <v>11</v>
       </c>
@@ -5417,8 +5417,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F62" s="8">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -5433,7 +5433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F63" s="8" t="s">
         <v>185</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F64" s="249" t="s">
         <v>184</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="8" t="s">
         <v>95</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="8" t="s">
         <v>96</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="8" t="s">
         <v>97</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K68" s="31" t="s">
         <v>11</v>
       </c>
@@ -5522,8 +5522,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K70" s="138" t="s">
         <v>66</v>
       </c>
@@ -5532,8 +5532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>202</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>205</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>204</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>206</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="249" t="s">
         <v>207</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="249" t="s">
         <v>208</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="249" t="s">
         <v>209</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K79" s="31" t="s">
         <v>11</v>
       </c>
@@ -5680,12 +5680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="213"/>
       <c r="B80" s="213"/>
       <c r="C80" s="213"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="213"/>
       <c r="B81" s="214"/>
       <c r="C81" s="214"/>
@@ -5703,7 +5703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="213"/>
       <c r="B82" s="214"/>
       <c r="C82" s="214"/>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="213"/>
       <c r="B83" s="289"/>
       <c r="C83" s="289"/>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="213"/>
       <c r="B84" s="213"/>
       <c r="C84" s="213"/>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="213"/>
       <c r="B85" s="213"/>
       <c r="C85" s="213"/>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="213"/>
       <c r="B86" s="213"/>
       <c r="C86" s="213"/>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="213"/>
       <c r="B87" s="213"/>
       <c r="C87" s="213"/>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="213"/>
       <c r="B88" s="289"/>
       <c r="C88" s="213"/>
@@ -5811,48 +5811,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="K90" s="138" t="s">
         <v>66</v>
       </c>
       <c r="L90" s="136">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B26*L79+Diskonttaus!B27*L88,Diskonttaus!B26*L60)*Diskonttaus!$B$10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B26*L79+Diskonttaus!B27*L88,Diskonttaus!B26*L79)*Diskonttaus!$B$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D105" s="19"/>
     </row>
   </sheetData>
@@ -5866,32 +5866,32 @@
   <sheetPr codeName="Taul3"/>
   <dimension ref="B2:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>107</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>110</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="56" t="s">
         <v>93</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>95</v>
       </c>
@@ -5988,7 +5988,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
         <v>96</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>97</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>56</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
         <v>75</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>77</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
         <v>120</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>9.4804100000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -6109,7 +6109,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
         <v>6</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>93</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>95</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>96</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>97</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="38" t="s">
         <v>56</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>75</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="98" t="s">
         <v>77</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
         <v>120</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="96" t="s">
         <v>74</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="E23" s="126"/>
       <c r="F23" s="127"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="96" t="s">
         <v>63</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
       <c r="E25" s="101"/>
@@ -6436,7 +6436,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -6457,7 +6457,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="52" t="s">
         <v>93</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
         <v>95</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
         <v>96</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>97</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
         <v>56</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="98" t="s">
         <v>75</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="98" t="s">
         <v>77</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>120</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="96" t="s">
         <v>74</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="E36" s="126"/>
       <c r="F36" s="127"/>
     </row>
-    <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="96" t="s">
         <v>63</v>
       </c>
@@ -6765,16 +6765,16 @@
       </c>
       <c r="I37" s="286"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C38" s="101"/>
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
       <c r="F38" s="101"/>
     </row>
-    <row r="39" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F39" s="101"/>
     </row>
-    <row r="40" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="138" t="s">
         <v>66</v>
       </c>
@@ -6795,25 +6795,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="101"/>
       <c r="D41" s="101"/>
       <c r="E41" s="101"/>
       <c r="F41" s="101"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M42" s="101"/>
       <c r="N42" s="101"/>
       <c r="O42" s="101"/>
       <c r="P42" s="101"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M43" s="101"/>
       <c r="N43" s="101"/>
       <c r="O43" s="101"/>
       <c r="P43" s="101"/>
     </row>
-    <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="135" t="s">
         <v>130</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>56</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>134</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>6.6000000000000003E-7</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>135</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>8.9600000000000009E-5</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>136</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>8.3659999999999995E-5</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>137</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>1.0163999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="K51" t="s">
@@ -6965,13 +6965,13 @@
         <v>1.0337919999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="L52" s="182"/>
       <c r="M52" s="182"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>130</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>75</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>134</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>7.5900000000000006E-7</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>135</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>2.7519999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>136</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>5.9630000000000002E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>137</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>1.5938999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="K59" t="s">
@@ -7123,13 +7123,13 @@
         <v>1.6811258999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="L60" s="182"/>
       <c r="M60" s="182"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>130</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>138</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>134</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>2.9699999999999999E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>135</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>1.248E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>136</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>5.6960000000000008E-4</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>137</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>5.6133000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K67" t="s">
         <v>62</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>5.7953570000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>139</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="L68" s="182"/>
       <c r="M68" s="182"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>130</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>77</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>134</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>1.815E-6</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>135</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>8.3199999999999995E-4</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>136</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>3.2039999999999998E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>137</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>3.3648999999999998E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K75" t="s">
         <v>62</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>3.4803214999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>141</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>130</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>120</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>134</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>3.3000000000000002E-6</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>135</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>2.0799999999999998E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>136</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>5.5179999999999997E-4</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>137</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>9.2169000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K83" t="s">
         <v>62</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>9.4804100000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>191</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>192</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>193</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>194</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>195</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>196</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E91">
         <f>SUM(E86:E90)</f>
         <v>1336</v>
@@ -7703,33 +7703,33 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>98</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>145</v>
       </c>
@@ -7774,7 +7774,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>68</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
@@ -7803,8 +7803,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="82">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -7826,7 +7826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>145</v>
       </c>
@@ -7846,7 +7846,7 @@
       <c r="I12" s="43"/>
       <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>68</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="57" t="s">
         <v>11</v>
       </c>
@@ -7875,8 +7875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="137" t="s">
         <v>66</v>
       </c>
@@ -7885,68 +7885,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
       <c r="C20" s="80"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="68"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="68"/>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="128"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
       <c r="C25" s="80"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="68"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="68"/>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="128"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="129"/>
       <c r="C29" s="193"/>
     </row>
-    <row r="30" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="137" t="s">
         <v>66</v>
       </c>
@@ -7966,19 +7966,19 @@
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Y7" t="s">
         <v>31</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>Diskonttaus!B3-10</f>
         <v>2020</v>
@@ -8087,7 +8087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>160</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>161</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>162</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>163</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>164</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>150</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>151</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>152</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>153</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>154</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>155</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>156</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>157</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>158</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -8474,12 +8474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>160</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>161</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>162</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>163</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>164</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>150</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>151</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>152</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>153</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>154</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>155</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>156</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>157</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>158</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -9768,24 +9768,24 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>23</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>0.70891881370977217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>0.68494571372924851</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>0.66178329828912896</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>0.63940415293635666</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>0.61778179027667302</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>0.59689061862480497</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>0.57670591171478747</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>0.55720377943457733</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0.53836113955031628</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="14"/>
         <v>2020</v>
@@ -10944,7 +10944,7 @@
         <v>0.52015569038677911</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>0.50256588443167061</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L14">
         <f t="shared" si="16"/>
         <v>2041</v>
@@ -11115,7 +11115,7 @@
         <v>0.48557090283253213</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>0.46915063075606966</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>0.45328563358074364</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>0.43795713389443841</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L18">
         <f t="shared" si="16"/>
         <v>2045</v>
@@ -11433,7 +11433,7 @@
         <v>0.42314698926998884</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>0.40883767079225974</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0.39501224231136206</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L21">
         <f t="shared" si="16"/>
         <v>2048</v>
@@ -11669,7 +11669,7 @@
         <v>0.38165434039745127</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>0.36874815497338298</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>0.35627841060230236</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0.34423034840802164</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L25">
         <f t="shared" si="16"/>
         <v>2052</v>
@@ -11985,7 +11985,7 @@
         <v>0.33258970860678427</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>0.32134271362974326</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>0.3104760518161771</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L28">
         <f t="shared" si="16"/>
         <v>2055</v>
@@ -12221,7 +12221,7 @@
         <v>0.29997686165814214</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>0.28983271657791515</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>0.28003161022020789</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L31">
         <f t="shared" si="16"/>
         <v>2058</v>
@@ -12457,7 +12457,7 @@
         <v>0.27056194224174673</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L32">
         <f t="shared" si="16"/>
         <v>2059</v>
@@ -12531,7 +12531,7 @@
         <v>0.26141250458139786</v>
       </c>
     </row>
-    <row r="33" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L33">
         <f t="shared" si="16"/>
         <v>2060</v>
@@ -12605,7 +12605,7 @@
         <v>0.25257246819458734</v>
       </c>
     </row>
-    <row r="34" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L34">
         <f t="shared" si="16"/>
         <v>2061</v>
@@ -12679,7 +12679,7 @@
         <v>0.24403137023631633</v>
       </c>
     </row>
-    <row r="35" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L35">
         <f t="shared" si="16"/>
         <v>2062</v>
@@ -12753,7 +12753,7 @@
         <v>0.2357791016776003</v>
       </c>
     </row>
-    <row r="36" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L36">
         <f t="shared" ref="L36:L62" si="34">L35+1</f>
         <v>2063</v>
@@ -12827,7 +12827,7 @@
         <v>0.22780589534067661</v>
       </c>
     </row>
-    <row r="37" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L37">
         <f t="shared" si="34"/>
         <v>2064</v>
@@ -12901,7 +12901,7 @@
         <v>0.22010231433881802</v>
       </c>
     </row>
-    <row r="38" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L38">
         <f t="shared" si="34"/>
         <v>2065</v>
@@ -12975,7 +12975,7 @@
         <v>0.21265924090707056</v>
       </c>
     </row>
-    <row r="39" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L39">
         <f t="shared" si="34"/>
         <v>2066</v>
@@ -13049,7 +13049,7 @@
         <v>0.20546786561069619</v>
       </c>
     </row>
-    <row r="40" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L40">
         <f t="shared" si="34"/>
         <v>2067</v>
@@ -13123,7 +13123,7 @@
         <v>0.19851967691854708</v>
       </c>
     </row>
-    <row r="41" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L41">
         <f t="shared" si="34"/>
         <v>2068</v>
@@ -13197,7 +13197,7 @@
         <v>0.19180645112903102</v>
       </c>
     </row>
-    <row r="42" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L42">
         <f t="shared" si="34"/>
         <v>2069</v>
@@ -13271,7 +13271,7 @@
         <v>0.18532024263674499</v>
       </c>
     </row>
-    <row r="43" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L43">
         <f t="shared" si="34"/>
         <v>2070</v>
@@ -13345,7 +13345,7 @@
         <v>0.17905337452825601</v>
       </c>
     </row>
-    <row r="44" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L44">
         <f t="shared" si="34"/>
         <v>2071</v>
@@ -13419,7 +13419,7 @@
         <v>0.17299842949589955</v>
       </c>
     </row>
-    <row r="45" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L45">
         <f t="shared" si="34"/>
         <v>2072</v>
@@ -13493,7 +13493,7 @@
         <v>0.16714824105884016</v>
       </c>
     </row>
-    <row r="46" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L46">
         <f t="shared" si="34"/>
         <v>2073</v>
@@ -13567,7 +13567,7 @@
         <v>0.16149588508100501</v>
       </c>
     </row>
-    <row r="47" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L47">
         <f t="shared" si="34"/>
         <v>2074</v>
@@ -13641,7 +13641,7 @@
         <v>0.15603467157585027</v>
       </c>
     </row>
-    <row r="48" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L48">
         <f t="shared" si="34"/>
         <v>2075</v>
@@ -13715,7 +13715,7 @@
         <v>0.15075813678826111</v>
       </c>
     </row>
-    <row r="49" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L49">
         <f t="shared" si="34"/>
         <v>2076</v>
@@ -13789,7 +13789,7 @@
         <v>0.14566003554421367</v>
       </c>
     </row>
-    <row r="50" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L50">
         <f t="shared" si="34"/>
         <v>2077</v>
@@ -13863,7 +13863,7 @@
         <v>0.14073433385914366</v>
       </c>
     </row>
-    <row r="51" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L51">
         <f t="shared" si="34"/>
         <v>2078</v>
@@ -13937,7 +13937,7 @@
         <v>0.13597520179627406</v>
       </c>
     </row>
-    <row r="52" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L52">
         <f t="shared" si="34"/>
         <v>2079</v>
@@ -14011,7 +14011,7 @@
         <v>0.13137700656644835</v>
       </c>
     </row>
-    <row r="53" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L53">
         <f t="shared" si="34"/>
         <v>2080</v>
@@ -14085,7 +14085,7 @@
         <v>0.12693430586130278</v>
       </c>
     </row>
-    <row r="54" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L54">
         <f t="shared" si="34"/>
         <v>2081</v>
@@ -14159,7 +14159,7 @@
         <v>0.12264184141188678</v>
       </c>
     </row>
-    <row r="55" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L55">
         <f t="shared" si="34"/>
         <v>2082</v>
@@ -14233,7 +14233,7 @@
         <v>0.11849453276510799</v>
       </c>
     </row>
-    <row r="56" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L56">
         <f t="shared" si="34"/>
         <v>2083</v>
@@ -14307,7 +14307,7 @@
         <v>0.11448747127063574</v>
       </c>
     </row>
-    <row r="57" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L57">
         <f t="shared" si="34"/>
         <v>2084</v>
@@ -14381,7 +14381,7 @@
         <v>0.11061591427114567</v>
       </c>
     </row>
-    <row r="58" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L58">
         <f t="shared" si="34"/>
         <v>2085</v>
@@ -14455,7 +14455,7 @@
         <v>0.10687527948902965</v>
       </c>
     </row>
-    <row r="59" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L59">
         <f t="shared" si="34"/>
         <v>2086</v>
@@ -14529,7 +14529,7 @@
         <v>0.10326113960292721</v>
       </c>
     </row>
-    <row r="60" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L60">
         <f t="shared" si="34"/>
         <v>2087</v>
@@ -14603,7 +14603,7 @@
         <v>9.9769217007659144E-2</v>
       </c>
     </row>
-    <row r="61" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L61">
         <f t="shared" si="34"/>
         <v>2088</v>
@@ -14677,7 +14677,7 @@
         <v>9.6395378751361491E-2</v>
       </c>
     </row>
-    <row r="62" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L62">
         <f t="shared" si="34"/>
         <v>2089</v>
@@ -14751,27 +14751,27 @@
         <v>9.3135631643827543E-2</v>
       </c>
     </row>
-    <row r="63" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="12:34" x14ac:dyDescent="0.25">
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="12:34" x14ac:dyDescent="0.25">
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
@@ -14786,35 +14786,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFD98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>55</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="69" t="s">
         <v>170</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -14890,7 +14890,7 @@
       <c r="E4" s="220"/>
       <c r="F4" s="221"/>
     </row>
-    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -14909,10 +14909,10 @@
       <c r="E5" s="217"/>
       <c r="F5" s="219"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
@@ -14937,7 +14937,7 @@
       <c r="AF7" s="206"/>
       <c r="AG7" s="206"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="96">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -14993,7 +14993,7 @@
       <c r="AF8" s="206"/>
       <c r="AG8" s="206"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>64</v>
       </c>
@@ -15058,7 +15058,7 @@
       <c r="AF9" s="210"/>
       <c r="AG9" s="206"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
         <v>65</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="AF10" s="210"/>
       <c r="AG10" s="206"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
         <v>11</v>
       </c>
@@ -15188,7 +15188,7 @@
       <c r="AF11" s="210"/>
       <c r="AG11" s="206"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N12" s="206"/>
       <c r="O12" s="206"/>
       <c r="P12" s="206"/>
@@ -15210,7 +15210,7 @@
       <c r="AF12" s="206"/>
       <c r="AG12" s="206"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="96">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -15266,7 +15266,7 @@
       <c r="AF13" s="206"/>
       <c r="AG13" s="206"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="56" t="s">
         <v>64</v>
       </c>
@@ -15331,7 +15331,7 @@
       <c r="AF14" s="210"/>
       <c r="AG14" s="206"/>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>65</v>
       </c>
@@ -15396,7 +15396,7 @@
       <c r="AF15" s="210"/>
       <c r="AG15" s="206"/>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="57" t="s">
         <v>11</v>
       </c>
@@ -15461,7 +15461,7 @@
       <c r="AF16" s="210"/>
       <c r="AG16" s="206"/>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N17" s="206"/>
       <c r="O17" s="206"/>
       <c r="P17" s="206"/>
@@ -15483,7 +15483,7 @@
       <c r="AF17" s="206"/>
       <c r="AG17" s="206"/>
     </row>
-    <row r="18" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="144" t="s">
         <v>66</v>
       </c>
@@ -15520,7 +15520,7 @@
       <c r="AF18" s="206"/>
       <c r="AG18" s="206"/>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N19" s="206"/>
       <c r="O19" s="206"/>
       <c r="P19" s="206"/>
@@ -15542,7 +15542,7 @@
       <c r="AF19" s="206"/>
       <c r="AG19" s="206"/>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>67</v>
       </c>
@@ -15574,7 +15574,7 @@
       <c r="AF20" s="206"/>
       <c r="AG20" s="206"/>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="96">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -15621,7 +15621,7 @@
       <c r="AF21" s="206"/>
       <c r="AG21" s="206"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>64</v>
       </c>
@@ -15674,7 +15674,7 @@
       <c r="AF22" s="206"/>
       <c r="AG22" s="206"/>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
         <v>65</v>
       </c>
@@ -15727,7 +15727,7 @@
       <c r="AF23" s="206"/>
       <c r="AG23" s="206"/>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>11</v>
       </c>
@@ -15780,7 +15780,7 @@
       <c r="AF24" s="206"/>
       <c r="AG24" s="206"/>
     </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="213"/>
       <c r="G25" s="213"/>
       <c r="H25" s="213"/>
@@ -15805,7 +15805,7 @@
       <c r="AF25" s="206"/>
       <c r="AG25" s="206"/>
     </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="96">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -15852,7 +15852,7 @@
       <c r="AF26" s="206"/>
       <c r="AG26" s="206"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B27" s="52" t="s">
         <v>64</v>
       </c>
@@ -15904,7 +15904,7 @@
       <c r="AF27" s="206"/>
       <c r="AG27" s="206"/>
     </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>65</v>
       </c>
@@ -15956,7 +15956,7 @@
       <c r="AF28" s="206"/>
       <c r="AG28" s="206"/>
     </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="53" t="s">
         <v>11</v>
       </c>
@@ -16008,7 +16008,7 @@
       <c r="AF29" s="206"/>
       <c r="AG29" s="206"/>
     </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N30" s="206"/>
       <c r="O30" s="206"/>
       <c r="P30" s="206"/>
@@ -16030,7 +16030,7 @@
       <c r="AF30" s="206"/>
       <c r="AG30" s="206"/>
     </row>
-    <row r="31" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="144" t="s">
         <v>66</v>
       </c>
@@ -16059,7 +16059,7 @@
       <c r="AF31" s="206"/>
       <c r="AG31" s="206"/>
     </row>
-    <row r="32" spans="1:33" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N32" s="211"/>
       <c r="O32" s="211"/>
       <c r="P32" s="211"/>
@@ -16081,7 +16081,7 @@
       <c r="AF32" s="211"/>
       <c r="AG32" s="211"/>
     </row>
-    <row r="33" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N33" s="206"/>
       <c r="O33" s="206"/>
       <c r="P33" s="206"/>
@@ -16103,7 +16103,7 @@
       <c r="AF33" s="206"/>
       <c r="AG33" s="206"/>
     </row>
-    <row r="34" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -16137,7 +16137,7 @@
       <c r="AF34" s="206"/>
       <c r="AG34" s="206"/>
     </row>
-    <row r="35" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>68</v>
       </c>
@@ -16173,7 +16173,7 @@
       <c r="AF35" s="206"/>
       <c r="AG35" s="206"/>
     </row>
-    <row r="36" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36" s="96">
         <f>Diskonttaus!B4</f>
@@ -16226,7 +16226,7 @@
       <c r="AF36" s="206"/>
       <c r="AG36" s="206"/>
     </row>
-    <row r="37" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="56" t="s">
         <v>64</v>
@@ -16286,7 +16286,7 @@
       <c r="AF37" s="210"/>
       <c r="AG37" s="206"/>
     </row>
-    <row r="38" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="35" t="s">
         <v>65</v>
@@ -16346,7 +16346,7 @@
       <c r="AF38" s="210"/>
       <c r="AG38" s="206"/>
     </row>
-    <row r="39" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39" s="57" t="s">
         <v>11</v>
@@ -16406,7 +16406,7 @@
       <c r="AF39" s="210"/>
       <c r="AG39" s="206"/>
     </row>
-    <row r="40" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -16440,7 +16440,7 @@
       <c r="AF40" s="206"/>
       <c r="AG40" s="206"/>
     </row>
-    <row r="41" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41" s="96">
         <f>Diskonttaus!B6</f>
@@ -16493,7 +16493,7 @@
       <c r="AF41" s="206"/>
       <c r="AG41" s="206"/>
     </row>
-    <row r="42" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="56" t="s">
         <v>64</v>
@@ -16553,7 +16553,7 @@
       <c r="AF42" s="210"/>
       <c r="AG42" s="206"/>
     </row>
-    <row r="43" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="35" t="s">
         <v>65</v>
@@ -16613,7 +16613,7 @@
       <c r="AF43" s="210"/>
       <c r="AG43" s="206"/>
     </row>
-    <row r="44" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44" s="57" t="s">
         <v>11</v>
@@ -16673,7 +16673,7 @@
       <c r="AF44" s="210"/>
       <c r="AG44" s="206"/>
     </row>
-    <row r="45" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" s="203" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -16707,7 +16707,7 @@
       <c r="AF45" s="206"/>
       <c r="AG45" s="206"/>
     </row>
-    <row r="46" spans="1:34" s="203" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" s="203" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46"/>
       <c r="B46" s="138" t="s">
         <v>66</v>
@@ -16746,7 +16746,7 @@
       <c r="AF46" s="206"/>
       <c r="AG46" s="206"/>
     </row>
-    <row r="47" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -16780,7 +16780,7 @@
       <c r="AF47" s="206"/>
       <c r="AG47" s="206"/>
     </row>
-    <row r="48" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -16814,7 +16814,7 @@
       <c r="AG48" s="206"/>
       <c r="AH48" s="206"/>
     </row>
-    <row r="49" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -16848,7 +16848,7 @@
       <c r="AG49" s="206"/>
       <c r="AH49" s="206"/>
     </row>
-    <row r="50" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" s="203" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O50" s="206"/>
       <c r="P50" s="206"/>
       <c r="Q50" s="206"/>
@@ -16870,17 +16870,17 @@
       <c r="AG50" s="206"/>
       <c r="AH50" s="206"/>
     </row>
-    <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="131" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="31" t="s">
         <v>71</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
         <v>56</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>0.12790000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>75</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
         <v>76</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>0.4415</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B64" s="38" t="s">
         <v>77</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>0.31890000000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="39" t="s">
         <v>78</v>
       </c>
@@ -16979,11 +16979,11 @@
         <v>0.64739999999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD66" s="40"/>
     </row>
-    <row r="68" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="31" t="s">
         <v>79</v>
       </c>
@@ -17012,7 +17012,7 @@
       <c r="P69" s="20"/>
       <c r="Q69" s="20"/>
     </row>
-    <row r="70" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>56</v>
       </c>
@@ -17041,7 +17041,7 @@
       <c r="P70" s="106"/>
       <c r="Q70" s="194"/>
     </row>
-    <row r="71" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B71" s="35" t="s">
         <v>75</v>
       </c>
@@ -17070,7 +17070,7 @@
       <c r="P71" s="108"/>
       <c r="Q71" s="195"/>
     </row>
-    <row r="72" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B72" s="35" t="s">
         <v>76</v>
       </c>
@@ -17099,7 +17099,7 @@
       <c r="P72" s="108"/>
       <c r="Q72" s="195"/>
     </row>
-    <row r="73" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B73" s="35" t="s">
         <v>77</v>
       </c>
@@ -17128,7 +17128,7 @@
       <c r="P73" s="108"/>
       <c r="Q73" s="195"/>
     </row>
-    <row r="74" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="33" t="s">
         <v>78</v>
       </c>
@@ -17157,7 +17157,7 @@
       <c r="P74" s="110"/>
       <c r="Q74" s="196"/>
     </row>
-    <row r="75" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H75" s="10" t="s">
         <v>74</v>
       </c>
@@ -17178,7 +17178,7 @@
       <c r="P75" s="111"/>
       <c r="Q75" s="111"/>
     </row>
-    <row r="76" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="31" t="s">
         <v>79</v>
       </c>
@@ -17207,7 +17207,7 @@
       <c r="P76" s="20"/>
       <c r="Q76" s="20"/>
     </row>
-    <row r="77" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>56</v>
       </c>
@@ -17236,7 +17236,7 @@
       <c r="P77" s="106"/>
       <c r="Q77" s="194"/>
     </row>
-    <row r="78" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>75</v>
       </c>
@@ -17265,7 +17265,7 @@
       <c r="P78" s="108"/>
       <c r="Q78" s="195"/>
     </row>
-    <row r="79" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B79" s="35" t="s">
         <v>76</v>
       </c>
@@ -17294,7 +17294,7 @@
       <c r="P79" s="108"/>
       <c r="Q79" s="195"/>
     </row>
-    <row r="80" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B80" s="35" t="s">
         <v>77</v>
       </c>
@@ -17323,7 +17323,7 @@
       <c r="P80" s="108"/>
       <c r="Q80" s="195"/>
     </row>
-    <row r="81" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="33" t="s">
         <v>78</v>
       </c>
@@ -17352,7 +17352,7 @@
       <c r="P81" s="110"/>
       <c r="Q81" s="196"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
       <c r="C82" s="104"/>
       <c r="D82" s="24"/>
@@ -17378,21 +17378,21 @@
       <c r="P82" s="111"/>
       <c r="Q82" s="111"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="24"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="24"/>
     </row>
-    <row r="98" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="119" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17407,14 +17407,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -17422,12 +17422,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.45600000000000002</v>
       </c>
@@ -17449,15 +17449,15 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -17534,10 +17534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -17614,15 +17614,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -17699,10 +17699,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -17787,7 +17787,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -17795,15 +17795,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -17880,10 +17880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -17973,14 +17973,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -17988,12 +17988,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.48799999999999999</v>
       </c>
@@ -18015,15 +18015,15 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -18100,10 +18100,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -18180,15 +18180,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -18265,10 +18265,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -18353,7 +18353,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -18361,15 +18361,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -18446,10 +18446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -18539,14 +18539,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -18554,12 +18554,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -18570,7 +18570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.44500000000000001</v>
       </c>
@@ -18581,15 +18581,15 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -18666,10 +18666,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -18746,15 +18746,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -18831,10 +18831,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -18919,7 +18919,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -18927,15 +18927,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -19012,10 +19012,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -19105,14 +19105,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -19120,12 +19120,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.57099999999999995</v>
       </c>
@@ -19147,15 +19147,15 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -19232,10 +19232,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -19312,15 +19312,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -19397,10 +19397,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -19485,7 +19485,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -19493,15 +19493,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -19578,10 +19578,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -19671,14 +19671,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -19686,12 +19686,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.54200000000000004</v>
       </c>
@@ -19713,15 +19713,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -19798,10 +19798,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -19878,15 +19878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -19963,10 +19963,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -20051,7 +20051,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -20059,15 +20059,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -20144,10 +20144,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -20237,14 +20237,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -20252,12 +20252,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="187" t="s">
         <v>59</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="276">
         <v>0.72499999999999998</v>
       </c>
@@ -20279,15 +20279,15 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="213"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="263">
         <v>2030</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="264" t="s">
         <v>64</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="265" t="s">
         <v>65</v>
       </c>
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="266" t="s">
         <v>11</v>
       </c>
@@ -20364,10 +20364,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="263">
         <v>2050</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>65</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>11</v>
       </c>
@@ -20444,15 +20444,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="206"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="263">
         <v>2030</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="264" t="s">
         <v>64</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="270" t="s">
         <v>65</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="266" t="s">
         <v>11</v>
       </c>
@@ -20529,10 +20529,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="271"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="263">
         <v>2050</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>64</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>11</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="97"/>
       <c r="B32" s="97"/>
       <c r="C32" s="97"/>
@@ -20617,7 +20617,7 @@
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="203"/>
       <c r="B33" s="203"/>
       <c r="C33" s="203"/>
@@ -20625,15 +20625,15 @@
       <c r="E33" s="203"/>
       <c r="F33" s="203"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="272">
         <v>2030</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="273" t="s">
         <v>64</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="274" t="s">
         <v>65</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="275" t="s">
         <v>11</v>
       </c>
@@ -20710,10 +20710,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="271"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="272">
         <v>2050</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="273" t="s">
         <v>64</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="274" t="s">
         <v>65</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
@@ -20796,41 +20796,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
-    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
-        </TermInfo>
-      </Terms>
-    </c7e7d47415304583b97cbceafb48fc9c>
-    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
-    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gbd2c824d606482d8ac0e417e142bc2f>
-    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lf2a24d45b2949218b95d66f1d0b33a8>
-    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
-      <Value>2</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Työryhmän dokumentti" ma:contentTypeID="0x0101005AF0DAC6D8B8D046AA97775D0EA0A52C00597B3796DB9FF548BDFCB0DE8988F274" ma:contentTypeVersion="18" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="52111fa3d5fab8e48da38903eaacec4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xmlns:ns3="8dde8a50-f86d-46ca-ae54-a219d58ab0f1" xmlns:ns4="4468c9de-2a81-4c06-bf49-e269715ababb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb907d030b2bbafc68088718dbf26d11" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
@@ -21065,10 +21030,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
+    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
+        </TermInfo>
+      </Terms>
+    </c7e7d47415304583b97cbceafb48fc9c>
+    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
+    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gbd2c824d606482d8ac0e417e142bc2f>
+    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lf2a24d45b2949218b95d66f1d0b33a8>
+    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
+      <Value>2</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
+    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
+    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21092,21 +21104,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
-    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
-    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Helmet\HELMET_KEHI_40\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC219605-7688-46B5-B133-ED271DE15128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CCC5A3-D77C-463B-A1D2-7533B54B7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="38670" windowHeight="21270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -1829,7 +1829,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2076,9 +2076,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2201,20 +2198,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2225,24 +2216,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2257,6 +2230,29 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
@@ -2542,7 +2538,7 @@
   <dimension ref="B1:L36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,115 +2546,118 @@
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="194"/>
+      <c r="F1" s="193"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="277" t="s">
+      <c r="B2" s="274" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="289"/>
-      <c r="D2" s="274" t="s">
+      <c r="C2" s="282"/>
+      <c r="D2" s="273" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="194"/>
+      <c r="F2" s="193"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="289"/>
-      <c r="D3" s="275">
+      <c r="C3" s="282"/>
+      <c r="D3" s="302">
         <f>Investointikustannus!X23</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="278" t="s">
+      <c r="B4" s="275" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="276">
+      <c r="C4" s="195"/>
+      <c r="D4" s="277">
         <f>Investointikustannus!D6-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="279" t="s">
+      <c r="B5" s="276" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="290"/>
-      <c r="D5" s="33">
+      <c r="C5" s="283"/>
+      <c r="D5" s="300">
         <f>(Diskonttaus!B10-1)*(Yhteenveto!D3+Yhteenveto!D4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="277" t="s">
+      <c r="B6" s="274" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="290"/>
-      <c r="D6" s="287">
+      <c r="C6" s="283"/>
+      <c r="D6" s="303">
         <f>SUM(D3:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="310">
+        <f ca="1">MAX(D6,D26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="277" t="s">
+      <c r="B8" s="274" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="291"/>
-      <c r="D8" s="274" t="s">
+      <c r="C8" s="284"/>
+      <c r="D8" s="273" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="273" t="s">
+      <c r="B9" s="272" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="289"/>
+      <c r="C9" s="282"/>
       <c r="D9" s="68"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="285" t="s">
+      <c r="B10" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="294">
+      <c r="C10" s="287">
         <f ca="1">-D10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="280">
+      <c r="D10" s="219">
         <f ca="1">-(Tuottajahyodyt!L70+Tuottajahyodyt!L90)/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="295"/>
-      <c r="D11" s="91"/>
+      <c r="C11" s="305"/>
+      <c r="D11" s="277"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="296">
+      <c r="C12" s="306">
         <f ca="1">-D12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="281">
+      <c r="D12" s="277">
         <f ca="1">Kayttajahyodyt!M18/1000000</f>
         <v>0</v>
       </c>
@@ -2667,11 +2666,11 @@
       <c r="B13" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="296">
+      <c r="C13" s="306">
         <f t="shared" ref="C13:C14" ca="1" si="0">-D13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="277">
         <f ca="1">Kayttajahyodyt!M31/1000000</f>
         <v>0</v>
       </c>
@@ -2680,31 +2679,31 @@
       <c r="B14" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="297">
+      <c r="C14" s="287">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="280">
+      <c r="D14" s="219">
         <f ca="1">Kayttajahyodyt!M46/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="278" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="298"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="307"/>
+      <c r="D15" s="270"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="296">
+      <c r="C16" s="306">
         <f t="shared" ref="C16:C17" ca="1" si="1">-D16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="276">
+      <c r="D16" s="277">
         <f ca="1">-Tuottajahyodyt!O23/1000000</f>
         <v>0</v>
       </c>
@@ -2713,51 +2712,51 @@
       <c r="B17" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="296">
+      <c r="C17" s="306">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D17" s="276">
+      <c r="D17" s="277">
         <f ca="1">Tuottajahyodyt!F48/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="282" t="s">
+      <c r="B18" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="298"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="307"/>
+      <c r="D18" s="270"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="285" t="s">
+      <c r="B19" s="281" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="297">
+      <c r="C19" s="287">
         <f ca="1">-D19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="220">
+      <c r="D19" s="219">
         <f ca="1">-Ulkoisvaikutukset!C40/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="283" t="s">
+      <c r="B20" s="279" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="295"/>
-      <c r="D20" s="91"/>
+      <c r="C20" s="305"/>
+      <c r="D20" s="277"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="296">
+      <c r="C21" s="306">
         <f t="shared" ref="C21:C22" ca="1" si="2">-D21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="277">
         <f ca="1">-Ulkoisvaikutukset!D40/1000000</f>
         <v>0</v>
       </c>
@@ -2766,68 +2765,68 @@
       <c r="B22" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="296">
+      <c r="C22" s="306">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="D22" s="281">
+      <c r="D22" s="277">
         <f ca="1">-Ulkoisvaikutukset!E40/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="282" t="s">
+      <c r="B23" s="278" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="307"/>
+      <c r="D23" s="270"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="285" t="s">
+      <c r="B24" s="281" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="297">
+      <c r="C24" s="287">
         <f t="shared" ref="C24:C26" ca="1" si="3">-D24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="280">
+      <c r="D24" s="219">
         <f ca="1">Julkistaloudelliset!C16/1000000</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="284" t="s">
+      <c r="B25" s="280" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="299">
+      <c r="C25" s="308">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D25" s="286">
+      <c r="D25" s="300">
         <f>Investointikustannus!AA23</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="277" t="s">
+      <c r="B26" s="274" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="300">
+      <c r="C26" s="309">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="D26" s="288">
+      <c r="D26" s="301">
         <f ca="1">SUM(D10:D25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="292"/>
-      <c r="D29" s="182">
+      <c r="B29" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="285"/>
+      <c r="D29" s="304">
         <f ca="1">D26-D6</f>
         <v>0</v>
       </c>
@@ -2838,10 +2837,10 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="292"/>
+      <c r="C32" s="285"/>
       <c r="D32" s="85" t="e">
         <f ca="1">D26/D6</f>
         <v>#DIV/0!</v>
@@ -2853,10 +2852,10 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="B35" s="293" t="s">
+      <c r="B35" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="292"/>
+      <c r="C35" s="285"/>
       <c r="D35" s="85" t="e">
         <f ca="1">(SUM(D12:D14)+SUM(D19:D22)+D25)/(D6-D10-SUM(D16:D17)-D24)</f>
         <v>#DIV/0!</v>
@@ -2891,101 +2890,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="MAX($D$6,$D$26)"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E599B0B8-261B-45DF-8F77-23FD88E27809}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D26">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="MAX($D$6,$D$26)"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68274376-C86F-4E69-A67C-E4402A7FC3A2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C26">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="formula" val="MAX($D$6,$D$26)*0.667"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E883AF71-8C5C-4C76-A766-B40C4A4B65DD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E599B0B8-261B-45DF-8F77-23FD88E27809}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>MAX($D$6,$D$26)</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68274376-C86F-4E69-A67C-E4402A7FC3A2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>MAX($D$6,$D$26)</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D10:D26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E883AF71-8C5C-4C76-A766-B40C4A4B65DD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="formula">
-                <xm:f>MAX($D$6,$D$26)*0.667</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C10:C26</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3026,13 +2932,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.3</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.1</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.3</v>
       </c>
     </row>
@@ -3042,10 +2948,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -3065,7 +2971,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -3081,13 +2987,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -3097,35 +3003,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -3164,10 +3070,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -3180,23 +3086,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3207,10 +3113,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -3230,7 +3136,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -3246,13 +3152,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3262,35 +3168,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -3329,10 +3235,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3345,23 +3251,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3375,12 +3281,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -3388,10 +3294,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -3411,7 +3317,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -3427,13 +3333,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3443,35 +3349,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -3491,7 +3397,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -3507,13 +3413,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3526,23 +3432,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3589,13 +3495,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.3</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.1</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.3</v>
       </c>
     </row>
@@ -3605,10 +3511,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -3628,7 +3534,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -3644,13 +3550,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -3660,35 +3566,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -3727,10 +3633,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -3743,23 +3649,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3770,10 +3676,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -3793,7 +3699,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -3809,13 +3715,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3825,35 +3731,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -3892,10 +3798,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3908,23 +3814,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -3938,12 +3844,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -3951,10 +3857,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -3974,7 +3880,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -3990,13 +3896,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4006,35 +3912,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -4054,7 +3960,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -4070,13 +3976,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4089,23 +3995,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -4152,13 +4058,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.3</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.1</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.3</v>
       </c>
     </row>
@@ -4168,10 +4074,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -4191,7 +4097,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -4207,13 +4113,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -4223,35 +4129,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -4290,10 +4196,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -4306,23 +4212,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -4333,10 +4239,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -4356,7 +4262,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -4372,13 +4278,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4388,35 +4294,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -4455,10 +4361,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4471,23 +4377,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -4501,12 +4407,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -4514,10 +4420,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -4537,7 +4443,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -4553,13 +4459,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4569,35 +4475,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -4617,7 +4523,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -4633,13 +4539,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4652,23 +4558,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -4768,7 +4674,7 @@
       <c r="T7" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="U7" s="230" t="s">
+      <c r="U7" s="229" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4823,7 +4729,7 @@
       </c>
       <c r="S8" s="142"/>
       <c r="T8" s="142"/>
-      <c r="U8" s="230"/>
+      <c r="U8" s="229"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -4876,7 +4782,7 @@
       </c>
       <c r="S9" s="142"/>
       <c r="T9" s="142"/>
-      <c r="U9" s="230"/>
+      <c r="U9" s="229"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -4929,7 +4835,7 @@
       </c>
       <c r="S10" s="142"/>
       <c r="T10" s="142"/>
-      <c r="U10" s="230"/>
+      <c r="U10" s="229"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -5107,7 +5013,7 @@
       <c r="T15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="U15" s="230" t="s">
+      <c r="U15" s="229" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5151,7 +5057,7 @@
       </c>
       <c r="S16" s="138"/>
       <c r="T16" s="138"/>
-      <c r="U16" s="230"/>
+      <c r="U16" s="229"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F17" s="8" t="s">
@@ -5193,7 +5099,7 @@
       </c>
       <c r="S17" s="138"/>
       <c r="T17" s="138"/>
-      <c r="U17" s="230"/>
+      <c r="U17" s="229"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F18" s="8" t="s">
@@ -5235,7 +5141,7 @@
       </c>
       <c r="S18" s="138"/>
       <c r="T18" s="138"/>
-      <c r="U18" s="230"/>
+      <c r="U18" s="229"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F19" s="8" t="s">
@@ -5466,13 +5372,13 @@
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
-      <c r="B42" s="235">
+      <c r="B42" s="234">
         <v>0.47799999999999998</v>
       </c>
-      <c r="C42" s="236">
+      <c r="C42" s="235">
         <v>0.109</v>
       </c>
-      <c r="D42" s="236">
+      <c r="D42" s="235">
         <v>0.40500000000000003</v>
       </c>
       <c r="E42" s="48"/>
@@ -5516,13 +5422,13 @@
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
-      <c r="B45" s="235">
+      <c r="B45" s="234">
         <v>0.47799999999999998</v>
       </c>
-      <c r="C45" s="236">
+      <c r="C45" s="235">
         <v>0.109</v>
       </c>
-      <c r="D45" s="236">
+      <c r="D45" s="235">
         <v>0.40500000000000003</v>
       </c>
       <c r="E45" s="48"/>
@@ -5609,20 +5515,20 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="230" t="s">
+      <c r="A56" s="229" t="s">
         <v>172</v>
       </c>
       <c r="B56" s="143">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="F56" s="230" t="s">
+      <c r="F56" s="229" t="s">
         <v>172</v>
       </c>
       <c r="G56" s="124">
         <f>Diskonttaus!$B$11*(Ulkoisvaikutukset!O15+Ulkoisvaikutukset!O21+Ulkoisvaikutukset!O22)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="232" t="s">
+      <c r="K56" s="231" t="s">
         <v>172</v>
       </c>
       <c r="L56" s="106">
@@ -5741,14 +5647,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F64" s="230" t="s">
+      <c r="F64" s="229" t="s">
         <v>172</v>
       </c>
       <c r="G64" s="124">
         <f>Diskonttaus!$B$11*(Ulkoisvaikutukset!O28+Ulkoisvaikutukset!O34+Ulkoisvaikutukset!O35)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="231" t="s">
+      <c r="K64" s="230" t="s">
         <v>172</v>
       </c>
       <c r="L64" s="81">
@@ -5849,7 +5755,7 @@
       <c r="A73" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B73" s="266">
+      <c r="B73" s="265">
         <v>23000</v>
       </c>
       <c r="F73" s="8" t="s">
@@ -5859,7 +5765,7 @@
       <c r="K73" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="L73" s="270">
+      <c r="L73" s="269">
         <f t="shared" ref="L73:L78" si="6">B73*G73</f>
         <v>0</v>
       </c>
@@ -5868,7 +5774,7 @@
       <c r="A74" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="266">
+      <c r="B74" s="265">
         <v>20000</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -5878,7 +5784,7 @@
       <c r="K74" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="L74" s="221">
+      <c r="L74" s="220">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5887,7 +5793,7 @@
       <c r="A75" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="266">
+      <c r="B75" s="265">
         <v>10000</v>
       </c>
       <c r="F75" s="8" t="s">
@@ -5897,67 +5803,67 @@
       <c r="K75" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="L75" s="221">
+      <c r="L75" s="220">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="230" t="s">
+      <c r="A76" s="229" t="s">
         <v>195</v>
       </c>
-      <c r="B76" s="266">
+      <c r="B76" s="265">
         <f>22000+5000</f>
         <v>27000</v>
       </c>
-      <c r="F76" s="230" t="s">
+      <c r="F76" s="229" t="s">
         <v>195</v>
       </c>
       <c r="G76" s="138"/>
-      <c r="K76" s="268" t="s">
+      <c r="K76" s="267" t="s">
         <v>195</v>
       </c>
-      <c r="L76" s="221">
+      <c r="L76" s="220">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="230" t="s">
+      <c r="A77" s="229" t="s">
         <v>196</v>
       </c>
-      <c r="B77" s="266">
+      <c r="B77" s="265">
         <f t="shared" ref="B77:B78" si="7">22000+5000</f>
         <v>27000</v>
       </c>
-      <c r="F77" s="230" t="s">
+      <c r="F77" s="229" t="s">
         <v>196</v>
       </c>
       <c r="G77" s="138"/>
-      <c r="K77" s="268" t="s">
+      <c r="K77" s="267" t="s">
         <v>196</v>
       </c>
-      <c r="L77" s="271">
+      <c r="L77" s="270">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="230" t="s">
+      <c r="A78" s="229" t="s">
         <v>197</v>
       </c>
-      <c r="B78" s="266">
+      <c r="B78" s="265">
         <f t="shared" si="7"/>
         <v>27000</v>
       </c>
-      <c r="F78" s="230" t="s">
+      <c r="F78" s="229" t="s">
         <v>197</v>
       </c>
       <c r="G78" s="138"/>
-      <c r="K78" s="269" t="s">
+      <c r="K78" s="268" t="s">
         <v>197</v>
       </c>
-      <c r="L78" s="272">
+      <c r="L78" s="271">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5972,14 +5878,14 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="194"/>
-      <c r="B80" s="194"/>
-      <c r="C80" s="194"/>
+      <c r="A80" s="193"/>
+      <c r="B80" s="193"/>
+      <c r="C80" s="193"/>
     </row>
     <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="194"/>
-      <c r="B81" s="195"/>
-      <c r="C81" s="195"/>
+      <c r="A81" s="193"/>
+      <c r="B81" s="194"/>
+      <c r="C81" s="194"/>
       <c r="F81" s="8">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -5995,9 +5901,9 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="194"/>
-      <c r="B82" s="195"/>
-      <c r="C82" s="195"/>
+      <c r="A82" s="193"/>
+      <c r="B82" s="194"/>
+      <c r="C82" s="194"/>
       <c r="F82" s="8" t="s">
         <v>193</v>
       </c>
@@ -6005,15 +5911,15 @@
       <c r="K82" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="L82" s="270">
+      <c r="L82" s="269">
         <f>B73*G82</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="194"/>
-      <c r="B83" s="267"/>
-      <c r="C83" s="267"/>
+      <c r="A83" s="193"/>
+      <c r="B83" s="266"/>
+      <c r="C83" s="266"/>
       <c r="F83" s="8" t="s">
         <v>192</v>
       </c>
@@ -6021,15 +5927,15 @@
       <c r="K83" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="L83" s="221">
+      <c r="L83" s="220">
         <f>B74*G83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="194"/>
-      <c r="B84" s="194"/>
-      <c r="C84" s="194"/>
+      <c r="A84" s="193"/>
+      <c r="B84" s="193"/>
+      <c r="C84" s="193"/>
       <c r="F84" s="8" t="s">
         <v>194</v>
       </c>
@@ -6037,63 +5943,63 @@
       <c r="K84" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="L84" s="221">
+      <c r="L84" s="220">
         <f t="shared" ref="L84:L86" si="8">B75*G84</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="194"/>
-      <c r="B85" s="194"/>
-      <c r="C85" s="194"/>
-      <c r="F85" s="230" t="s">
+      <c r="A85" s="193"/>
+      <c r="B85" s="193"/>
+      <c r="C85" s="193"/>
+      <c r="F85" s="229" t="s">
         <v>195</v>
       </c>
       <c r="G85" s="138"/>
-      <c r="K85" s="268" t="s">
+      <c r="K85" s="267" t="s">
         <v>195</v>
       </c>
-      <c r="L85" s="221">
+      <c r="L85" s="220">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="194"/>
-      <c r="B86" s="194"/>
-      <c r="C86" s="194"/>
-      <c r="F86" s="230" t="s">
+      <c r="A86" s="193"/>
+      <c r="B86" s="193"/>
+      <c r="C86" s="193"/>
+      <c r="F86" s="229" t="s">
         <v>196</v>
       </c>
       <c r="G86" s="138"/>
-      <c r="K86" s="268" t="s">
+      <c r="K86" s="267" t="s">
         <v>196</v>
       </c>
-      <c r="L86" s="221">
+      <c r="L86" s="220">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="194"/>
-      <c r="B87" s="194"/>
-      <c r="C87" s="194"/>
-      <c r="F87" s="230" t="s">
+      <c r="A87" s="193"/>
+      <c r="B87" s="193"/>
+      <c r="C87" s="193"/>
+      <c r="F87" s="229" t="s">
         <v>197</v>
       </c>
       <c r="G87" s="138"/>
-      <c r="K87" s="269" t="s">
+      <c r="K87" s="268" t="s">
         <v>197</v>
       </c>
-      <c r="L87" s="272">
+      <c r="L87" s="271">
         <f>B78*G87</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="194"/>
-      <c r="B88" s="267"/>
-      <c r="C88" s="194"/>
+      <c r="A88" s="193"/>
+      <c r="B88" s="266"/>
+      <c r="C88" s="193"/>
       <c r="K88" s="31" t="s">
         <v>8</v>
       </c>
@@ -6238,22 +6144,22 @@
         <v>5.7953570000000003E-2</v>
       </c>
       <c r="F4" s="56"/>
-      <c r="G4" s="260">
+      <c r="G4" s="259">
         <v>2.4E-2</v>
       </c>
-      <c r="H4" s="261">
+      <c r="H4" s="260">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I4" s="261">
+      <c r="I4" s="260">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J4" s="261">
+      <c r="J4" s="260">
         <v>0.26</v>
       </c>
-      <c r="K4" s="261">
+      <c r="K4" s="260">
         <v>0.376</v>
       </c>
-      <c r="L4" s="262">
+      <c r="L4" s="261">
         <v>0</v>
       </c>
     </row>
@@ -6270,7 +6176,7 @@
       <c r="F5" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="229">
+      <c r="G5" s="228">
         <v>410600</v>
       </c>
       <c r="H5" s="8"/>
@@ -6458,12 +6364,12 @@
       <c r="H15" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="310"/>
-      <c r="J15" s="311"/>
-      <c r="K15" s="311"/>
-      <c r="L15" s="311"/>
-      <c r="M15" s="311"/>
-      <c r="N15" s="312"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="298"/>
+      <c r="L15" s="298"/>
+      <c r="M15" s="298"/>
+      <c r="N15" s="299"/>
       <c r="O15" s="56">
         <f t="shared" ref="O15:O22" si="3">SUM(I15:N15)</f>
         <v>0</v>
@@ -6573,12 +6479,12 @@
       <c r="H19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="303"/>
+      <c r="I19" s="290"/>
       <c r="J19" s="136"/>
       <c r="K19" s="136"/>
       <c r="L19" s="136"/>
       <c r="M19" s="136"/>
-      <c r="N19" s="304"/>
+      <c r="N19" s="291"/>
       <c r="O19" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6601,12 +6507,12 @@
       <c r="H20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="305"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="306"/>
+      <c r="I20" s="292"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="237"/>
+      <c r="N20" s="293"/>
       <c r="O20" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6629,12 +6535,12 @@
       <c r="H21" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="305"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
-      <c r="M21" s="238"/>
-      <c r="N21" s="306"/>
+      <c r="I21" s="292"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="293"/>
       <c r="O21" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6657,12 +6563,12 @@
       <c r="H22" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="307"/>
-      <c r="J22" s="308"/>
-      <c r="K22" s="308"/>
-      <c r="L22" s="308"/>
-      <c r="M22" s="308"/>
-      <c r="N22" s="309"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="295"/>
+      <c r="K22" s="295"/>
+      <c r="L22" s="295"/>
+      <c r="M22" s="295"/>
+      <c r="N22" s="296"/>
       <c r="O22" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6706,7 +6612,7 @@
       <c r="H24" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="263"/>
+      <c r="I24" s="262"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -6806,12 +6712,12 @@
       <c r="H28" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="310"/>
-      <c r="J28" s="311"/>
-      <c r="K28" s="311"/>
-      <c r="L28" s="311"/>
-      <c r="M28" s="311"/>
-      <c r="N28" s="312"/>
+      <c r="I28" s="297"/>
+      <c r="J28" s="298"/>
+      <c r="K28" s="298"/>
+      <c r="L28" s="298"/>
+      <c r="M28" s="298"/>
+      <c r="N28" s="299"/>
       <c r="O28" s="56">
         <f t="shared" ref="O28:O35" si="6">SUM(I28:N28)</f>
         <v>0</v>
@@ -6921,12 +6827,12 @@
       <c r="H32" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="303"/>
+      <c r="I32" s="290"/>
       <c r="J32" s="136"/>
       <c r="K32" s="136"/>
       <c r="L32" s="136"/>
       <c r="M32" s="136"/>
-      <c r="N32" s="304"/>
+      <c r="N32" s="291"/>
       <c r="O32" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6949,12 +6855,12 @@
       <c r="H33" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="305"/>
-      <c r="J33" s="238"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="238"/>
-      <c r="M33" s="238"/>
-      <c r="N33" s="306"/>
+      <c r="I33" s="292"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="237"/>
+      <c r="M33" s="237"/>
+      <c r="N33" s="293"/>
       <c r="O33" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6977,12 +6883,12 @@
       <c r="H34" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="305"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="238"/>
-      <c r="L34" s="238"/>
-      <c r="M34" s="238"/>
-      <c r="N34" s="306"/>
+      <c r="I34" s="292"/>
+      <c r="J34" s="237"/>
+      <c r="K34" s="237"/>
+      <c r="L34" s="237"/>
+      <c r="M34" s="237"/>
+      <c r="N34" s="293"/>
       <c r="O34" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7005,12 +6911,12 @@
       <c r="H35" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="307"/>
-      <c r="J35" s="308"/>
-      <c r="K35" s="308"/>
-      <c r="L35" s="308"/>
-      <c r="M35" s="308"/>
-      <c r="N35" s="309"/>
+      <c r="I35" s="294"/>
+      <c r="J35" s="295"/>
+      <c r="K35" s="295"/>
+      <c r="L35" s="295"/>
+      <c r="M35" s="295"/>
+      <c r="N35" s="296"/>
       <c r="O35" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7054,7 +6960,7 @@
       <c r="H37" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="264"/>
+      <c r="I37" s="263"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C38" s="92"/>
@@ -7906,7 +7812,7 @@
       <c r="C86" s="163">
         <v>130</v>
       </c>
-      <c r="D86" s="265">
+      <c r="D86" s="264">
         <v>0</v>
       </c>
       <c r="E86">
@@ -7921,7 +7827,7 @@
       <c r="C87" s="163">
         <v>720</v>
       </c>
-      <c r="D87" s="265">
+      <c r="D87" s="264">
         <v>0.6</v>
       </c>
       <c r="E87">
@@ -7936,7 +7842,7 @@
       <c r="C88" s="163">
         <v>1840</v>
       </c>
-      <c r="D88" s="265">
+      <c r="D88" s="264">
         <v>0.3</v>
       </c>
       <c r="E88">
@@ -7951,7 +7857,7 @@
       <c r="C89" s="163">
         <v>3520</v>
       </c>
-      <c r="D89" s="265">
+      <c r="D89" s="264">
         <v>0.1</v>
       </c>
       <c r="E89">
@@ -7966,7 +7872,7 @@
       <c r="C90" s="163">
         <v>6030</v>
       </c>
-      <c r="D90" s="265">
+      <c r="D90" s="264">
         <v>0</v>
       </c>
       <c r="E90">
@@ -8053,13 +7959,13 @@
         <f>Kayttajahyodyt!I75</f>
         <v>0</v>
       </c>
-      <c r="F7" s="233">
+      <c r="F7" s="232">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G7" s="234">
+      <c r="G7" s="233">
         <v>9.4E-2</v>
       </c>
-      <c r="H7" s="234">
+      <c r="H7" s="233">
         <v>0.36899999999999999</v>
       </c>
       <c r="I7" s="43"/>
@@ -8125,13 +8031,13 @@
         <f>Kayttajahyodyt!I82</f>
         <v>0</v>
       </c>
-      <c r="F12" s="233">
+      <c r="F12" s="232">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G12" s="234">
+      <c r="G12" s="233">
         <v>9.4E-2</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="233">
         <v>0.36899999999999999</v>
       </c>
       <c r="I12" s="43"/>
@@ -8383,28 +8289,28 @@
       <c r="B9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="214"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="213"/>
-      <c r="P9" s="213"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="213"/>
-      <c r="S9" s="213"/>
-      <c r="T9" s="213"/>
-      <c r="U9" s="213"/>
-      <c r="V9" s="213"/>
-      <c r="W9" s="214"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="213"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="212"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="212"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="212"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="213"/>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="216"/>
+      <c r="Z9" s="215"/>
       <c r="AA9" s="58">
         <f>Z9*X27/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8414,7 +8320,7 @@
       <c r="B10" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="210"/>
+      <c r="C10" s="209"/>
       <c r="D10" s="163"/>
       <c r="E10" s="163"/>
       <c r="F10" s="163"/>
@@ -8423,8 +8329,8 @@
       <c r="I10" s="163"/>
       <c r="J10" s="163"/>
       <c r="K10" s="163"/>
-      <c r="L10" s="202"/>
-      <c r="N10" s="210"/>
+      <c r="L10" s="201"/>
+      <c r="N10" s="209"/>
       <c r="O10" s="163"/>
       <c r="P10" s="163"/>
       <c r="Q10" s="163"/>
@@ -8433,9 +8339,9 @@
       <c r="T10" s="163"/>
       <c r="U10" s="163"/>
       <c r="V10" s="163"/>
-      <c r="W10" s="202"/>
+      <c r="W10" s="201"/>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="217"/>
+      <c r="Z10" s="216"/>
       <c r="AA10" s="58">
         <f>Z10*X28/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8445,7 +8351,7 @@
       <c r="B11" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="210"/>
+      <c r="C11" s="209"/>
       <c r="D11" s="163"/>
       <c r="E11" s="163"/>
       <c r="F11" s="163"/>
@@ -8454,8 +8360,8 @@
       <c r="I11" s="163"/>
       <c r="J11" s="163"/>
       <c r="K11" s="163"/>
-      <c r="L11" s="202"/>
-      <c r="N11" s="210"/>
+      <c r="L11" s="201"/>
+      <c r="N11" s="209"/>
       <c r="O11" s="163"/>
       <c r="P11" s="163"/>
       <c r="Q11" s="163"/>
@@ -8464,9 +8370,9 @@
       <c r="T11" s="163"/>
       <c r="U11" s="163"/>
       <c r="V11" s="163"/>
-      <c r="W11" s="202"/>
+      <c r="W11" s="201"/>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="217"/>
+      <c r="Z11" s="216"/>
       <c r="AA11" s="58">
         <f>Z11*X29/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8476,7 +8382,7 @@
       <c r="B12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="210"/>
+      <c r="C12" s="209"/>
       <c r="D12" s="163"/>
       <c r="E12" s="163"/>
       <c r="F12" s="163"/>
@@ -8485,8 +8391,8 @@
       <c r="I12" s="163"/>
       <c r="J12" s="163"/>
       <c r="K12" s="163"/>
-      <c r="L12" s="202"/>
-      <c r="N12" s="210"/>
+      <c r="L12" s="201"/>
+      <c r="N12" s="209"/>
       <c r="O12" s="163"/>
       <c r="P12" s="163"/>
       <c r="Q12" s="163"/>
@@ -8495,9 +8401,9 @@
       <c r="T12" s="163"/>
       <c r="U12" s="163"/>
       <c r="V12" s="163"/>
-      <c r="W12" s="202"/>
+      <c r="W12" s="201"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="217"/>
+      <c r="Z12" s="216"/>
       <c r="AA12" s="58">
         <f>Z12*X30/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8507,7 +8413,7 @@
       <c r="B13" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="210"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="163"/>
       <c r="E13" s="163"/>
       <c r="F13" s="163"/>
@@ -8516,8 +8422,8 @@
       <c r="I13" s="163"/>
       <c r="J13" s="163"/>
       <c r="K13" s="163"/>
-      <c r="L13" s="202"/>
-      <c r="N13" s="210"/>
+      <c r="L13" s="201"/>
+      <c r="N13" s="209"/>
       <c r="O13" s="163"/>
       <c r="P13" s="163"/>
       <c r="Q13" s="163"/>
@@ -8526,9 +8432,9 @@
       <c r="T13" s="163"/>
       <c r="U13" s="163"/>
       <c r="V13" s="163"/>
-      <c r="W13" s="202"/>
+      <c r="W13" s="201"/>
       <c r="Y13" s="13"/>
-      <c r="Z13" s="217"/>
+      <c r="Z13" s="216"/>
       <c r="AA13" s="58">
         <f>Z13*X31/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8538,7 +8444,7 @@
       <c r="B14" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="210"/>
+      <c r="C14" s="209"/>
       <c r="D14" s="163"/>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
@@ -8547,8 +8453,8 @@
       <c r="I14" s="163"/>
       <c r="J14" s="163"/>
       <c r="K14" s="163"/>
-      <c r="L14" s="202"/>
-      <c r="N14" s="210"/>
+      <c r="L14" s="201"/>
+      <c r="N14" s="209"/>
       <c r="O14" s="163"/>
       <c r="P14" s="163"/>
       <c r="Q14" s="163"/>
@@ -8557,9 +8463,9 @@
       <c r="T14" s="163"/>
       <c r="U14" s="163"/>
       <c r="V14" s="163"/>
-      <c r="W14" s="202"/>
+      <c r="W14" s="201"/>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="218"/>
+      <c r="Z14" s="217"/>
       <c r="AA14" s="13">
         <f>Z14*X32/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8569,7 +8475,7 @@
       <c r="B15" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="210"/>
+      <c r="C15" s="209"/>
       <c r="D15" s="163"/>
       <c r="E15" s="163"/>
       <c r="F15" s="163"/>
@@ -8578,8 +8484,8 @@
       <c r="I15" s="163"/>
       <c r="J15" s="163"/>
       <c r="K15" s="163"/>
-      <c r="L15" s="202"/>
-      <c r="N15" s="210"/>
+      <c r="L15" s="201"/>
+      <c r="N15" s="209"/>
       <c r="O15" s="163"/>
       <c r="P15" s="163"/>
       <c r="Q15" s="163"/>
@@ -8588,9 +8494,9 @@
       <c r="T15" s="163"/>
       <c r="U15" s="163"/>
       <c r="V15" s="163"/>
-      <c r="W15" s="202"/>
+      <c r="W15" s="201"/>
       <c r="Y15" s="13"/>
-      <c r="Z15" s="218"/>
+      <c r="Z15" s="217"/>
       <c r="AA15" s="13">
         <f>Z15*X33/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8600,7 +8506,7 @@
       <c r="B16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="210"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="163"/>
       <c r="E16" s="163"/>
       <c r="F16" s="163"/>
@@ -8609,8 +8515,8 @@
       <c r="I16" s="163"/>
       <c r="J16" s="163"/>
       <c r="K16" s="163"/>
-      <c r="L16" s="202"/>
-      <c r="N16" s="210"/>
+      <c r="L16" s="201"/>
+      <c r="N16" s="209"/>
       <c r="O16" s="163"/>
       <c r="P16" s="163"/>
       <c r="Q16" s="163"/>
@@ -8619,9 +8525,9 @@
       <c r="T16" s="163"/>
       <c r="U16" s="163"/>
       <c r="V16" s="163"/>
-      <c r="W16" s="202"/>
+      <c r="W16" s="201"/>
       <c r="Y16" s="13"/>
-      <c r="Z16" s="218"/>
+      <c r="Z16" s="217"/>
       <c r="AA16" s="13">
         <f>Z16*X34/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8631,7 +8537,7 @@
       <c r="B17" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="210"/>
+      <c r="C17" s="209"/>
       <c r="D17" s="163"/>
       <c r="E17" s="163"/>
       <c r="F17" s="163"/>
@@ -8640,8 +8546,8 @@
       <c r="I17" s="163"/>
       <c r="J17" s="163"/>
       <c r="K17" s="163"/>
-      <c r="L17" s="202"/>
-      <c r="N17" s="210"/>
+      <c r="L17" s="201"/>
+      <c r="N17" s="209"/>
       <c r="O17" s="163"/>
       <c r="P17" s="163"/>
       <c r="Q17" s="163"/>
@@ -8650,9 +8556,9 @@
       <c r="T17" s="163"/>
       <c r="U17" s="163"/>
       <c r="V17" s="163"/>
-      <c r="W17" s="202"/>
+      <c r="W17" s="201"/>
       <c r="Y17" s="13"/>
-      <c r="Z17" s="218"/>
+      <c r="Z17" s="217"/>
       <c r="AA17" s="13">
         <f>Z17*X35/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8662,7 +8568,7 @@
       <c r="B18" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="210"/>
+      <c r="C18" s="209"/>
       <c r="D18" s="163"/>
       <c r="E18" s="163"/>
       <c r="F18" s="163"/>
@@ -8671,8 +8577,8 @@
       <c r="I18" s="163"/>
       <c r="J18" s="163"/>
       <c r="K18" s="163"/>
-      <c r="L18" s="202"/>
-      <c r="N18" s="210"/>
+      <c r="L18" s="201"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="163"/>
       <c r="P18" s="163"/>
       <c r="Q18" s="163"/>
@@ -8681,9 +8587,9 @@
       <c r="T18" s="163"/>
       <c r="U18" s="163"/>
       <c r="V18" s="163"/>
-      <c r="W18" s="202"/>
+      <c r="W18" s="201"/>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="218"/>
+      <c r="Z18" s="217"/>
       <c r="AA18" s="13">
         <f>Z18*X36/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8693,7 +8599,7 @@
       <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="210"/>
+      <c r="C19" s="209"/>
       <c r="D19" s="163"/>
       <c r="E19" s="163"/>
       <c r="F19" s="163"/>
@@ -8702,8 +8608,8 @@
       <c r="I19" s="163"/>
       <c r="J19" s="163"/>
       <c r="K19" s="163"/>
-      <c r="L19" s="202"/>
-      <c r="N19" s="210"/>
+      <c r="L19" s="201"/>
+      <c r="N19" s="209"/>
       <c r="O19" s="163"/>
       <c r="P19" s="163"/>
       <c r="Q19" s="163"/>
@@ -8712,9 +8618,9 @@
       <c r="T19" s="163"/>
       <c r="U19" s="163"/>
       <c r="V19" s="163"/>
-      <c r="W19" s="202"/>
+      <c r="W19" s="201"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="218"/>
+      <c r="Z19" s="217"/>
       <c r="AA19" s="13">
         <f>Z19*X37/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8724,7 +8630,7 @@
       <c r="B20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="210"/>
+      <c r="C20" s="209"/>
       <c r="D20" s="163"/>
       <c r="E20" s="163"/>
       <c r="F20" s="163"/>
@@ -8733,8 +8639,8 @@
       <c r="I20" s="163"/>
       <c r="J20" s="163"/>
       <c r="K20" s="163"/>
-      <c r="L20" s="202"/>
-      <c r="N20" s="210"/>
+      <c r="L20" s="201"/>
+      <c r="N20" s="209"/>
       <c r="O20" s="163"/>
       <c r="P20" s="163"/>
       <c r="Q20" s="163"/>
@@ -8743,9 +8649,9 @@
       <c r="T20" s="163"/>
       <c r="U20" s="163"/>
       <c r="V20" s="163"/>
-      <c r="W20" s="202"/>
+      <c r="W20" s="201"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="218"/>
+      <c r="Z20" s="217"/>
       <c r="AA20" s="13">
         <f>Z20*X38/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8755,7 +8661,7 @@
       <c r="B21" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="210"/>
+      <c r="C21" s="209"/>
       <c r="D21" s="163"/>
       <c r="E21" s="163"/>
       <c r="F21" s="163"/>
@@ -8764,8 +8670,8 @@
       <c r="I21" s="163"/>
       <c r="J21" s="163"/>
       <c r="K21" s="163"/>
-      <c r="L21" s="202"/>
-      <c r="N21" s="210"/>
+      <c r="L21" s="201"/>
+      <c r="N21" s="209"/>
       <c r="O21" s="163"/>
       <c r="P21" s="163"/>
       <c r="Q21" s="163"/>
@@ -8774,9 +8680,9 @@
       <c r="T21" s="163"/>
       <c r="U21" s="163"/>
       <c r="V21" s="163"/>
-      <c r="W21" s="202"/>
+      <c r="W21" s="201"/>
       <c r="Y21" s="13"/>
-      <c r="Z21" s="218"/>
+      <c r="Z21" s="217"/>
       <c r="AA21" s="13">
         <f>Z21*X39/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8786,28 +8692,28 @@
       <c r="B22" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="302"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="200"/>
-      <c r="N22" s="302"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="198"/>
-      <c r="Q22" s="198"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198"/>
-      <c r="U22" s="198"/>
-      <c r="V22" s="198"/>
-      <c r="W22" s="200"/>
+      <c r="C22" s="289"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="199"/>
+      <c r="N22" s="289"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="197"/>
+      <c r="R22" s="197"/>
+      <c r="S22" s="197"/>
+      <c r="T22" s="197"/>
+      <c r="U22" s="197"/>
+      <c r="V22" s="197"/>
+      <c r="W22" s="199"/>
       <c r="Y22" s="13"/>
-      <c r="Z22" s="219"/>
+      <c r="Z22" s="218"/>
       <c r="AA22" s="13">
         <f>Z22*X40/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
         <v>0</v>
@@ -8996,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="13">
-        <f>SUM(C27:W27)</f>
+        <f t="shared" ref="X27:X40" si="4">SUM(C27:W27)</f>
         <v>0</v>
       </c>
     </row>
@@ -9085,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="13">
-        <f>SUM(C28:W28)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9174,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="13">
-        <f>SUM(C29:W29)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9263,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="13">
-        <f>SUM(C30:W30)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9352,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="13">
-        <f>SUM(C31:W31)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9441,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="13">
-        <f>SUM(C32:W32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9530,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="13">
-        <f>SUM(C33:W33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9619,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="13">
-        <f>SUM(C34:W34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9708,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="13">
-        <f>SUM(C35:W35)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9797,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="13">
-        <f>SUM(C36:W36)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9886,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="13">
-        <f>SUM(C37:W37)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9975,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="13">
-        <f>SUM(C38:W38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10064,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="13">
-        <f>SUM(C39:W39)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10153,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="13">
-        <f>SUM(C40:W40)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10162,83 +10068,83 @@
         <v>8</v>
       </c>
       <c r="C41" s="13">
-        <f t="shared" ref="C41:L41" si="4">SUM(C27:C40)</f>
+        <f t="shared" ref="C41:L41" si="5">SUM(C27:C40)</f>
         <v>0</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" ref="N41:W41" si="5">SUM(N27:N40)</f>
+        <f t="shared" ref="N41:W41" si="6">SUM(N27:N40)</f>
         <v>0</v>
       </c>
       <c r="O41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10917,7 +10823,7 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="197">
+      <c r="B8" s="196">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8">
@@ -11022,7 +10928,7 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="197">
+      <c r="B9" s="196">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9">
@@ -11232,7 +11138,7 @@
       <c r="A11" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="209">
+      <c r="B11" s="208">
         <v>300</v>
       </c>
       <c r="D11">
@@ -15317,16 +15223,16 @@
       <c r="B2" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="205" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="205" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="203" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="62" t="s">
@@ -15340,25 +15246,25 @@
       <c r="A3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="210">
         <v>7.92</v>
       </c>
-      <c r="C3" s="212">
+      <c r="C3" s="211">
         <v>5.37</v>
       </c>
-      <c r="D3" s="212">
+      <c r="D3" s="211">
         <v>24.6</v>
       </c>
-      <c r="E3" s="213">
+      <c r="E3" s="212">
         <v>35.909999999999997</v>
       </c>
-      <c r="F3" s="214">
+      <c r="F3" s="213">
         <v>40.22</v>
       </c>
-      <c r="H3" s="207">
+      <c r="H3" s="206">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I3" s="208">
+      <c r="I3" s="207">
         <v>1.6</v>
       </c>
     </row>
@@ -15366,36 +15272,36 @@
       <c r="A4" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="210">
+      <c r="B4" s="209">
         <v>6.28</v>
       </c>
-      <c r="C4" s="201">
+      <c r="C4" s="200">
         <v>4.83</v>
       </c>
-      <c r="D4" s="205">
+      <c r="D4" s="204">
         <v>20.88</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="202"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="201"/>
     </row>
     <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="215">
+      <c r="B5" s="214">
         <f>(13.67+12.31+11.37+10.95)/4</f>
         <v>12.074999999999999</v>
       </c>
-      <c r="C5" s="199">
+      <c r="C5" s="198">
         <f>B5</f>
         <v>12.074999999999999</v>
       </c>
-      <c r="D5" s="199">
+      <c r="D5" s="198">
         <f>B5</f>
         <v>12.074999999999999</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="200"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
@@ -15404,26 +15310,26 @@
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="187"/>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="187"/>
-      <c r="AF7" s="187"/>
-      <c r="AG7" s="187"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="186"/>
+      <c r="Z7" s="186"/>
+      <c r="AA7" s="186"/>
+      <c r="AB7" s="186"/>
+      <c r="AC7" s="186"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="186"/>
+      <c r="AG7" s="186"/>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="87">
@@ -15460,26 +15366,26 @@
       <c r="M8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="189"/>
-      <c r="T8" s="187"/>
-      <c r="U8" s="187"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="187"/>
-      <c r="Z8" s="187"/>
-      <c r="AA8" s="187"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="190"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="187"/>
-      <c r="AF8" s="187"/>
-      <c r="AG8" s="187"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="189"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="186"/>
+      <c r="AA8" s="186"/>
+      <c r="AB8" s="189"/>
+      <c r="AC8" s="189"/>
+      <c r="AD8" s="189"/>
+      <c r="AE8" s="186"/>
+      <c r="AF8" s="186"/>
+      <c r="AG8" s="186"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" s="56" t="s">
@@ -15521,30 +15427,30 @@
         <f>-pa!F9*D3</f>
         <v>0</v>
       </c>
-      <c r="M9" s="220">
+      <c r="M9" s="219">
         <f>SUM(C9:L9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="189"/>
-      <c r="S9" s="189"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="191"/>
-      <c r="AF9" s="191"/>
-      <c r="AG9" s="187"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="190"/>
+      <c r="AE9" s="190"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="186"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
@@ -15586,30 +15492,30 @@
         <f>-pa!F10*D3</f>
         <v>0</v>
       </c>
-      <c r="M10" s="221">
+      <c r="M10" s="220">
         <f>SUM(C10:L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="189"/>
-      <c r="S10" s="189"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="187"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="188"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="186"/>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="57" t="s">
@@ -15651,52 +15557,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="222">
+      <c r="M11" s="221">
         <f>SUM(C11:L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="191"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="191"/>
-      <c r="T11" s="191"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="191"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
-      <c r="AD11" s="191"/>
-      <c r="AE11" s="191"/>
-      <c r="AF11" s="191"/>
-      <c r="AG11" s="187"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="186"/>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="187"/>
-      <c r="AF12" s="187"/>
-      <c r="AG12" s="187"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="186"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="186"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="186"/>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="87">
@@ -15733,26 +15639,26 @@
       <c r="M13" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="189"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="187"/>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="190"/>
-      <c r="AE13" s="187"/>
-      <c r="AF13" s="187"/>
-      <c r="AG13" s="187"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="189"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="186"/>
+      <c r="Z13" s="186"/>
+      <c r="AA13" s="186"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="186"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="186"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="56" t="s">
@@ -15794,30 +15700,30 @@
         <f>-pa!F14*D3</f>
         <v>0</v>
       </c>
-      <c r="M14" s="220">
+      <c r="M14" s="219">
         <f>SUM(C14:L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="189"/>
-      <c r="S14" s="189"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="191"/>
-      <c r="AD14" s="191"/>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="191"/>
-      <c r="AG14" s="187"/>
+      <c r="N14" s="186"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="190"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
+      <c r="Z14" s="190"/>
+      <c r="AA14" s="186"/>
+      <c r="AB14" s="190"/>
+      <c r="AC14" s="190"/>
+      <c r="AD14" s="190"/>
+      <c r="AE14" s="190"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="186"/>
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
@@ -15859,30 +15765,30 @@
         <f>-pa!F15*D3</f>
         <v>0</v>
       </c>
-      <c r="M15" s="221">
+      <c r="M15" s="220">
         <f>SUM(C15:L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="191"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="191"/>
-      <c r="AG15" s="187"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="190"/>
+      <c r="W15" s="190"/>
+      <c r="X15" s="190"/>
+      <c r="Y15" s="190"/>
+      <c r="Z15" s="190"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="190"/>
+      <c r="AC15" s="190"/>
+      <c r="AD15" s="190"/>
+      <c r="AE15" s="190"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="186"/>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="57" t="s">
@@ -15920,56 +15826,56 @@
         <f t="shared" ref="J16" si="3">SUM(J14:J15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="183">
+      <c r="K16" s="182">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="222">
+      <c r="M16" s="221">
         <f>SUM(C16:L16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="191"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="187"/>
-      <c r="AB16" s="191"/>
-      <c r="AC16" s="191"/>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="191"/>
-      <c r="AF16" s="191"/>
-      <c r="AG16" s="187"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="190"/>
+      <c r="S16" s="190"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="190"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="190"/>
+      <c r="Z16" s="190"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="190"/>
+      <c r="AC16" s="190"/>
+      <c r="AD16" s="190"/>
+      <c r="AE16" s="190"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="186"/>
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N17" s="187"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="187"/>
-      <c r="Q17" s="187"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="187"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187"/>
-      <c r="AE17" s="187"/>
-      <c r="AF17" s="187"/>
-      <c r="AG17" s="187"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="186"/>
+      <c r="S17" s="186"/>
+      <c r="T17" s="186"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="186"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="186"/>
+      <c r="AA17" s="186"/>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="186"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="186"/>
     </row>
     <row r="18" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="134" t="s">
@@ -15983,52 +15889,52 @@
       <c r="I18" s="92"/>
       <c r="J18" s="92"/>
       <c r="K18" s="92"/>
-      <c r="M18" s="223">
+      <c r="M18" s="222">
         <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B19*Kayttajahyodyt!M11+Diskonttaus!B20*Kayttajahyodyt!M16,Diskonttaus!B19*Kayttajahyodyt!M11)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="187"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="187"/>
-      <c r="V18" s="187"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
-      <c r="Y18" s="187"/>
-      <c r="Z18" s="187"/>
-      <c r="AA18" s="187"/>
-      <c r="AB18" s="187"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="187"/>
-      <c r="AE18" s="187"/>
-      <c r="AF18" s="187"/>
-      <c r="AG18" s="187"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="186"/>
+      <c r="V18" s="186"/>
+      <c r="W18" s="186"/>
+      <c r="X18" s="186"/>
+      <c r="Y18" s="186"/>
+      <c r="Z18" s="186"/>
+      <c r="AA18" s="186"/>
+      <c r="AB18" s="186"/>
+      <c r="AC18" s="186"/>
+      <c r="AD18" s="186"/>
+      <c r="AE18" s="186"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="186"/>
     </row>
     <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="187"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="187"/>
-      <c r="AD19" s="187"/>
-      <c r="AE19" s="187"/>
-      <c r="AF19" s="187"/>
-      <c r="AG19" s="187"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="186"/>
+      <c r="AA19" s="186"/>
+      <c r="AB19" s="186"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="186"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="186"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
@@ -16041,26 +15947,26 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="187"/>
-      <c r="Q20" s="187"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="187"/>
-      <c r="Z20" s="187"/>
-      <c r="AA20" s="187"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="187"/>
-      <c r="AD20" s="187"/>
-      <c r="AE20" s="187"/>
-      <c r="AF20" s="187"/>
-      <c r="AG20" s="187"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="186"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="186"/>
+      <c r="Z20" s="186"/>
+      <c r="AA20" s="186"/>
+      <c r="AB20" s="186"/>
+      <c r="AC20" s="186"/>
+      <c r="AD20" s="186"/>
+      <c r="AE20" s="186"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="186"/>
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="87">
@@ -16073,9 +15979,9 @@
       <c r="D21" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
       <c r="I21" s="168" t="s">
         <v>65</v>
       </c>
@@ -16088,26 +15994,26 @@
       <c r="M21" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="187"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="187"/>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="187"/>
-      <c r="AD21" s="187"/>
-      <c r="AE21" s="187"/>
-      <c r="AF21" s="187"/>
-      <c r="AG21" s="187"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="186"/>
+      <c r="V21" s="189"/>
+      <c r="W21" s="189"/>
+      <c r="X21" s="189"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="186"/>
+      <c r="AA21" s="186"/>
+      <c r="AB21" s="186"/>
+      <c r="AC21" s="186"/>
+      <c r="AD21" s="186"/>
+      <c r="AE21" s="186"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="186"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
@@ -16122,10 +16028,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="92"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="225">
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="224">
         <f>-E64*ka!F22</f>
         <v>0</v>
       </c>
@@ -16137,30 +16043,30 @@
         <f>-E62*pa!F22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="220">
+      <c r="M22" s="219">
         <f>SUM(C22:L22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="191"/>
-      <c r="S22" s="191"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="187"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="191"/>
-      <c r="X22" s="191"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="191"/>
-      <c r="AA22" s="187"/>
-      <c r="AB22" s="187"/>
-      <c r="AC22" s="187"/>
-      <c r="AD22" s="187"/>
-      <c r="AE22" s="187"/>
-      <c r="AF22" s="187"/>
-      <c r="AG22" s="187"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="186"/>
+      <c r="V22" s="190"/>
+      <c r="W22" s="190"/>
+      <c r="X22" s="190"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="186"/>
+      <c r="AB22" s="186"/>
+      <c r="AC22" s="186"/>
+      <c r="AD22" s="186"/>
+      <c r="AE22" s="186"/>
+      <c r="AF22" s="186"/>
+      <c r="AG22" s="186"/>
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
@@ -16175,10 +16081,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="92"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="185">
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="184">
         <f>-E64*ka!F23</f>
         <v>0</v>
       </c>
@@ -16190,30 +16096,30 @@
         <f>-E62*pa!F23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="221">
+      <c r="M23" s="220">
         <f>SUM(C23:L23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191"/>
-      <c r="T23" s="191"/>
-      <c r="U23" s="187"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="187"/>
-      <c r="AB23" s="187"/>
-      <c r="AC23" s="187"/>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="187"/>
-      <c r="AF23" s="187"/>
-      <c r="AG23" s="187"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="186"/>
+      <c r="V23" s="190"/>
+      <c r="W23" s="190"/>
+      <c r="X23" s="190"/>
+      <c r="Y23" s="190"/>
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="186"/>
+      <c r="AB23" s="186"/>
+      <c r="AC23" s="186"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="186"/>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="186"/>
     </row>
     <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="53" t="s">
@@ -16223,15 +16129,15 @@
         <f>SUM(C22:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="183">
+      <c r="D24" s="182">
         <f>SUM(D22:D23)</f>
         <v>0</v>
       </c>
       <c r="E24" s="92"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="226">
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="225">
         <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
@@ -16239,59 +16145,59 @@
         <f>SUM(J22:J23)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="183">
+      <c r="K24" s="182">
         <f>SUM(K22:K23)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="222">
+      <c r="M24" s="221">
         <f>SUM(C24:L24)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="187"/>
-      <c r="O24" s="187"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
-      <c r="U24" s="187"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="191"/>
-      <c r="Z24" s="191"/>
-      <c r="AA24" s="187"/>
-      <c r="AB24" s="187"/>
-      <c r="AC24" s="187"/>
-      <c r="AD24" s="187"/>
-      <c r="AE24" s="187"/>
-      <c r="AF24" s="187"/>
-      <c r="AG24" s="187"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="190"/>
+      <c r="Q24" s="190"/>
+      <c r="R24" s="190"/>
+      <c r="S24" s="190"/>
+      <c r="T24" s="190"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="190"/>
+      <c r="W24" s="190"/>
+      <c r="X24" s="190"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="186"/>
+      <c r="AB24" s="186"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="186"/>
+      <c r="AF24" s="186"/>
+      <c r="AG24" s="186"/>
     </row>
     <row r="25" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="187"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="187"/>
-      <c r="V25" s="187"/>
-      <c r="W25" s="187"/>
-      <c r="X25" s="187"/>
-      <c r="Y25" s="187"/>
-      <c r="Z25" s="187"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
-      <c r="AD25" s="187"/>
-      <c r="AE25" s="187"/>
-      <c r="AF25" s="187"/>
-      <c r="AG25" s="187"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="186"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="186"/>
+      <c r="AA25" s="186"/>
+      <c r="AB25" s="186"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="186"/>
+      <c r="AE25" s="186"/>
+      <c r="AF25" s="186"/>
+      <c r="AG25" s="186"/>
     </row>
     <row r="26" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="87">
@@ -16304,9 +16210,9 @@
       <c r="D26" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="196"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="195"/>
       <c r="I26" s="168" t="s">
         <v>65</v>
       </c>
@@ -16319,26 +16225,26 @@
       <c r="M26" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="190"/>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="190"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="190"/>
-      <c r="W26" s="190"/>
-      <c r="X26" s="190"/>
-      <c r="Y26" s="187"/>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
-      <c r="AB26" s="187"/>
-      <c r="AC26" s="187"/>
-      <c r="AD26" s="187"/>
-      <c r="AE26" s="187"/>
-      <c r="AF26" s="187"/>
-      <c r="AG26" s="187"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="189"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186"/>
+      <c r="U26" s="186"/>
+      <c r="V26" s="189"/>
+      <c r="W26" s="189"/>
+      <c r="X26" s="189"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="186"/>
+      <c r="AA26" s="186"/>
+      <c r="AB26" s="186"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="186"/>
+      <c r="AF26" s="186"/>
+      <c r="AG26" s="186"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B27" s="52" t="s">
@@ -16352,10 +16258,10 @@
         <f>-E61*ha_muu!F27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="195"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="225">
+      <c r="F27" s="194"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="224">
         <f>-E64*ka!F27</f>
         <v>0</v>
       </c>
@@ -16367,30 +16273,30 @@
         <f>-E62*pa!F27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="220">
+      <c r="M27" s="219">
         <f>SUM(C27:L27)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="191"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="191"/>
-      <c r="T27" s="191"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="187"/>
-      <c r="AD27" s="187"/>
-      <c r="AE27" s="187"/>
-      <c r="AF27" s="187"/>
-      <c r="AG27" s="187"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="190"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="186"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="186"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="38" t="s">
@@ -16404,10 +16310,10 @@
         <f>-E61*ha_muu!F28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="195"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="185">
+      <c r="F28" s="194"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="184">
         <f>-E64*ka!F28</f>
         <v>0</v>
       </c>
@@ -16419,30 +16325,30 @@
         <f>-E62*pa!F28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="221">
+      <c r="M28" s="220">
         <f>SUM(C28:L28)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="187"/>
-      <c r="O28" s="187"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="191"/>
-      <c r="R28" s="191"/>
-      <c r="S28" s="191"/>
-      <c r="T28" s="191"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="191"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="187"/>
-      <c r="AF28" s="187"/>
-      <c r="AG28" s="187"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="190"/>
+      <c r="T28" s="190"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="190"/>
+      <c r="W28" s="190"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="186"/>
+      <c r="AB28" s="186"/>
+      <c r="AC28" s="186"/>
+      <c r="AD28" s="186"/>
+      <c r="AE28" s="186"/>
+      <c r="AF28" s="186"/>
+      <c r="AG28" s="186"/>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="53" t="s">
@@ -16452,14 +16358,14 @@
         <f>SUM(C27:C28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="183">
+      <c r="D29" s="182">
         <f>SUM(D27:D28)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="195"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="226">
+      <c r="F29" s="194"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="225">
         <f>SUM(I27:I28)</f>
         <v>0</v>
       </c>
@@ -16467,131 +16373,131 @@
         <f>SUM(J27:J28)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="183">
+      <c r="K29" s="182">
         <f>SUM(K27:K28)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="222">
+      <c r="M29" s="221">
         <f>SUM(C29:L29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="191"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="191"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="187"/>
-      <c r="AC29" s="187"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="187"/>
-      <c r="AG29" s="187"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="190"/>
+      <c r="R29" s="190"/>
+      <c r="S29" s="190"/>
+      <c r="T29" s="190"/>
+      <c r="U29" s="186"/>
+      <c r="V29" s="190"/>
+      <c r="W29" s="190"/>
+      <c r="X29" s="190"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="186"/>
+      <c r="AB29" s="186"/>
+      <c r="AC29" s="186"/>
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="186"/>
+      <c r="AF29" s="186"/>
+      <c r="AG29" s="186"/>
     </row>
     <row r="30" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N30" s="187"/>
-      <c r="O30" s="187"/>
-      <c r="P30" s="187"/>
-      <c r="Q30" s="187"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="187"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="187"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="187"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
-      <c r="AB30" s="187"/>
-      <c r="AC30" s="187"/>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="186"/>
+      <c r="AB30" s="186"/>
+      <c r="AC30" s="186"/>
+      <c r="AD30" s="186"/>
+      <c r="AE30" s="186"/>
+      <c r="AF30" s="186"/>
+      <c r="AG30" s="186"/>
     </row>
     <row r="31" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="224">
+      <c r="M31" s="223">
         <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!M24+Diskonttaus!B27*Kayttajahyodyt!M29,Diskonttaus!B26*Kayttajahyodyt!M24)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="187"/>
-      <c r="Q31" s="187"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
-      <c r="AB31" s="187"/>
-      <c r="AC31" s="187"/>
-      <c r="AD31" s="187"/>
-      <c r="AE31" s="187"/>
-      <c r="AF31" s="187"/>
-      <c r="AG31" s="187"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="186"/>
+      <c r="Y31" s="186"/>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="186"/>
+      <c r="AB31" s="186"/>
+      <c r="AC31" s="186"/>
+      <c r="AD31" s="186"/>
+      <c r="AE31" s="186"/>
+      <c r="AF31" s="186"/>
+      <c r="AG31" s="186"/>
     </row>
     <row r="32" spans="1:33" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="192"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="192"/>
-      <c r="R32" s="192"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="192"/>
-      <c r="U32" s="192"/>
-      <c r="V32" s="192"/>
-      <c r="W32" s="192"/>
-      <c r="X32" s="192"/>
-      <c r="Y32" s="192"/>
-      <c r="Z32" s="192"/>
-      <c r="AA32" s="192"/>
-      <c r="AB32" s="192"/>
-      <c r="AC32" s="192"/>
-      <c r="AD32" s="192"/>
-      <c r="AE32" s="192"/>
-      <c r="AF32" s="192"/>
-      <c r="AG32" s="192"/>
-    </row>
-    <row r="33" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="187"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="187"/>
-      <c r="W33" s="187"/>
-      <c r="X33" s="187"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="187"/>
-      <c r="AB33" s="187"/>
-      <c r="AC33" s="187"/>
-      <c r="AD33" s="187"/>
-      <c r="AE33" s="187"/>
-      <c r="AF33" s="187"/>
-      <c r="AG33" s="187"/>
-    </row>
-    <row r="34" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="191"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="191"/>
+      <c r="AF32" s="191"/>
+      <c r="AG32" s="191"/>
+    </row>
+    <row r="33" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="186"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="186"/>
+      <c r="W33" s="186"/>
+      <c r="X33" s="186"/>
+      <c r="Y33" s="186"/>
+      <c r="Z33" s="186"/>
+      <c r="AA33" s="186"/>
+      <c r="AB33" s="186"/>
+      <c r="AC33" s="186"/>
+      <c r="AD33" s="186"/>
+      <c r="AE33" s="186"/>
+      <c r="AF33" s="186"/>
+      <c r="AG33" s="186"/>
+    </row>
+    <row r="34" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -16604,28 +16510,28 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="M34"/>
-      <c r="N34" s="187"/>
-      <c r="O34" s="187"/>
-      <c r="P34" s="187"/>
-      <c r="Q34" s="187"/>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="187"/>
-      <c r="U34" s="187"/>
-      <c r="V34" s="187"/>
-      <c r="W34" s="187"/>
-      <c r="X34" s="187"/>
-      <c r="Y34" s="187"/>
-      <c r="Z34" s="187"/>
-      <c r="AA34" s="187"/>
-      <c r="AB34" s="187"/>
-      <c r="AC34" s="187"/>
-      <c r="AD34" s="187"/>
-      <c r="AE34" s="187"/>
-      <c r="AF34" s="187"/>
-      <c r="AG34" s="187"/>
-    </row>
-    <row r="35" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="186"/>
+      <c r="T34" s="186"/>
+      <c r="U34" s="186"/>
+      <c r="V34" s="186"/>
+      <c r="W34" s="186"/>
+      <c r="X34" s="186"/>
+      <c r="Y34" s="186"/>
+      <c r="Z34" s="186"/>
+      <c r="AA34" s="186"/>
+      <c r="AB34" s="186"/>
+      <c r="AC34" s="186"/>
+      <c r="AD34" s="186"/>
+      <c r="AE34" s="186"/>
+      <c r="AF34" s="186"/>
+      <c r="AG34" s="186"/>
+    </row>
+    <row r="35" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -16640,28 +16546,28 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="M35"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="187"/>
-      <c r="P35" s="187"/>
-      <c r="Q35" s="187"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="187"/>
-      <c r="U35" s="187"/>
-      <c r="V35" s="187"/>
-      <c r="W35" s="187"/>
-      <c r="X35" s="187"/>
-      <c r="Y35" s="187"/>
-      <c r="Z35" s="187"/>
-      <c r="AA35" s="187"/>
-      <c r="AB35" s="187"/>
-      <c r="AC35" s="187"/>
-      <c r="AD35" s="187"/>
-      <c r="AE35" s="187"/>
-      <c r="AF35" s="187"/>
-      <c r="AG35" s="187"/>
-    </row>
-    <row r="36" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="186"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="186"/>
+      <c r="U35" s="186"/>
+      <c r="V35" s="186"/>
+      <c r="W35" s="186"/>
+      <c r="X35" s="186"/>
+      <c r="Y35" s="186"/>
+      <c r="Z35" s="186"/>
+      <c r="AA35" s="186"/>
+      <c r="AB35" s="186"/>
+      <c r="AC35" s="186"/>
+      <c r="AD35" s="186"/>
+      <c r="AE35" s="186"/>
+      <c r="AF35" s="186"/>
+      <c r="AG35" s="186"/>
+    </row>
+    <row r="36" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36" s="87">
         <f>Diskonttaus!B4</f>
@@ -16680,7 +16586,7 @@
         <v>161</v>
       </c>
       <c r="G36"/>
-      <c r="H36" s="194"/>
+      <c r="H36" s="193"/>
       <c r="I36" s="168" t="s">
         <v>65</v>
       </c>
@@ -16693,33 +16599,33 @@
       <c r="M36" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="187"/>
-      <c r="O36" s="187"/>
-      <c r="P36" s="190"/>
-      <c r="Q36" s="190"/>
-      <c r="R36" s="190"/>
-      <c r="S36" s="187"/>
-      <c r="T36" s="187"/>
-      <c r="U36" s="187"/>
-      <c r="V36" s="190"/>
-      <c r="W36" s="190"/>
-      <c r="X36" s="190"/>
-      <c r="Y36" s="187"/>
-      <c r="Z36" s="187"/>
-      <c r="AA36" s="187"/>
-      <c r="AB36" s="190"/>
-      <c r="AC36" s="190"/>
-      <c r="AD36" s="190"/>
-      <c r="AE36" s="187"/>
-      <c r="AF36" s="187"/>
-      <c r="AG36" s="187"/>
-    </row>
-    <row r="37" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="186"/>
+      <c r="O36" s="186"/>
+      <c r="P36" s="189"/>
+      <c r="Q36" s="189"/>
+      <c r="R36" s="189"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="186"/>
+      <c r="U36" s="186"/>
+      <c r="V36" s="189"/>
+      <c r="W36" s="189"/>
+      <c r="X36" s="189"/>
+      <c r="Y36" s="186"/>
+      <c r="Z36" s="186"/>
+      <c r="AA36" s="186"/>
+      <c r="AB36" s="189"/>
+      <c r="AC36" s="189"/>
+      <c r="AD36" s="189"/>
+      <c r="AE36" s="186"/>
+      <c r="AF36" s="186"/>
+      <c r="AG36" s="186"/>
+    </row>
+    <row r="37" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="185">
+      <c r="C37" s="184">
         <f>-ha_tyo!F37</f>
         <v>0</v>
       </c>
@@ -16736,8 +16642,8 @@
         <v>0</v>
       </c>
       <c r="G37"/>
-      <c r="H37" s="195"/>
-      <c r="I37" s="225">
+      <c r="H37" s="194"/>
+      <c r="I37" s="224">
         <f>-ka!F37</f>
         <v>0</v>
       </c>
@@ -16745,41 +16651,41 @@
         <f>-yhd!F37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="193">
+      <c r="K37" s="192">
         <f>-pa!F37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="220">
+      <c r="M37" s="219">
         <f>SUM(C37:L37)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="187"/>
-      <c r="O37" s="187"/>
-      <c r="P37" s="191"/>
-      <c r="Q37" s="191"/>
-      <c r="R37" s="191"/>
-      <c r="S37" s="191"/>
-      <c r="T37" s="191"/>
-      <c r="U37" s="187"/>
-      <c r="V37" s="191"/>
-      <c r="W37" s="191"/>
-      <c r="X37" s="191"/>
-      <c r="Y37" s="191"/>
-      <c r="Z37" s="191"/>
-      <c r="AA37" s="187"/>
-      <c r="AB37" s="191"/>
-      <c r="AC37" s="191"/>
-      <c r="AD37" s="191"/>
-      <c r="AE37" s="191"/>
-      <c r="AF37" s="191"/>
-      <c r="AG37" s="187"/>
-    </row>
-    <row r="38" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="186"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="190"/>
+      <c r="Q37" s="190"/>
+      <c r="R37" s="190"/>
+      <c r="S37" s="190"/>
+      <c r="T37" s="190"/>
+      <c r="U37" s="186"/>
+      <c r="V37" s="190"/>
+      <c r="W37" s="190"/>
+      <c r="X37" s="190"/>
+      <c r="Y37" s="190"/>
+      <c r="Z37" s="190"/>
+      <c r="AA37" s="186"/>
+      <c r="AB37" s="190"/>
+      <c r="AC37" s="190"/>
+      <c r="AD37" s="190"/>
+      <c r="AE37" s="190"/>
+      <c r="AF37" s="190"/>
+      <c r="AG37" s="186"/>
+    </row>
+    <row r="38" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="186">
+      <c r="C38" s="185">
         <f>-ha_tyo!F38</f>
         <v>0</v>
       </c>
@@ -16796,8 +16702,8 @@
         <v>0</v>
       </c>
       <c r="G38"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="186">
+      <c r="H38" s="194"/>
+      <c r="I38" s="185">
         <f>-ka!F38</f>
         <v>0</v>
       </c>
@@ -16809,37 +16715,37 @@
         <f>-pa!F38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="221">
+      <c r="M38" s="220">
         <f>SUM(C38:L38)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="187"/>
-      <c r="O38" s="187"/>
-      <c r="P38" s="191"/>
-      <c r="Q38" s="191"/>
-      <c r="R38" s="191"/>
-      <c r="S38" s="191"/>
-      <c r="T38" s="191"/>
-      <c r="U38" s="187"/>
-      <c r="V38" s="191"/>
-      <c r="W38" s="191"/>
-      <c r="X38" s="191"/>
-      <c r="Y38" s="191"/>
-      <c r="Z38" s="191"/>
-      <c r="AA38" s="187"/>
-      <c r="AB38" s="191"/>
-      <c r="AC38" s="191"/>
-      <c r="AD38" s="191"/>
-      <c r="AE38" s="191"/>
-      <c r="AF38" s="191"/>
-      <c r="AG38" s="187"/>
-    </row>
-    <row r="39" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="186"/>
+      <c r="O38" s="186"/>
+      <c r="P38" s="190"/>
+      <c r="Q38" s="190"/>
+      <c r="R38" s="190"/>
+      <c r="S38" s="190"/>
+      <c r="T38" s="190"/>
+      <c r="U38" s="186"/>
+      <c r="V38" s="190"/>
+      <c r="W38" s="190"/>
+      <c r="X38" s="190"/>
+      <c r="Y38" s="190"/>
+      <c r="Z38" s="190"/>
+      <c r="AA38" s="186"/>
+      <c r="AB38" s="190"/>
+      <c r="AC38" s="190"/>
+      <c r="AD38" s="190"/>
+      <c r="AE38" s="190"/>
+      <c r="AF38" s="190"/>
+      <c r="AG38" s="186"/>
+    </row>
+    <row r="39" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="226">
+      <c r="C39" s="225">
         <f>SUM(C37:C38)</f>
         <v>0</v>
       </c>
@@ -16856,8 +16762,8 @@
         <v>0</v>
       </c>
       <c r="G39"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="226">
+      <c r="H39" s="194"/>
+      <c r="I39" s="225">
         <f>SUM(I37:I38)</f>
         <v>0</v>
       </c>
@@ -16869,32 +16775,32 @@
         <f>SUM(K37:K38)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="222">
+      <c r="M39" s="221">
         <f>SUM(C39:L39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="187"/>
-      <c r="O39" s="187"/>
-      <c r="P39" s="191"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="191"/>
-      <c r="S39" s="191"/>
-      <c r="T39" s="191"/>
-      <c r="U39" s="187"/>
-      <c r="V39" s="191"/>
-      <c r="W39" s="191"/>
-      <c r="X39" s="191"/>
-      <c r="Y39" s="191"/>
-      <c r="Z39" s="191"/>
-      <c r="AA39" s="187"/>
-      <c r="AB39" s="191"/>
-      <c r="AC39" s="191"/>
-      <c r="AD39" s="191"/>
-      <c r="AE39" s="191"/>
-      <c r="AF39" s="191"/>
-      <c r="AG39" s="187"/>
-    </row>
-    <row r="40" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="186"/>
+      <c r="O39" s="186"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="190"/>
+      <c r="S39" s="190"/>
+      <c r="T39" s="190"/>
+      <c r="U39" s="186"/>
+      <c r="V39" s="190"/>
+      <c r="W39" s="190"/>
+      <c r="X39" s="190"/>
+      <c r="Y39" s="190"/>
+      <c r="Z39" s="190"/>
+      <c r="AA39" s="186"/>
+      <c r="AB39" s="190"/>
+      <c r="AC39" s="190"/>
+      <c r="AD39" s="190"/>
+      <c r="AE39" s="190"/>
+      <c r="AF39" s="190"/>
+      <c r="AG39" s="186"/>
+    </row>
+    <row r="40" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -16902,33 +16808,33 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" s="194"/>
+      <c r="H40" s="193"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="M40"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="187"/>
-      <c r="P40" s="187"/>
-      <c r="Q40" s="187"/>
-      <c r="R40" s="187"/>
-      <c r="S40" s="187"/>
-      <c r="T40" s="187"/>
-      <c r="U40" s="187"/>
-      <c r="V40" s="187"/>
-      <c r="W40" s="187"/>
-      <c r="X40" s="187"/>
-      <c r="Y40" s="187"/>
-      <c r="Z40" s="187"/>
-      <c r="AA40" s="187"/>
-      <c r="AB40" s="187"/>
-      <c r="AC40" s="187"/>
-      <c r="AD40" s="187"/>
-      <c r="AE40" s="187"/>
-      <c r="AF40" s="187"/>
-      <c r="AG40" s="187"/>
-    </row>
-    <row r="41" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="186"/>
+      <c r="O40" s="186"/>
+      <c r="P40" s="186"/>
+      <c r="Q40" s="186"/>
+      <c r="R40" s="186"/>
+      <c r="S40" s="186"/>
+      <c r="T40" s="186"/>
+      <c r="U40" s="186"/>
+      <c r="V40" s="186"/>
+      <c r="W40" s="186"/>
+      <c r="X40" s="186"/>
+      <c r="Y40" s="186"/>
+      <c r="Z40" s="186"/>
+      <c r="AA40" s="186"/>
+      <c r="AB40" s="186"/>
+      <c r="AC40" s="186"/>
+      <c r="AD40" s="186"/>
+      <c r="AE40" s="186"/>
+      <c r="AF40" s="186"/>
+      <c r="AG40" s="186"/>
+    </row>
+    <row r="41" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41" s="87">
         <f>Diskonttaus!B6</f>
@@ -16947,7 +16853,7 @@
         <v>161</v>
       </c>
       <c r="G41"/>
-      <c r="H41" s="194"/>
+      <c r="H41" s="193"/>
       <c r="I41" s="168" t="s">
         <v>65</v>
       </c>
@@ -16960,33 +16866,33 @@
       <c r="M41" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="190"/>
-      <c r="S41" s="187"/>
-      <c r="T41" s="187"/>
-      <c r="U41" s="187"/>
-      <c r="V41" s="190"/>
-      <c r="W41" s="190"/>
-      <c r="X41" s="190"/>
-      <c r="Y41" s="187"/>
-      <c r="Z41" s="187"/>
-      <c r="AA41" s="187"/>
-      <c r="AB41" s="190"/>
-      <c r="AC41" s="190"/>
-      <c r="AD41" s="190"/>
-      <c r="AE41" s="187"/>
-      <c r="AF41" s="187"/>
-      <c r="AG41" s="187"/>
-    </row>
-    <row r="42" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="186"/>
+      <c r="O41" s="186"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="189"/>
+      <c r="S41" s="186"/>
+      <c r="T41" s="186"/>
+      <c r="U41" s="186"/>
+      <c r="V41" s="189"/>
+      <c r="W41" s="189"/>
+      <c r="X41" s="189"/>
+      <c r="Y41" s="186"/>
+      <c r="Z41" s="186"/>
+      <c r="AA41" s="186"/>
+      <c r="AB41" s="189"/>
+      <c r="AC41" s="189"/>
+      <c r="AD41" s="189"/>
+      <c r="AE41" s="186"/>
+      <c r="AF41" s="186"/>
+      <c r="AG41" s="186"/>
+    </row>
+    <row r="42" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="185">
+      <c r="C42" s="184">
         <f>-ha_tyo!F42</f>
         <v>0</v>
       </c>
@@ -17003,8 +16909,8 @@
         <v>0</v>
       </c>
       <c r="G42"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="225">
+      <c r="H42" s="194"/>
+      <c r="I42" s="224">
         <f>-ka!F42</f>
         <v>0</v>
       </c>
@@ -17012,41 +16918,41 @@
         <f>-yhd!G42</f>
         <v>0</v>
       </c>
-      <c r="K42" s="193">
+      <c r="K42" s="192">
         <f>-pa!F42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="220">
+      <c r="M42" s="219">
         <f>SUM(C42:L42)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="187"/>
-      <c r="O42" s="187"/>
-      <c r="P42" s="191"/>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="191"/>
-      <c r="S42" s="191"/>
-      <c r="T42" s="191"/>
-      <c r="U42" s="187"/>
-      <c r="V42" s="191"/>
-      <c r="W42" s="191"/>
-      <c r="X42" s="191"/>
-      <c r="Y42" s="191"/>
-      <c r="Z42" s="191"/>
-      <c r="AA42" s="187"/>
-      <c r="AB42" s="191"/>
-      <c r="AC42" s="191"/>
-      <c r="AD42" s="191"/>
-      <c r="AE42" s="191"/>
-      <c r="AF42" s="191"/>
-      <c r="AG42" s="187"/>
-    </row>
-    <row r="43" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="186"/>
+      <c r="O42" s="186"/>
+      <c r="P42" s="190"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="190"/>
+      <c r="S42" s="190"/>
+      <c r="T42" s="190"/>
+      <c r="U42" s="186"/>
+      <c r="V42" s="190"/>
+      <c r="W42" s="190"/>
+      <c r="X42" s="190"/>
+      <c r="Y42" s="190"/>
+      <c r="Z42" s="190"/>
+      <c r="AA42" s="186"/>
+      <c r="AB42" s="190"/>
+      <c r="AC42" s="190"/>
+      <c r="AD42" s="190"/>
+      <c r="AE42" s="190"/>
+      <c r="AF42" s="190"/>
+      <c r="AG42" s="186"/>
+    </row>
+    <row r="43" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="186">
+      <c r="C43" s="185">
         <f>-ha_tyo!F43</f>
         <v>0</v>
       </c>
@@ -17063,8 +16969,8 @@
         <v>0</v>
       </c>
       <c r="G43"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="185">
+      <c r="H43" s="194"/>
+      <c r="I43" s="184">
         <f>-ka!F43</f>
         <v>0</v>
       </c>
@@ -17076,32 +16982,32 @@
         <f>-pa!F43</f>
         <v>0</v>
       </c>
-      <c r="M43" s="221">
+      <c r="M43" s="220">
         <f>SUM(C43:L43)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="187"/>
-      <c r="O43" s="187"/>
-      <c r="P43" s="191"/>
-      <c r="Q43" s="191"/>
-      <c r="R43" s="191"/>
-      <c r="S43" s="191"/>
-      <c r="T43" s="191"/>
-      <c r="U43" s="187"/>
-      <c r="V43" s="191"/>
-      <c r="W43" s="191"/>
-      <c r="X43" s="191"/>
-      <c r="Y43" s="191"/>
-      <c r="Z43" s="191"/>
-      <c r="AA43" s="187"/>
-      <c r="AB43" s="191"/>
-      <c r="AC43" s="191"/>
-      <c r="AD43" s="191"/>
-      <c r="AE43" s="191"/>
-      <c r="AF43" s="191"/>
-      <c r="AG43" s="187"/>
-    </row>
-    <row r="44" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N43" s="186"/>
+      <c r="O43" s="186"/>
+      <c r="P43" s="190"/>
+      <c r="Q43" s="190"/>
+      <c r="R43" s="190"/>
+      <c r="S43" s="190"/>
+      <c r="T43" s="190"/>
+      <c r="U43" s="186"/>
+      <c r="V43" s="190"/>
+      <c r="W43" s="190"/>
+      <c r="X43" s="190"/>
+      <c r="Y43" s="190"/>
+      <c r="Z43" s="190"/>
+      <c r="AA43" s="186"/>
+      <c r="AB43" s="190"/>
+      <c r="AC43" s="190"/>
+      <c r="AD43" s="190"/>
+      <c r="AE43" s="190"/>
+      <c r="AF43" s="190"/>
+      <c r="AG43" s="186"/>
+    </row>
+    <row r="44" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44" s="57" t="s">
         <v>8</v>
@@ -17123,8 +17029,8 @@
         <v>0</v>
       </c>
       <c r="G44"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="226">
+      <c r="H44" s="193"/>
+      <c r="I44" s="225">
         <f>SUM(I42:I43)</f>
         <v>0</v>
       </c>
@@ -17136,32 +17042,32 @@
         <f>SUM(K42:K43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="222">
+      <c r="M44" s="221">
         <f>SUM(C44:L44)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="187"/>
-      <c r="O44" s="187"/>
-      <c r="P44" s="191"/>
-      <c r="Q44" s="191"/>
-      <c r="R44" s="191"/>
-      <c r="S44" s="191"/>
-      <c r="T44" s="191"/>
-      <c r="U44" s="187"/>
-      <c r="V44" s="191"/>
-      <c r="W44" s="191"/>
-      <c r="X44" s="191"/>
-      <c r="Y44" s="191"/>
-      <c r="Z44" s="191"/>
-      <c r="AA44" s="187"/>
-      <c r="AB44" s="191"/>
-      <c r="AC44" s="191"/>
-      <c r="AD44" s="191"/>
-      <c r="AE44" s="191"/>
-      <c r="AF44" s="191"/>
-      <c r="AG44" s="187"/>
-    </row>
-    <row r="45" spans="1:34" s="184" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="186"/>
+      <c r="O44" s="186"/>
+      <c r="P44" s="190"/>
+      <c r="Q44" s="190"/>
+      <c r="R44" s="190"/>
+      <c r="S44" s="190"/>
+      <c r="T44" s="190"/>
+      <c r="U44" s="186"/>
+      <c r="V44" s="190"/>
+      <c r="W44" s="190"/>
+      <c r="X44" s="190"/>
+      <c r="Y44" s="190"/>
+      <c r="Z44" s="190"/>
+      <c r="AA44" s="186"/>
+      <c r="AB44" s="190"/>
+      <c r="AC44" s="190"/>
+      <c r="AD44" s="190"/>
+      <c r="AE44" s="190"/>
+      <c r="AF44" s="190"/>
+      <c r="AG44" s="186"/>
+    </row>
+    <row r="45" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -17169,72 +17075,72 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="194"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="193"/>
       <c r="K45"/>
       <c r="M45"/>
-      <c r="N45" s="187"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="187"/>
-      <c r="Q45" s="187"/>
-      <c r="R45" s="187"/>
-      <c r="S45" s="187"/>
-      <c r="T45" s="187"/>
-      <c r="U45" s="187"/>
-      <c r="V45" s="187"/>
-      <c r="W45" s="187"/>
-      <c r="X45" s="187"/>
-      <c r="Y45" s="187"/>
-      <c r="Z45" s="187"/>
-      <c r="AA45" s="187"/>
-      <c r="AB45" s="187"/>
-      <c r="AC45" s="187"/>
-      <c r="AD45" s="187"/>
-      <c r="AE45" s="187"/>
-      <c r="AF45" s="187"/>
-      <c r="AG45" s="187"/>
-    </row>
-    <row r="46" spans="1:34" s="184" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N45" s="186"/>
+      <c r="O45" s="186"/>
+      <c r="P45" s="186"/>
+      <c r="Q45" s="186"/>
+      <c r="R45" s="186"/>
+      <c r="S45" s="186"/>
+      <c r="T45" s="186"/>
+      <c r="U45" s="186"/>
+      <c r="V45" s="186"/>
+      <c r="W45" s="186"/>
+      <c r="X45" s="186"/>
+      <c r="Y45" s="186"/>
+      <c r="Z45" s="186"/>
+      <c r="AA45" s="186"/>
+      <c r="AB45" s="186"/>
+      <c r="AC45" s="186"/>
+      <c r="AD45" s="186"/>
+      <c r="AE45" s="186"/>
+      <c r="AF45" s="186"/>
+      <c r="AG45" s="186"/>
+    </row>
+    <row r="46" spans="1:34" s="183" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46"/>
       <c r="B46" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="194"/>
-      <c r="M46" s="224">
+      <c r="C46" s="193"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="193"/>
+      <c r="K46" s="193"/>
+      <c r="M46" s="223">
         <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!M39+Diskonttaus!B27*Kayttajahyodyt!M44,Diskonttaus!B26*Kayttajahyodyt!M39)</f>
         <v>0</v>
       </c>
-      <c r="N46" s="187"/>
-      <c r="O46" s="187"/>
-      <c r="P46" s="187"/>
-      <c r="Q46" s="187"/>
-      <c r="R46" s="187"/>
-      <c r="S46" s="187"/>
-      <c r="T46" s="187"/>
-      <c r="U46" s="187"/>
-      <c r="V46" s="187"/>
-      <c r="W46" s="187"/>
-      <c r="X46" s="187"/>
-      <c r="Y46" s="187"/>
-      <c r="Z46" s="187"/>
-      <c r="AA46" s="187"/>
-      <c r="AB46" s="187"/>
-      <c r="AC46" s="187"/>
-      <c r="AD46" s="187"/>
-      <c r="AE46" s="187"/>
-      <c r="AF46" s="187"/>
-      <c r="AG46" s="187"/>
-    </row>
-    <row r="47" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="186"/>
+      <c r="O46" s="186"/>
+      <c r="P46" s="186"/>
+      <c r="Q46" s="186"/>
+      <c r="R46" s="186"/>
+      <c r="S46" s="186"/>
+      <c r="T46" s="186"/>
+      <c r="U46" s="186"/>
+      <c r="V46" s="186"/>
+      <c r="W46" s="186"/>
+      <c r="X46" s="186"/>
+      <c r="Y46" s="186"/>
+      <c r="Z46" s="186"/>
+      <c r="AA46" s="186"/>
+      <c r="AB46" s="186"/>
+      <c r="AC46" s="186"/>
+      <c r="AD46" s="186"/>
+      <c r="AE46" s="186"/>
+      <c r="AF46" s="186"/>
+      <c r="AG46" s="186"/>
+    </row>
+    <row r="47" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -17247,28 +17153,28 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="M47"/>
-      <c r="N47" s="187"/>
-      <c r="O47" s="187"/>
-      <c r="P47" s="187"/>
-      <c r="Q47" s="187"/>
-      <c r="R47" s="187"/>
-      <c r="S47" s="187"/>
-      <c r="T47" s="187"/>
-      <c r="U47" s="187"/>
-      <c r="V47" s="187"/>
-      <c r="W47" s="187"/>
-      <c r="X47" s="187"/>
-      <c r="Y47" s="187"/>
-      <c r="Z47" s="187"/>
-      <c r="AA47" s="187"/>
-      <c r="AB47" s="187"/>
-      <c r="AC47" s="187"/>
-      <c r="AD47" s="187"/>
-      <c r="AE47" s="187"/>
-      <c r="AF47" s="187"/>
-      <c r="AG47" s="187"/>
-    </row>
-    <row r="48" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="186"/>
+      <c r="O47" s="186"/>
+      <c r="P47" s="186"/>
+      <c r="Q47" s="186"/>
+      <c r="R47" s="186"/>
+      <c r="S47" s="186"/>
+      <c r="T47" s="186"/>
+      <c r="U47" s="186"/>
+      <c r="V47" s="186"/>
+      <c r="W47" s="186"/>
+      <c r="X47" s="186"/>
+      <c r="Y47" s="186"/>
+      <c r="Z47" s="186"/>
+      <c r="AA47" s="186"/>
+      <c r="AB47" s="186"/>
+      <c r="AC47" s="186"/>
+      <c r="AD47" s="186"/>
+      <c r="AE47" s="186"/>
+      <c r="AF47" s="186"/>
+      <c r="AG47" s="186"/>
+    </row>
+    <row r="48" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -17281,28 +17187,28 @@
       <c r="J48"/>
       <c r="K48"/>
       <c r="N48"/>
-      <c r="O48" s="187"/>
-      <c r="P48" s="187"/>
-      <c r="Q48" s="187"/>
-      <c r="R48" s="187"/>
-      <c r="S48" s="187"/>
-      <c r="T48" s="187"/>
-      <c r="U48" s="187"/>
-      <c r="V48" s="187"/>
-      <c r="W48" s="187"/>
-      <c r="X48" s="187"/>
-      <c r="Y48" s="187"/>
-      <c r="Z48" s="187"/>
-      <c r="AA48" s="187"/>
-      <c r="AB48" s="187"/>
-      <c r="AC48" s="187"/>
-      <c r="AD48" s="187"/>
-      <c r="AE48" s="187"/>
-      <c r="AF48" s="187"/>
-      <c r="AG48" s="187"/>
-      <c r="AH48" s="187"/>
-    </row>
-    <row r="49" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="186"/>
+      <c r="P48" s="186"/>
+      <c r="Q48" s="186"/>
+      <c r="R48" s="186"/>
+      <c r="S48" s="186"/>
+      <c r="T48" s="186"/>
+      <c r="U48" s="186"/>
+      <c r="V48" s="186"/>
+      <c r="W48" s="186"/>
+      <c r="X48" s="186"/>
+      <c r="Y48" s="186"/>
+      <c r="Z48" s="186"/>
+      <c r="AA48" s="186"/>
+      <c r="AB48" s="186"/>
+      <c r="AC48" s="186"/>
+      <c r="AD48" s="186"/>
+      <c r="AE48" s="186"/>
+      <c r="AF48" s="186"/>
+      <c r="AG48" s="186"/>
+      <c r="AH48" s="186"/>
+    </row>
+    <row r="49" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -17315,48 +17221,48 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="N49"/>
-      <c r="O49" s="187"/>
-      <c r="P49" s="187"/>
-      <c r="Q49" s="187"/>
-      <c r="R49" s="187"/>
-      <c r="S49" s="187"/>
-      <c r="T49" s="187"/>
-      <c r="U49" s="187"/>
-      <c r="V49" s="187"/>
-      <c r="W49" s="187"/>
-      <c r="X49" s="187"/>
-      <c r="Y49" s="187"/>
-      <c r="Z49" s="187"/>
-      <c r="AA49" s="187"/>
-      <c r="AB49" s="187"/>
-      <c r="AC49" s="187"/>
-      <c r="AD49" s="187"/>
-      <c r="AE49" s="187"/>
-      <c r="AF49" s="187"/>
-      <c r="AG49" s="187"/>
-      <c r="AH49" s="187"/>
-    </row>
-    <row r="50" spans="1:34" s="184" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O50" s="187"/>
-      <c r="P50" s="187"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="187"/>
-      <c r="S50" s="187"/>
-      <c r="T50" s="187"/>
-      <c r="U50" s="187"/>
-      <c r="V50" s="187"/>
-      <c r="W50" s="187"/>
-      <c r="X50" s="187"/>
-      <c r="Y50" s="187"/>
-      <c r="Z50" s="187"/>
-      <c r="AA50" s="187"/>
-      <c r="AB50" s="187"/>
-      <c r="AC50" s="187"/>
-      <c r="AD50" s="187"/>
-      <c r="AE50" s="187"/>
-      <c r="AF50" s="187"/>
-      <c r="AG50" s="187"/>
-      <c r="AH50" s="187"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="186"/>
+      <c r="U49" s="186"/>
+      <c r="V49" s="186"/>
+      <c r="W49" s="186"/>
+      <c r="X49" s="186"/>
+      <c r="Y49" s="186"/>
+      <c r="Z49" s="186"/>
+      <c r="AA49" s="186"/>
+      <c r="AB49" s="186"/>
+      <c r="AC49" s="186"/>
+      <c r="AD49" s="186"/>
+      <c r="AE49" s="186"/>
+      <c r="AF49" s="186"/>
+      <c r="AG49" s="186"/>
+      <c r="AH49" s="186"/>
+    </row>
+    <row r="50" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="186"/>
+      <c r="P50" s="186"/>
+      <c r="Q50" s="186"/>
+      <c r="R50" s="186"/>
+      <c r="S50" s="186"/>
+      <c r="T50" s="186"/>
+      <c r="U50" s="186"/>
+      <c r="V50" s="186"/>
+      <c r="W50" s="186"/>
+      <c r="X50" s="186"/>
+      <c r="Y50" s="186"/>
+      <c r="Z50" s="186"/>
+      <c r="AA50" s="186"/>
+      <c r="AB50" s="186"/>
+      <c r="AC50" s="186"/>
+      <c r="AD50" s="186"/>
+      <c r="AE50" s="186"/>
+      <c r="AF50" s="186"/>
+      <c r="AG50" s="186"/>
+      <c r="AH50" s="186"/>
     </row>
     <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="121" t="s">
@@ -17411,7 +17317,7 @@
         <f>0.01*8.11</f>
         <v>8.1099999999999992E-2</v>
       </c>
-      <c r="E62" s="227">
+      <c r="E62" s="226">
         <f>C62+D62</f>
         <v>0.188</v>
       </c>
@@ -17428,7 +17334,7 @@
         <f>0.01*13.25</f>
         <v>0.13250000000000001</v>
       </c>
-      <c r="E63" s="227">
+      <c r="E63" s="226">
         <f t="shared" ref="E63:E65" si="4">C63+D63</f>
         <v>0.4415</v>
       </c>
@@ -17445,7 +17351,7 @@
         <f>0.01*9.55</f>
         <v>9.5500000000000015E-2</v>
       </c>
-      <c r="E64" s="227">
+      <c r="E64" s="226">
         <f t="shared" si="4"/>
         <v>0.31890000000000002</v>
       </c>
@@ -17462,7 +17368,7 @@
         <f>0.01*24.74</f>
         <v>0.24739999999999998</v>
       </c>
-      <c r="E65" s="228">
+      <c r="E65" s="227">
         <f t="shared" si="4"/>
         <v>0.64739999999999998</v>
       </c>
@@ -17927,13 +17833,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.45600000000000002</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.433</v>
       </c>
     </row>
@@ -17943,10 +17849,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -17966,7 +17872,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -17982,13 +17888,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -17998,35 +17904,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -18065,10 +17971,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -18081,23 +17987,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18108,10 +18014,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -18131,7 +18037,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -18147,13 +18053,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18163,35 +18069,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -18230,10 +18136,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18246,23 +18152,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18276,12 +18182,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -18289,10 +18195,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -18312,7 +18218,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -18328,13 +18234,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -18344,35 +18250,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -18392,7 +18298,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -18408,13 +18314,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18427,23 +18333,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18493,13 +18399,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.48799999999999999</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.28899999999999998</v>
       </c>
     </row>
@@ -18509,10 +18415,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -18532,7 +18438,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -18548,13 +18454,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -18564,35 +18470,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -18631,10 +18537,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -18647,23 +18553,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18674,10 +18580,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -18697,7 +18603,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -18713,13 +18619,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -18729,35 +18635,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -18796,10 +18702,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18812,23 +18718,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -18842,12 +18748,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -18855,10 +18761,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -18878,7 +18784,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -18894,13 +18800,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -18910,35 +18816,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -18958,7 +18864,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -18974,13 +18880,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18993,23 +18899,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19059,13 +18965,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.44500000000000001</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.10299999999999999</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.41399999999999998</v>
       </c>
     </row>
@@ -19075,10 +18981,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -19098,7 +19004,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -19114,13 +19020,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -19130,35 +19036,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -19197,10 +19103,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -19213,23 +19119,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19240,10 +19146,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -19263,7 +19169,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -19279,13 +19185,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -19295,35 +19201,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -19362,10 +19268,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19378,23 +19284,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19408,12 +19314,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -19421,10 +19327,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -19444,7 +19350,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -19460,13 +19366,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -19476,35 +19382,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -19524,7 +19430,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -19540,13 +19446,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19559,23 +19465,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19625,13 +19531,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.57099999999999995</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.11700000000000001</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.373</v>
       </c>
     </row>
@@ -19641,10 +19547,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -19664,7 +19570,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -19680,13 +19586,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -19696,35 +19602,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -19763,10 +19669,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -19779,23 +19685,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19806,10 +19712,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -19829,7 +19735,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -19845,13 +19751,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -19861,35 +19767,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -19928,10 +19834,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19944,23 +19850,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -19974,12 +19880,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -19987,10 +19893,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -20010,7 +19916,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -20026,13 +19932,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20042,35 +19948,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -20090,7 +19996,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -20106,13 +20012,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20125,23 +20031,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -20191,13 +20097,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.54200000000000004</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.109</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.5</v>
       </c>
     </row>
@@ -20207,10 +20113,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -20230,7 +20136,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -20246,13 +20152,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -20262,35 +20168,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -20329,10 +20235,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -20345,23 +20251,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -20372,10 +20278,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -20395,7 +20301,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -20411,13 +20317,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20427,35 +20333,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -20494,10 +20400,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20510,23 +20416,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -20540,12 +20446,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -20553,10 +20459,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -20576,7 +20482,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -20592,13 +20498,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20608,35 +20514,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -20656,7 +20562,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -20672,13 +20578,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -20691,23 +20597,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -20757,13 +20663,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="257">
+      <c r="B4" s="256">
         <v>0.72499999999999998</v>
       </c>
-      <c r="C4" s="258">
+      <c r="C4" s="257">
         <v>0.10299999999999999</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="258">
         <v>0.33200000000000002</v>
       </c>
     </row>
@@ -20773,10 +20679,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="194"/>
+      <c r="A7" s="193"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="244">
+      <c r="A8" s="243">
         <v>2030</v>
       </c>
       <c r="B8" s="168" t="s">
@@ -20796,7 +20702,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="135"/>
@@ -20812,13 +20718,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239">
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
         <f>B10/B$4+C10/C$4+D10/D$4</f>
         <v>0</v>
       </c>
@@ -20828,35 +20734,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="239">
         <f>B9+B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="240">
         <f>C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <f>D9+D10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <f>B11/B$4+C11/C$4+D11/D$4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="242">
         <f>E11/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="248"/>
+      <c r="A12" s="247"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="244">
+      <c r="A13" s="243">
         <v>2050</v>
       </c>
       <c r="B13" s="168" t="s">
@@ -20895,10 +20801,10 @@
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239">
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
         <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
         <v>0</v>
       </c>
@@ -20911,23 +20817,23 @@
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="240">
+      <c r="B16" s="239">
         <f>B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="241">
+      <c r="C16" s="240">
         <f>C14+C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <f>D14+D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="243">
+      <c r="F16" s="242">
         <f>E16/60*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -20938,10 +20844,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="187"/>
+      <c r="A20" s="186"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="244">
+      <c r="A21" s="243">
         <v>2030</v>
       </c>
       <c r="B21" s="168" t="s">
@@ -20961,7 +20867,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="137"/>
@@ -20977,13 +20883,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="239">
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -20993,35 +20899,35 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="240">
+      <c r="B24" s="239">
         <f>B22+B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="241">
+      <c r="C24" s="240">
         <f>C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="240">
         <f>D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="243">
+      <c r="F24" s="242">
         <f>E24*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
+      <c r="A25" s="251"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="244">
+      <c r="A26" s="243">
         <v>2050</v>
       </c>
       <c r="B26" s="168" t="s">
@@ -21060,10 +20966,10 @@
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="239">
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21076,23 +20982,23 @@
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="239">
         <f>B27+B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="240">
         <f>C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="240">
         <f>D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E29" s="242">
+      <c r="E29" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <f>E29*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -21106,12 +21012,12 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -21119,10 +21025,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="187"/>
+      <c r="A35" s="186"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="253">
+      <c r="A36" s="252">
         <v>2030</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -21142,7 +21048,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="137"/>
@@ -21158,13 +21064,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="239">
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21174,35 +21080,35 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="240">
+      <c r="B39" s="239">
         <f>B37+B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="241">
+      <c r="C39" s="240">
         <f>C37+C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="241">
+      <c r="D39" s="240">
         <f>D37+D38</f>
         <v>0</v>
       </c>
-      <c r="E39" s="242">
+      <c r="E39" s="241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="243">
+      <c r="F39" s="242">
         <f>E39*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="252"/>
+      <c r="A40" s="251"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="253">
+      <c r="A41" s="252">
         <v>2050</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -21222,7 +21128,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="137"/>
@@ -21238,13 +21144,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="239">
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21257,23 +21163,23 @@
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="240">
+      <c r="B44" s="239">
         <f>B42+B43</f>
         <v>0</v>
       </c>
-      <c r="C44" s="241">
+      <c r="C44" s="240">
         <f>C42+C43</f>
         <v>0</v>
       </c>
-      <c r="D44" s="241">
+      <c r="D44" s="240">
         <f>D42+D43</f>
         <v>0</v>
       </c>
-      <c r="E44" s="242">
+      <c r="E44" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F44" s="243">
+      <c r="F44" s="242">
         <f>E44*Diskonttaus!$B$11</f>
         <v>0</v>
       </c>
@@ -21293,32 +21199,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
-    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
-        </TermInfo>
-      </Terms>
-    </c7e7d47415304583b97cbceafb48fc9c>
-    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
-    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gbd2c824d606482d8ac0e417e142bc2f>
-    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lf2a24d45b2949218b95d66f1d0b33a8>
-    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
-      <Value>2</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Työryhmän dokumentti" ma:contentTypeID="0x0101005AF0DAC6D8B8D046AA97775D0EA0A52C00597B3796DB9FF548BDFCB0DE8988F274" ma:contentTypeVersion="18" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="52111fa3d5fab8e48da38903eaacec4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xmlns:ns3="8dde8a50-f86d-46ca-ae54-a219d58ab0f1" xmlns:ns4="4468c9de-2a81-4c06-bf49-e269715ababb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb907d030b2bbafc68088718dbf26d11" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
@@ -21553,6 +21433,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
+    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
+        </TermInfo>
+      </Terms>
+    </c7e7d47415304583b97cbceafb48fc9c>
+    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
+    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gbd2c824d606482d8ac0e417e142bc2f>
+    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lf2a24d45b2949218b95d66f1d0b33a8>
+    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
+      <Value>2</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
   <ds:schemaRefs>
@@ -21562,24 +21468,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
-    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
-    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21597,4 +21485,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
+    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
+    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="TämäTyökirja"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Helmet\HELMET_KEHI_40\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samia\code\helmet-model-system\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CCC5A3-D77C-463B-A1D2-7533B54B7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46AAA1C-1AFD-42D9-A4A0-827977EB73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -2255,9 +2255,9 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosenttia" xfId="2" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2537,24 +2537,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="193"/>
     </row>
-    <row r="2" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="274" t="s">
         <v>204</v>
       </c>
@@ -2568,7 +2566,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="272" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="275" t="s">
         <v>200</v>
       </c>
@@ -2588,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="276" t="s">
         <v>201</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="274" t="s">
         <v>202</v>
       </c>
@@ -2612,8 +2610,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="274" t="s">
         <v>205</v>
       </c>
@@ -2622,14 +2620,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="272" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="282"/>
       <c r="D9" s="68"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="281" t="s">
         <v>220</v>
       </c>
@@ -2642,14 +2640,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="279" t="s">
         <v>206</v>
       </c>
       <c r="C11" s="305"/>
       <c r="D11" s="277"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>209</v>
       </c>
@@ -2662,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>208</v>
       </c>
@@ -2675,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>207</v>
       </c>
@@ -2688,14 +2686,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="278" t="s">
         <v>210</v>
       </c>
       <c r="C15" s="307"/>
       <c r="D15" s="270"/>
     </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="61" t="s">
         <v>216</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
         <v>211</v>
       </c>
@@ -2721,14 +2719,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="278" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="307"/>
       <c r="D18" s="270"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="281" t="s">
         <v>217</v>
       </c>
@@ -2741,14 +2739,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="279" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="305"/>
       <c r="D20" s="277"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="61" t="s">
         <v>213</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>214</v>
       </c>
@@ -2774,14 +2772,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="278" t="s">
         <v>218</v>
       </c>
       <c r="C23" s="307"/>
       <c r="D23" s="270"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="281" t="s">
         <v>219</v>
       </c>
@@ -2794,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="280" t="s">
         <v>10</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="274" t="s">
         <v>215</v>
       </c>
@@ -2820,8 +2818,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="286" t="s">
         <v>0</v>
       </c>
@@ -2831,12 +2829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="32" spans="2:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="286" t="s">
         <v>2</v>
       </c>
@@ -2846,12 +2844,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="35" spans="2:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="286" t="s">
         <v>4</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
     </row>
@@ -2903,24 +2901,24 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.3</v>
       </c>
@@ -2942,15 +2940,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -2970,7 +2968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -3002,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -3027,10 +3025,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -3066,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -3107,15 +3105,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -3192,10 +3190,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -3215,7 +3213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -3272,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -3280,7 +3278,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -3288,15 +3286,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -3332,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -3373,10 +3371,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -3428,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -3466,24 +3464,24 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.3</v>
       </c>
@@ -3505,15 +3503,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -3533,7 +3531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -3549,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -3590,10 +3588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -3613,7 +3611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -3645,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -3670,15 +3668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -3698,7 +3696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -3714,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -3730,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -3755,10 +3753,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -3778,7 +3776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -3794,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -3810,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -3835,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -3843,7 +3841,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -3851,15 +3849,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -3879,7 +3877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -3911,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -3936,10 +3934,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -3959,7 +3957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -3975,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -3991,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -4029,24 +4027,24 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.3</v>
       </c>
@@ -4068,15 +4066,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -4096,7 +4094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -4128,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -4153,10 +4151,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -4176,7 +4174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -4192,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -4208,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -4233,15 +4231,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -4277,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -4293,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -4318,10 +4316,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -4341,7 +4339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -4357,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -4398,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -4406,7 +4404,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -4414,15 +4412,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -4442,7 +4440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -4458,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -4474,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -4499,10 +4497,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -4554,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -4593,37 +4591,37 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>73</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>81</v>
       </c>
@@ -4731,7 +4729,7 @@
       <c r="T8" s="142"/>
       <c r="U8" s="229"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>82</v>
       </c>
@@ -4784,7 +4782,7 @@
       <c r="T9" s="142"/>
       <c r="U9" s="229"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>83</v>
       </c>
@@ -4837,7 +4835,7 @@
       <c r="T10" s="142"/>
       <c r="U10" s="229"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>84</v>
       </c>
@@ -4892,7 +4890,7 @@
       <c r="T11" s="142"/>
       <c r="U11" s="160"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>85</v>
       </c>
@@ -4947,7 +4945,7 @@
       <c r="T12" s="142"/>
       <c r="U12" s="160"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K13" s="73" t="s">
         <v>8</v>
       </c>
@@ -4968,14 +4966,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="92"/>
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
       <c r="O14" s="92"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="8" t="s">
         <v>73</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="s">
         <v>81</v>
       </c>
@@ -5059,7 +5057,7 @@
       <c r="T16" s="138"/>
       <c r="U16" s="229"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
         <v>82</v>
       </c>
@@ -5101,7 +5099,7 @@
       <c r="T17" s="138"/>
       <c r="U17" s="229"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F18" s="8" t="s">
         <v>83</v>
       </c>
@@ -5143,7 +5141,7 @@
       <c r="T18" s="138"/>
       <c r="U18" s="229"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F19" s="8" t="s">
         <v>84</v>
       </c>
@@ -5185,7 +5183,7 @@
       <c r="T19" s="138"/>
       <c r="U19" s="160"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
         <v>85</v>
       </c>
@@ -5227,7 +5225,7 @@
       <c r="T20" s="138"/>
       <c r="U20" s="160"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K21" s="73" t="s">
         <v>8</v>
       </c>
@@ -5249,14 +5247,14 @@
       </c>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L22" s="92"/>
       <c r="M22" s="92"/>
       <c r="N22" s="92"/>
       <c r="O22" s="92"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="17"/>
       <c r="K23" s="125" t="s">
@@ -5271,22 +5269,22 @@
       </c>
       <c r="T23" s="13"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T24" s="13"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="109" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>86</v>
       </c>
@@ -5296,13 +5294,13 @@
       </c>
       <c r="C30" s="75"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="122"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="57" t="s">
         <v>8</v>
       </c>
@@ -5311,21 +5309,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="77">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
       <c r="C34" s="75"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="66"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="57" t="s">
         <v>8</v>
       </c>
@@ -5334,8 +5332,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="127" t="s">
         <v>54</v>
       </c>
@@ -5344,13 +5342,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="62" t="s">
         <v>47</v>
       </c>
@@ -5367,7 +5365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -5384,7 +5382,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="62" t="s">
         <v>47</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -5434,7 +5432,7 @@
       <c r="E45" s="48"/>
       <c r="F45" s="49"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -5450,8 +5448,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="128" t="s">
         <v>54</v>
       </c>
@@ -5460,18 +5458,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K53" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>92</v>
       </c>
@@ -5492,7 +5490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>173</v>
       </c>
@@ -5514,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="229" t="s">
         <v>172</v>
       </c>
@@ -5536,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>83</v>
       </c>
@@ -5559,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>84</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>85</v>
       </c>
@@ -5605,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K60" s="31" t="s">
         <v>8</v>
       </c>
@@ -5614,8 +5612,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F62" s="8">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -5630,7 +5628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F63" s="8" t="s">
         <v>173</v>
       </c>
@@ -5646,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F64" s="229" t="s">
         <v>172</v>
       </c>
@@ -5662,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="8" t="s">
         <v>83</v>
       </c>
@@ -5678,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="8" t="s">
         <v>84</v>
       </c>
@@ -5694,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="8" t="s">
         <v>85</v>
       </c>
@@ -5710,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K68" s="31" t="s">
         <v>8</v>
       </c>
@@ -5719,8 +5717,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K70" s="128" t="s">
         <v>54</v>
       </c>
@@ -5729,8 +5727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>190</v>
       </c>
@@ -5751,7 +5749,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>193</v>
       </c>
@@ -5770,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>192</v>
       </c>
@@ -5789,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>194</v>
       </c>
@@ -5808,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="229" t="s">
         <v>195</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="229" t="s">
         <v>196</v>
       </c>
@@ -5848,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="229" t="s">
         <v>197</v>
       </c>
@@ -5868,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K79" s="31" t="s">
         <v>8</v>
       </c>
@@ -5877,12 +5875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="193"/>
       <c r="B80" s="193"/>
       <c r="C80" s="193"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="193"/>
       <c r="B81" s="194"/>
       <c r="C81" s="194"/>
@@ -5900,7 +5898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="193"/>
       <c r="B82" s="194"/>
       <c r="C82" s="194"/>
@@ -5916,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="193"/>
       <c r="B83" s="266"/>
       <c r="C83" s="266"/>
@@ -5932,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="193"/>
       <c r="B84" s="193"/>
       <c r="C84" s="193"/>
@@ -5948,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="193"/>
       <c r="B85" s="193"/>
       <c r="C85" s="193"/>
@@ -5964,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="193"/>
       <c r="B86" s="193"/>
       <c r="C86" s="193"/>
@@ -5980,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="193"/>
       <c r="B87" s="193"/>
       <c r="C87" s="193"/>
@@ -5996,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="193"/>
       <c r="B88" s="266"/>
       <c r="C88" s="193"/>
@@ -6008,8 +6006,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="K90" s="128" t="s">
         <v>54</v>
@@ -6019,37 +6017,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D105" s="19"/>
     </row>
   </sheetData>
@@ -6067,28 +6065,28 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
@@ -6099,7 +6097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>98</v>
       </c>
@@ -6131,7 +6129,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="56" t="s">
         <v>81</v>
       </c>
@@ -6163,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>83</v>
       </c>
@@ -6185,7 +6183,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
         <v>84</v>
       </c>
@@ -6223,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>85</v>
       </c>
@@ -6234,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>44</v>
       </c>
@@ -6250,7 +6248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
         <v>63</v>
       </c>
@@ -6266,7 +6264,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>65</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
         <v>108</v>
       </c>
@@ -6296,7 +6294,7 @@
         <v>9.4804100000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -6306,7 +6304,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
         <v>5</v>
       </c>
@@ -6347,7 +6345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>81</v>
       </c>
@@ -6375,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>83</v>
       </c>
@@ -6406,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>84</v>
       </c>
@@ -6434,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>85</v>
       </c>
@@ -6462,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="38" t="s">
         <v>44</v>
       </c>
@@ -6490,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="89" t="s">
         <v>63</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="89" t="s">
         <v>65</v>
       </c>
@@ -6546,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
         <v>108</v>
       </c>
@@ -6574,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="87" t="s">
         <v>62</v>
       </c>
@@ -6589,7 +6587,7 @@
       <c r="E23" s="117"/>
       <c r="F23" s="118"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="87" t="s">
         <v>51</v>
       </c>
@@ -6620,7 +6618,7 @@
       <c r="O24" s="18"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
       <c r="E25" s="92"/>
@@ -6633,7 +6631,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -6654,7 +6652,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="50" t="s">
         <v>5</v>
       </c>
@@ -6695,7 +6693,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="52" t="s">
         <v>81</v>
       </c>
@@ -6723,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
         <v>83</v>
       </c>
@@ -6754,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
@@ -6782,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>85</v>
       </c>
@@ -6810,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
         <v>44</v>
       </c>
@@ -6838,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="89" t="s">
         <v>63</v>
       </c>
@@ -6866,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="89" t="s">
         <v>65</v>
       </c>
@@ -6894,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>108</v>
       </c>
@@ -6922,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="87" t="s">
         <v>62</v>
       </c>
@@ -6937,7 +6935,7 @@
       <c r="E36" s="117"/>
       <c r="F36" s="118"/>
     </row>
-    <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="87" t="s">
         <v>51</v>
       </c>
@@ -6962,16 +6960,16 @@
       </c>
       <c r="I37" s="263"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C38" s="92"/>
       <c r="D38" s="92"/>
       <c r="E38" s="92"/>
       <c r="F38" s="92"/>
     </row>
-    <row r="39" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F39" s="92"/>
     </row>
-    <row r="40" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="128" t="s">
         <v>54</v>
       </c>
@@ -6992,25 +6990,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="92"/>
       <c r="D41" s="92"/>
       <c r="E41" s="92"/>
       <c r="F41" s="92"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M42" s="92"/>
       <c r="N42" s="92"/>
       <c r="O42" s="92"/>
       <c r="P42" s="92"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M43" s="92"/>
       <c r="N43" s="92"/>
       <c r="O43" s="92"/>
       <c r="P43" s="92"/>
     </row>
-    <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="125" t="s">
         <v>118</v>
       </c>
@@ -7024,7 +7022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>44</v>
       </c>
@@ -7047,7 +7045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>122</v>
       </c>
@@ -7072,7 +7070,7 @@
         <v>6.6000000000000003E-7</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>123</v>
       </c>
@@ -7097,7 +7095,7 @@
         <v>8.9600000000000009E-5</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>124</v>
       </c>
@@ -7122,7 +7120,7 @@
         <v>8.3659999999999995E-5</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>125</v>
       </c>
@@ -7147,7 +7145,7 @@
         <v>1.0163999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="K51" t="s">
@@ -7162,13 +7160,13 @@
         <v>1.0337919999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="L52" s="164"/>
       <c r="M52" s="164"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>118</v>
       </c>
@@ -7182,7 +7180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>63</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>122</v>
       </c>
@@ -7230,7 +7228,7 @@
         <v>7.5900000000000006E-7</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>123</v>
       </c>
@@ -7255,7 +7253,7 @@
         <v>2.7519999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>124</v>
       </c>
@@ -7280,7 +7278,7 @@
         <v>5.9630000000000002E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>125</v>
       </c>
@@ -7305,7 +7303,7 @@
         <v>1.5938999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="K59" t="s">
@@ -7320,13 +7318,13 @@
         <v>1.6811258999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="L60" s="164"/>
       <c r="M60" s="164"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>118</v>
       </c>
@@ -7340,7 +7338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>126</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>122</v>
       </c>
@@ -7388,7 +7386,7 @@
         <v>2.9699999999999999E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>123</v>
       </c>
@@ -7413,7 +7411,7 @@
         <v>1.248E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>124</v>
       </c>
@@ -7438,7 +7436,7 @@
         <v>5.6960000000000008E-4</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>125</v>
       </c>
@@ -7463,7 +7461,7 @@
         <v>5.6133000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K67" t="s">
         <v>50</v>
       </c>
@@ -7476,7 +7474,7 @@
         <v>5.7953570000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>127</v>
       </c>
@@ -7486,7 +7484,7 @@
       <c r="L68" s="164"/>
       <c r="M68" s="164"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>118</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>65</v>
       </c>
@@ -7523,7 +7521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>122</v>
       </c>
@@ -7548,7 +7546,7 @@
         <v>1.815E-6</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>123</v>
       </c>
@@ -7573,7 +7571,7 @@
         <v>8.3199999999999995E-4</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>124</v>
       </c>
@@ -7598,7 +7596,7 @@
         <v>3.2039999999999998E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>125</v>
       </c>
@@ -7623,7 +7621,7 @@
         <v>3.3648999999999998E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K75" t="s">
         <v>50</v>
       </c>
@@ -7636,7 +7634,7 @@
         <v>3.4803214999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>129</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>118</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>108</v>
       </c>
@@ -7681,7 +7679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>122</v>
       </c>
@@ -7706,7 +7704,7 @@
         <v>3.3000000000000002E-6</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>123</v>
       </c>
@@ -7731,7 +7729,7 @@
         <v>2.0799999999999998E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>124</v>
       </c>
@@ -7756,7 +7754,7 @@
         <v>5.5179999999999997E-4</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>125</v>
       </c>
@@ -7781,7 +7779,7 @@
         <v>9.2169000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K83" t="s">
         <v>50</v>
       </c>
@@ -7794,7 +7792,7 @@
         <v>9.4804100000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>179</v>
       </c>
@@ -7805,7 +7803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>180</v>
       </c>
@@ -7820,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>181</v>
       </c>
@@ -7835,7 +7833,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>182</v>
       </c>
@@ -7850,7 +7848,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>183</v>
       </c>
@@ -7865,7 +7863,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>184</v>
       </c>
@@ -7880,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E91">
         <f>SUM(E86:E90)</f>
         <v>1336</v>
@@ -7900,33 +7898,33 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
@@ -7951,7 +7949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>133</v>
       </c>
@@ -7971,7 +7969,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>56</v>
       </c>
@@ -7991,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="57" t="s">
         <v>8</v>
       </c>
@@ -8000,8 +7998,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="77">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -8023,7 +8021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>133</v>
       </c>
@@ -8043,7 +8041,7 @@
       <c r="I12" s="43"/>
       <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>56</v>
       </c>
@@ -8063,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
@@ -8072,8 +8070,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="127" t="s">
         <v>54</v>
       </c>
@@ -8082,68 +8080,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
       <c r="C20" s="75"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="66"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="66"/>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="119"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
       <c r="C25" s="75"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="66"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="66"/>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="119"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="120"/>
       <c r="C29" s="174"/>
     </row>
-    <row r="30" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="127" t="s">
         <v>54</v>
       </c>
@@ -8163,20 +8161,20 @@
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -8191,7 +8189,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Y7" t="s">
         <v>19</v>
       </c>
@@ -8200,7 +8198,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>Diskonttaus!B3-10</f>
         <v>2020</v>
@@ -8285,7 +8283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>148</v>
       </c>
@@ -8316,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>149</v>
       </c>
@@ -8347,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>150</v>
       </c>
@@ -8378,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>151</v>
       </c>
@@ -8409,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>152</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>138</v>
       </c>
@@ -8471,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>139</v>
       </c>
@@ -8502,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>140</v>
       </c>
@@ -8533,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>141</v>
       </c>
@@ -8564,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>142</v>
       </c>
@@ -8595,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>143</v>
       </c>
@@ -8626,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>144</v>
       </c>
@@ -8657,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>145</v>
       </c>
@@ -8688,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>146</v>
       </c>
@@ -8719,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -8812,12 +8810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>148</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>149</v>
       </c>
@@ -8995,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>150</v>
       </c>
@@ -9084,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>151</v>
       </c>
@@ -9173,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>152</v>
       </c>
@@ -9262,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>138</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>139</v>
       </c>
@@ -9440,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>140</v>
       </c>
@@ -9529,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>141</v>
       </c>
@@ -9618,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -9707,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>143</v>
       </c>
@@ -9796,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>144</v>
       </c>
@@ -9885,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>145</v>
       </c>
@@ -9974,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>146</v>
       </c>
@@ -10063,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>8</v>
       </c>
@@ -10162,24 +10160,24 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>11</v>
       </c>
@@ -10214,7 +10212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10294,7 +10292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10399,7 +10397,7 @@
         <v>0.70891881370977217</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>0.68494571372924851</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -10609,7 +10607,7 @@
         <v>0.66178329828912896</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -10714,7 +10712,7 @@
         <v>0.63940415293635666</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -10819,7 +10817,7 @@
         <v>0.61778179027667302</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -10924,7 +10922,7 @@
         <v>0.59689061862480497</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11029,7 +11027,7 @@
         <v>0.57670591171478747</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -11134,7 +11132,7 @@
         <v>0.55720377943457733</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -11239,7 +11237,7 @@
         <v>0.53836113955031628</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="14"/>
         <v>2020</v>
@@ -11338,7 +11336,7 @@
         <v>0.52015569038677911</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>8</v>
       </c>
@@ -11435,7 +11433,7 @@
         <v>0.50256588443167061</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L14">
         <f t="shared" si="16"/>
         <v>2041</v>
@@ -11509,7 +11507,7 @@
         <v>0.48557090283253213</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -11591,7 +11589,7 @@
         <v>0.46915063075606966</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -11672,7 +11670,7 @@
         <v>0.45328563358074364</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -11753,7 +11751,7 @@
         <v>0.43795713389443841</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L18">
         <f t="shared" si="16"/>
         <v>2045</v>
@@ -11827,7 +11825,7 @@
         <v>0.42314698926998884</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -11908,7 +11906,7 @@
         <v>0.40883767079225974</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -11989,7 +11987,7 @@
         <v>0.39501224231136206</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L21">
         <f t="shared" si="16"/>
         <v>2048</v>
@@ -12063,7 +12061,7 @@
         <v>0.38165434039745127</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -12143,7 +12141,7 @@
         <v>0.36874815497338298</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -12224,7 +12222,7 @@
         <v>0.35627841060230236</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -12305,7 +12303,7 @@
         <v>0.34423034840802164</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L25">
         <f t="shared" si="16"/>
         <v>2052</v>
@@ -12379,7 +12377,7 @@
         <v>0.33258970860678427</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -12460,7 +12458,7 @@
         <v>0.32134271362974326</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -12541,7 +12539,7 @@
         <v>0.3104760518161771</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L28">
         <f t="shared" si="16"/>
         <v>2055</v>
@@ -12615,7 +12613,7 @@
         <v>0.29997686165814214</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -12696,7 +12694,7 @@
         <v>0.28983271657791515</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -12777,7 +12775,7 @@
         <v>0.28003161022020789</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L31">
         <f t="shared" si="16"/>
         <v>2058</v>
@@ -12851,7 +12849,7 @@
         <v>0.27056194224174673</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L32">
         <f t="shared" si="16"/>
         <v>2059</v>
@@ -12925,7 +12923,7 @@
         <v>0.26141250458139786</v>
       </c>
     </row>
-    <row r="33" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L33">
         <f t="shared" si="16"/>
         <v>2060</v>
@@ -12999,7 +12997,7 @@
         <v>0.25257246819458734</v>
       </c>
     </row>
-    <row r="34" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L34">
         <f t="shared" si="16"/>
         <v>2061</v>
@@ -13073,7 +13071,7 @@
         <v>0.24403137023631633</v>
       </c>
     </row>
-    <row r="35" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L35">
         <f t="shared" si="16"/>
         <v>2062</v>
@@ -13147,7 +13145,7 @@
         <v>0.2357791016776003</v>
       </c>
     </row>
-    <row r="36" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L36">
         <f t="shared" ref="L36:L62" si="34">L35+1</f>
         <v>2063</v>
@@ -13221,7 +13219,7 @@
         <v>0.22780589534067661</v>
       </c>
     </row>
-    <row r="37" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L37">
         <f t="shared" si="34"/>
         <v>2064</v>
@@ -13295,7 +13293,7 @@
         <v>0.22010231433881802</v>
       </c>
     </row>
-    <row r="38" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L38">
         <f t="shared" si="34"/>
         <v>2065</v>
@@ -13369,7 +13367,7 @@
         <v>0.21265924090707056</v>
       </c>
     </row>
-    <row r="39" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L39">
         <f t="shared" si="34"/>
         <v>2066</v>
@@ -13443,7 +13441,7 @@
         <v>0.20546786561069619</v>
       </c>
     </row>
-    <row r="40" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L40">
         <f t="shared" si="34"/>
         <v>2067</v>
@@ -13517,7 +13515,7 @@
         <v>0.19851967691854708</v>
       </c>
     </row>
-    <row r="41" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L41">
         <f t="shared" si="34"/>
         <v>2068</v>
@@ -13591,7 +13589,7 @@
         <v>0.19180645112903102</v>
       </c>
     </row>
-    <row r="42" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L42">
         <f t="shared" si="34"/>
         <v>2069</v>
@@ -13665,7 +13663,7 @@
         <v>0.18532024263674499</v>
       </c>
     </row>
-    <row r="43" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L43">
         <f t="shared" si="34"/>
         <v>2070</v>
@@ -13739,7 +13737,7 @@
         <v>0.17905337452825601</v>
       </c>
     </row>
-    <row r="44" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L44">
         <f t="shared" si="34"/>
         <v>2071</v>
@@ -13813,7 +13811,7 @@
         <v>0.17299842949589955</v>
       </c>
     </row>
-    <row r="45" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L45">
         <f t="shared" si="34"/>
         <v>2072</v>
@@ -13887,7 +13885,7 @@
         <v>0.16714824105884016</v>
       </c>
     </row>
-    <row r="46" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L46">
         <f t="shared" si="34"/>
         <v>2073</v>
@@ -13961,7 +13959,7 @@
         <v>0.16149588508100501</v>
       </c>
     </row>
-    <row r="47" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L47">
         <f t="shared" si="34"/>
         <v>2074</v>
@@ -14035,7 +14033,7 @@
         <v>0.15603467157585027</v>
       </c>
     </row>
-    <row r="48" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L48">
         <f t="shared" si="34"/>
         <v>2075</v>
@@ -14109,7 +14107,7 @@
         <v>0.15075813678826111</v>
       </c>
     </row>
-    <row r="49" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L49">
         <f t="shared" si="34"/>
         <v>2076</v>
@@ -14183,7 +14181,7 @@
         <v>0.14566003554421367</v>
       </c>
     </row>
-    <row r="50" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L50">
         <f t="shared" si="34"/>
         <v>2077</v>
@@ -14257,7 +14255,7 @@
         <v>0.14073433385914366</v>
       </c>
     </row>
-    <row r="51" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L51">
         <f t="shared" si="34"/>
         <v>2078</v>
@@ -14331,7 +14329,7 @@
         <v>0.13597520179627406</v>
       </c>
     </row>
-    <row r="52" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L52">
         <f t="shared" si="34"/>
         <v>2079</v>
@@ -14405,7 +14403,7 @@
         <v>0.13137700656644835</v>
       </c>
     </row>
-    <row r="53" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L53">
         <f t="shared" si="34"/>
         <v>2080</v>
@@ -14479,7 +14477,7 @@
         <v>0.12693430586130278</v>
       </c>
     </row>
-    <row r="54" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L54">
         <f t="shared" si="34"/>
         <v>2081</v>
@@ -14553,7 +14551,7 @@
         <v>0.12264184141188678</v>
       </c>
     </row>
-    <row r="55" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L55">
         <f t="shared" si="34"/>
         <v>2082</v>
@@ -14627,7 +14625,7 @@
         <v>0.11849453276510799</v>
       </c>
     </row>
-    <row r="56" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L56">
         <f t="shared" si="34"/>
         <v>2083</v>
@@ -14701,7 +14699,7 @@
         <v>0.11448747127063574</v>
       </c>
     </row>
-    <row r="57" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L57">
         <f t="shared" si="34"/>
         <v>2084</v>
@@ -14775,7 +14773,7 @@
         <v>0.11061591427114567</v>
       </c>
     </row>
-    <row r="58" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L58">
         <f t="shared" si="34"/>
         <v>2085</v>
@@ -14849,7 +14847,7 @@
         <v>0.10687527948902965</v>
       </c>
     </row>
-    <row r="59" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L59">
         <f t="shared" si="34"/>
         <v>2086</v>
@@ -14923,7 +14921,7 @@
         <v>0.10326113960292721</v>
       </c>
     </row>
-    <row r="60" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L60">
         <f t="shared" si="34"/>
         <v>2087</v>
@@ -14997,7 +14995,7 @@
         <v>9.9769217007659144E-2</v>
       </c>
     </row>
-    <row r="61" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L61">
         <f t="shared" si="34"/>
         <v>2088</v>
@@ -15071,7 +15069,7 @@
         <v>9.6395378751361491E-2</v>
       </c>
     </row>
-    <row r="62" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L62">
         <f t="shared" si="34"/>
         <v>2089</v>
@@ -15145,27 +15143,27 @@
         <v>9.3135631643827543E-2</v>
       </c>
     </row>
-    <row r="63" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="12:34" x14ac:dyDescent="0.25">
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="12:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="12:34" x14ac:dyDescent="0.25">
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
@@ -15180,35 +15178,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFD98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -15219,7 +15215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
         <v>158</v>
       </c>
@@ -15242,7 +15238,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -15268,7 +15264,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>170</v>
       </c>
@@ -15284,7 +15280,7 @@
       <c r="E4" s="200"/>
       <c r="F4" s="201"/>
     </row>
-    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -15303,10 +15299,10 @@
       <c r="E5" s="197"/>
       <c r="F5" s="199"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -15331,7 +15327,7 @@
       <c r="AF7" s="186"/>
       <c r="AG7" s="186"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="87">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -15387,7 +15383,7 @@
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>52</v>
       </c>
@@ -15412,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="123">
-        <f>-pp_tyo!F9*C5</f>
+        <f>-pp_muu!F9*C5</f>
         <v>0</v>
       </c>
       <c r="I9" s="105">
@@ -15452,7 +15448,7 @@
       <c r="AF9" s="190"/>
       <c r="AG9" s="186"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
         <v>53</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="123">
-        <f>-pp_tyo!F10*C5</f>
+        <f>-pp_muu!F10*C5</f>
         <v>0</v>
       </c>
       <c r="I10" s="106">
@@ -15517,7 +15513,7 @@
       <c r="AF10" s="190"/>
       <c r="AG10" s="186"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
         <v>8</v>
       </c>
@@ -15582,7 +15578,7 @@
       <c r="AF11" s="190"/>
       <c r="AG11" s="186"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N12" s="186"/>
       <c r="O12" s="186"/>
       <c r="P12" s="186"/>
@@ -15604,7 +15600,7 @@
       <c r="AF12" s="186"/>
       <c r="AG12" s="186"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="87">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -15660,7 +15656,7 @@
       <c r="AF13" s="186"/>
       <c r="AG13" s="186"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="56" t="s">
         <v>52</v>
       </c>
@@ -15685,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="123">
-        <f>-pp_tyo!F14*C5</f>
+        <f>-pp_muu!F14*C5</f>
         <v>0</v>
       </c>
       <c r="I14" s="105">
@@ -15725,7 +15721,7 @@
       <c r="AF14" s="190"/>
       <c r="AG14" s="186"/>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>53</v>
       </c>
@@ -15750,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="123">
-        <f>-pp_tyo!F15*C5</f>
+        <f>-pp_muu!F15*C5</f>
         <v>0</v>
       </c>
       <c r="I15" s="106">
@@ -15790,7 +15786,7 @@
       <c r="AF15" s="190"/>
       <c r="AG15" s="186"/>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="57" t="s">
         <v>8</v>
       </c>
@@ -15855,7 +15851,7 @@
       <c r="AF16" s="190"/>
       <c r="AG16" s="186"/>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N17" s="186"/>
       <c r="O17" s="186"/>
       <c r="P17" s="186"/>
@@ -15877,7 +15873,7 @@
       <c r="AF17" s="186"/>
       <c r="AG17" s="186"/>
     </row>
-    <row r="18" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="134" t="s">
         <v>54</v>
       </c>
@@ -15914,7 +15910,7 @@
       <c r="AF18" s="186"/>
       <c r="AG18" s="186"/>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N19" s="186"/>
       <c r="O19" s="186"/>
       <c r="P19" s="186"/>
@@ -15936,7 +15932,7 @@
       <c r="AF19" s="186"/>
       <c r="AG19" s="186"/>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>55</v>
       </c>
@@ -15968,7 +15964,7 @@
       <c r="AF20" s="186"/>
       <c r="AG20" s="186"/>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="87">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -16015,7 +16011,7 @@
       <c r="AF21" s="186"/>
       <c r="AG21" s="186"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>52</v>
       </c>
@@ -16068,7 +16064,7 @@
       <c r="AF22" s="186"/>
       <c r="AG22" s="186"/>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
         <v>53</v>
       </c>
@@ -16121,7 +16117,7 @@
       <c r="AF23" s="186"/>
       <c r="AG23" s="186"/>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>8</v>
       </c>
@@ -16174,7 +16170,7 @@
       <c r="AF24" s="186"/>
       <c r="AG24" s="186"/>
     </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="193"/>
       <c r="G25" s="193"/>
       <c r="H25" s="193"/>
@@ -16199,7 +16195,7 @@
       <c r="AF25" s="186"/>
       <c r="AG25" s="186"/>
     </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="87">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -16246,7 +16242,7 @@
       <c r="AF26" s="186"/>
       <c r="AG26" s="186"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B27" s="52" t="s">
         <v>52</v>
       </c>
@@ -16298,7 +16294,7 @@
       <c r="AF27" s="186"/>
       <c r="AG27" s="186"/>
     </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>53</v>
       </c>
@@ -16350,7 +16346,7 @@
       <c r="AF28" s="186"/>
       <c r="AG28" s="186"/>
     </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="53" t="s">
         <v>8</v>
       </c>
@@ -16402,7 +16398,7 @@
       <c r="AF29" s="186"/>
       <c r="AG29" s="186"/>
     </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N30" s="186"/>
       <c r="O30" s="186"/>
       <c r="P30" s="186"/>
@@ -16424,7 +16420,7 @@
       <c r="AF30" s="186"/>
       <c r="AG30" s="186"/>
     </row>
-    <row r="31" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="134" t="s">
         <v>54</v>
       </c>
@@ -16453,7 +16449,7 @@
       <c r="AF31" s="186"/>
       <c r="AG31" s="186"/>
     </row>
-    <row r="32" spans="1:33" s="88" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N32" s="191"/>
       <c r="O32" s="191"/>
       <c r="P32" s="191"/>
@@ -16475,7 +16471,7 @@
       <c r="AF32" s="191"/>
       <c r="AG32" s="191"/>
     </row>
-    <row r="33" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N33" s="186"/>
       <c r="O33" s="186"/>
       <c r="P33" s="186"/>
@@ -16497,7 +16493,7 @@
       <c r="AF33" s="186"/>
       <c r="AG33" s="186"/>
     </row>
-    <row r="34" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -16531,7 +16527,7 @@
       <c r="AF34" s="186"/>
       <c r="AG34" s="186"/>
     </row>
-    <row r="35" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>56</v>
       </c>
@@ -16567,7 +16563,7 @@
       <c r="AF35" s="186"/>
       <c r="AG35" s="186"/>
     </row>
-    <row r="36" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36" s="87">
         <f>Diskonttaus!B4</f>
@@ -16620,7 +16616,7 @@
       <c r="AF36" s="186"/>
       <c r="AG36" s="186"/>
     </row>
-    <row r="37" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="56" t="s">
         <v>52</v>
@@ -16680,7 +16676,7 @@
       <c r="AF37" s="190"/>
       <c r="AG37" s="186"/>
     </row>
-    <row r="38" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="35" t="s">
         <v>53</v>
@@ -16740,7 +16736,7 @@
       <c r="AF38" s="190"/>
       <c r="AG38" s="186"/>
     </row>
-    <row r="39" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39" s="57" t="s">
         <v>8</v>
@@ -16800,7 +16796,7 @@
       <c r="AF39" s="190"/>
       <c r="AG39" s="186"/>
     </row>
-    <row r="40" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -16834,7 +16830,7 @@
       <c r="AF40" s="186"/>
       <c r="AG40" s="186"/>
     </row>
-    <row r="41" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41" s="87">
         <f>Diskonttaus!B6</f>
@@ -16887,7 +16883,7 @@
       <c r="AF41" s="186"/>
       <c r="AG41" s="186"/>
     </row>
-    <row r="42" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="56" t="s">
         <v>52</v>
@@ -16947,7 +16943,7 @@
       <c r="AF42" s="190"/>
       <c r="AG42" s="186"/>
     </row>
-    <row r="43" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="35" t="s">
         <v>53</v>
@@ -17007,7 +17003,7 @@
       <c r="AF43" s="190"/>
       <c r="AG43" s="186"/>
     </row>
-    <row r="44" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44" s="57" t="s">
         <v>8</v>
@@ -17067,7 +17063,7 @@
       <c r="AF44" s="190"/>
       <c r="AG44" s="186"/>
     </row>
-    <row r="45" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -17101,7 +17097,7 @@
       <c r="AF45" s="186"/>
       <c r="AG45" s="186"/>
     </row>
-    <row r="46" spans="1:34" s="183" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" s="183" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46"/>
       <c r="B46" s="128" t="s">
         <v>54</v>
@@ -17140,7 +17136,7 @@
       <c r="AF46" s="186"/>
       <c r="AG46" s="186"/>
     </row>
-    <row r="47" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -17174,7 +17170,7 @@
       <c r="AF47" s="186"/>
       <c r="AG47" s="186"/>
     </row>
-    <row r="48" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -17208,7 +17204,7 @@
       <c r="AG48" s="186"/>
       <c r="AH48" s="186"/>
     </row>
-    <row r="49" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -17242,7 +17238,7 @@
       <c r="AG49" s="186"/>
       <c r="AH49" s="186"/>
     </row>
-    <row r="50" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O50" s="186"/>
       <c r="P50" s="186"/>
       <c r="Q50" s="186"/>
@@ -17264,17 +17260,17 @@
       <c r="AG50" s="186"/>
       <c r="AH50" s="186"/>
     </row>
-    <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="121" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="31" t="s">
         <v>59</v>
       </c>
@@ -17288,7 +17284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
         <v>44</v>
       </c>
@@ -17305,7 +17301,7 @@
         <v>0.12790000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>63</v>
       </c>
@@ -17322,7 +17318,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
         <v>64</v>
       </c>
@@ -17339,7 +17335,7 @@
         <v>0.4415</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B64" s="38" t="s">
         <v>65</v>
       </c>
@@ -17356,7 +17352,7 @@
         <v>0.31890000000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="39" t="s">
         <v>66</v>
       </c>
@@ -17373,11 +17369,11 @@
         <v>0.64739999999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD66" s="40"/>
     </row>
-    <row r="68" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="31" t="s">
         <v>67</v>
       </c>
@@ -17406,7 +17402,7 @@
       <c r="P69" s="20"/>
       <c r="Q69" s="20"/>
     </row>
-    <row r="70" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>44</v>
       </c>
@@ -17435,7 +17431,7 @@
       <c r="P70" s="97"/>
       <c r="Q70" s="175"/>
     </row>
-    <row r="71" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B71" s="35" t="s">
         <v>63</v>
       </c>
@@ -17464,7 +17460,7 @@
       <c r="P71" s="99"/>
       <c r="Q71" s="176"/>
     </row>
-    <row r="72" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B72" s="35" t="s">
         <v>64</v>
       </c>
@@ -17493,7 +17489,7 @@
       <c r="P72" s="99"/>
       <c r="Q72" s="176"/>
     </row>
-    <row r="73" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B73" s="35" t="s">
         <v>65</v>
       </c>
@@ -17522,7 +17518,7 @@
       <c r="P73" s="99"/>
       <c r="Q73" s="176"/>
     </row>
-    <row r="74" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="33" t="s">
         <v>66</v>
       </c>
@@ -17551,7 +17547,7 @@
       <c r="P74" s="101"/>
       <c r="Q74" s="177"/>
     </row>
-    <row r="75" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H75" s="10" t="s">
         <v>62</v>
       </c>
@@ -17572,7 +17568,7 @@
       <c r="P75" s="102"/>
       <c r="Q75" s="102"/>
     </row>
-    <row r="76" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="31" t="s">
         <v>67</v>
       </c>
@@ -17601,7 +17597,7 @@
       <c r="P76" s="20"/>
       <c r="Q76" s="20"/>
     </row>
-    <row r="77" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>44</v>
       </c>
@@ -17630,7 +17626,7 @@
       <c r="P77" s="97"/>
       <c r="Q77" s="175"/>
     </row>
-    <row r="78" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>63</v>
       </c>
@@ -17659,7 +17655,7 @@
       <c r="P78" s="99"/>
       <c r="Q78" s="176"/>
     </row>
-    <row r="79" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B79" s="35" t="s">
         <v>64</v>
       </c>
@@ -17688,7 +17684,7 @@
       <c r="P79" s="99"/>
       <c r="Q79" s="176"/>
     </row>
-    <row r="80" spans="2:17 16384:16384" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B80" s="35" t="s">
         <v>65</v>
       </c>
@@ -17717,7 +17713,7 @@
       <c r="P80" s="99"/>
       <c r="Q80" s="176"/>
     </row>
-    <row r="81" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="33" t="s">
         <v>66</v>
       </c>
@@ -17746,7 +17742,7 @@
       <c r="P81" s="101"/>
       <c r="Q81" s="177"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
       <c r="C82" s="95"/>
       <c r="D82" s="24"/>
@@ -17772,21 +17768,21 @@
       <c r="P82" s="102"/>
       <c r="Q82" s="102"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="24"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="24"/>
     </row>
-    <row r="98" s="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17801,14 +17797,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -17816,12 +17812,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -17832,7 +17828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.45600000000000002</v>
       </c>
@@ -17843,15 +17839,15 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -17871,7 +17867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -17887,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -17903,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -17928,10 +17924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -17951,7 +17947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -17967,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -17983,7 +17979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -18008,15 +18004,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -18036,7 +18032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -18052,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -18068,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -18093,10 +18089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -18116,7 +18112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -18132,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -18148,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -18173,7 +18169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -18181,7 +18177,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -18189,15 +18185,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -18217,7 +18213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -18233,7 +18229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -18249,7 +18245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -18274,10 +18270,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -18297,7 +18293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -18313,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -18329,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -18367,14 +18363,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -18382,12 +18378,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -18398,7 +18394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.48799999999999999</v>
       </c>
@@ -18409,15 +18405,15 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -18437,7 +18433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -18453,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -18469,7 +18465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -18494,10 +18490,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -18517,7 +18513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -18533,7 +18529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -18549,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -18574,15 +18570,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -18602,7 +18598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -18618,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -18634,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -18659,10 +18655,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -18682,7 +18678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -18698,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -18714,7 +18710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -18739,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -18747,7 +18743,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -18755,15 +18751,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -18783,7 +18779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -18799,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -18815,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -18840,10 +18836,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -18863,7 +18859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -18879,7 +18875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -18895,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -18933,14 +18929,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -18948,12 +18944,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -18964,7 +18960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.44500000000000001</v>
       </c>
@@ -18975,15 +18971,15 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -19003,7 +18999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -19019,7 +19015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -19035,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -19060,10 +19056,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -19083,7 +19079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -19099,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -19115,7 +19111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -19140,15 +19136,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -19168,7 +19164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -19184,7 +19180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -19200,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -19225,10 +19221,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -19248,7 +19244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -19264,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -19280,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -19305,7 +19301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -19313,7 +19309,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -19321,15 +19317,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -19349,7 +19345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -19365,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -19381,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -19406,10 +19402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -19429,7 +19425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -19445,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -19461,7 +19457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -19499,14 +19495,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -19514,12 +19510,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -19530,7 +19526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.57099999999999995</v>
       </c>
@@ -19541,15 +19537,15 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -19569,7 +19565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -19585,7 +19581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -19601,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -19626,10 +19622,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -19649,7 +19645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -19665,7 +19661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -19681,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -19706,15 +19702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -19734,7 +19730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -19750,7 +19746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -19766,7 +19762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -19791,10 +19787,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -19814,7 +19810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -19830,7 +19826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -19846,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -19871,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -19879,7 +19875,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -19887,15 +19883,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -19915,7 +19911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -19931,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -19947,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -19972,10 +19968,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -19995,7 +19991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -20011,7 +20007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -20027,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -20065,14 +20061,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -20080,12 +20076,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -20096,7 +20092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.54200000000000004</v>
       </c>
@@ -20107,15 +20103,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -20135,7 +20131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -20151,7 +20147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -20167,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -20192,10 +20188,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -20215,7 +20211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -20231,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -20247,7 +20243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -20272,15 +20268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -20300,7 +20296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -20316,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -20332,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -20357,10 +20353,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -20380,7 +20376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -20396,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -20412,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -20437,7 +20433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -20445,7 +20441,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -20453,15 +20449,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -20481,7 +20477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -20497,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -20513,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -20538,10 +20534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -20561,7 +20557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -20577,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -20593,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -20631,14 +20627,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -20646,12 +20642,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>47</v>
       </c>
@@ -20662,7 +20658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
         <v>0.72499999999999998</v>
       </c>
@@ -20673,15 +20669,15 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="193"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="243">
         <v>2030</v>
       </c>
@@ -20701,7 +20697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="244" t="s">
         <v>52</v>
       </c>
@@ -20717,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>53</v>
       </c>
@@ -20733,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="246" t="s">
         <v>8</v>
       </c>
@@ -20758,10 +20754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="247"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="243">
         <v>2050</v>
       </c>
@@ -20781,7 +20777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>52</v>
       </c>
@@ -20797,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>53</v>
       </c>
@@ -20813,7 +20809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
@@ -20838,15 +20834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="186"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="243">
         <v>2030</v>
       </c>
@@ -20866,7 +20862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="244" t="s">
         <v>52</v>
       </c>
@@ -20882,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="250" t="s">
         <v>53</v>
       </c>
@@ -20898,7 +20894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="246" t="s">
         <v>8</v>
       </c>
@@ -20923,10 +20919,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="251"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="243">
         <v>2050</v>
       </c>
@@ -20946,7 +20942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -20962,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
@@ -20978,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
@@ -21003,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
@@ -21011,7 +21007,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="183"/>
       <c r="B33" s="183"/>
       <c r="C33" s="183"/>
@@ -21019,15 +21015,15 @@
       <c r="E33" s="183"/>
       <c r="F33" s="183"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="252">
         <v>2030</v>
       </c>
@@ -21047,7 +21043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
         <v>52</v>
       </c>
@@ -21063,7 +21059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="254" t="s">
         <v>53</v>
       </c>
@@ -21079,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="255" t="s">
         <v>8</v>
       </c>
@@ -21104,10 +21100,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="251"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="252">
         <v>2050</v>
       </c>
@@ -21127,7 +21123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="253" t="s">
         <v>52</v>
       </c>
@@ -21143,7 +21139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="254" t="s">
         <v>53</v>
       </c>
@@ -21159,7 +21155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
         <v>8</v>
       </c>
@@ -21190,12 +21186,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
+    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
+        </TermInfo>
+      </Terms>
+    </c7e7d47415304583b97cbceafb48fc9c>
+    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
+    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gbd2c824d606482d8ac0e417e142bc2f>
+    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lf2a24d45b2949218b95d66f1d0b33a8>
+    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
+      <Value>2</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21434,35 +21447,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
-    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
-        </TermInfo>
-      </Terms>
-    </c7e7d47415304583b97cbceafb48fc9c>
-    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
-    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gbd2c824d606482d8ac0e417e142bc2f>
-    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lf2a24d45b2949218b95d66f1d0b33a8>
-    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
-      <Value>2</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
+    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
+    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21488,19 +21494,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
-    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
-    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>